--- a/Data/regression_data/UFApD/regression_UFApD.xlsx
+++ b/Data/regression_data/UFApD/regression_UFApD.xlsx
@@ -460,13 +460,13 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>330.6828058506901</v>
+        <v>330.6828058506879</v>
       </c>
       <c r="C2" t="n">
-        <v>123.200138094299</v>
+        <v>123.2001380942989</v>
       </c>
       <c r="D2" t="n">
-        <v>83.45402023504226</v>
+        <v>83.45402023504219</v>
       </c>
     </row>
     <row r="3">
@@ -474,13 +474,13 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>330.3426993208026</v>
+        <v>330.3426993208004</v>
       </c>
       <c r="C3" t="n">
-        <v>123.1542710593809</v>
+        <v>123.1542710593808</v>
       </c>
       <c r="D3" t="n">
-        <v>83.42995237155834</v>
+        <v>83.42995237155827</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +488,13 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>330.0025927909149</v>
+        <v>330.0025927909128</v>
       </c>
       <c r="C4" t="n">
         <v>123.1084040244627</v>
       </c>
       <c r="D4" t="n">
-        <v>83.40588450807442</v>
+        <v>83.40588450807435</v>
       </c>
     </row>
     <row r="5">
@@ -502,13 +502,13 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>329.6624862610274</v>
+        <v>329.6624862610253</v>
       </c>
       <c r="C5" t="n">
-        <v>123.0625369895446</v>
+        <v>123.0625369895445</v>
       </c>
       <c r="D5" t="n">
-        <v>83.3818166445905</v>
+        <v>83.38181664459043</v>
       </c>
     </row>
     <row r="6">
@@ -516,13 +516,13 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>329.3223797311399</v>
+        <v>329.3223797311377</v>
       </c>
       <c r="C6" t="n">
-        <v>123.0166699546265</v>
+        <v>123.0166699546264</v>
       </c>
       <c r="D6" t="n">
-        <v>83.35774878110658</v>
+        <v>83.35774878110649</v>
       </c>
     </row>
     <row r="7">
@@ -530,13 +530,13 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>328.9822732012523</v>
+        <v>328.9822732012502</v>
       </c>
       <c r="C7" t="n">
         <v>122.9708029197083</v>
       </c>
       <c r="D7" t="n">
-        <v>83.33368091762266</v>
+        <v>83.33368091762259</v>
       </c>
     </row>
     <row r="8">
@@ -544,13 +544,13 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>328.6421666713647</v>
+        <v>328.6421666713626</v>
       </c>
       <c r="C8" t="n">
-        <v>122.9249358847902</v>
+        <v>122.9249358847901</v>
       </c>
       <c r="D8" t="n">
-        <v>83.30961305413874</v>
+        <v>83.30961305413865</v>
       </c>
     </row>
     <row r="9">
@@ -558,13 +558,13 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>328.3020601414772</v>
+        <v>328.3020601414751</v>
       </c>
       <c r="C9" t="n">
-        <v>122.8790688498721</v>
+        <v>122.879068849872</v>
       </c>
       <c r="D9" t="n">
-        <v>83.2855451906548</v>
+        <v>83.28554519065474</v>
       </c>
     </row>
     <row r="10">
@@ -572,13 +572,13 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>327.9619536115897</v>
+        <v>327.9619536115875</v>
       </c>
       <c r="C10" t="n">
-        <v>122.833201814954</v>
+        <v>122.8332018149539</v>
       </c>
       <c r="D10" t="n">
-        <v>83.26147732717089</v>
+        <v>83.26147732717081</v>
       </c>
     </row>
     <row r="11">
@@ -586,13 +586,13 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>327.6218470817021</v>
+        <v>327.6218470817</v>
       </c>
       <c r="C11" t="n">
         <v>122.7873347800358</v>
       </c>
       <c r="D11" t="n">
-        <v>83.23740946368696</v>
+        <v>83.2374094636869</v>
       </c>
     </row>
     <row r="12">
@@ -600,13 +600,13 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>327.2817405518146</v>
+        <v>327.2817405518124</v>
       </c>
       <c r="C12" t="n">
-        <v>122.7414677451177</v>
+        <v>122.7414677451176</v>
       </c>
       <c r="D12" t="n">
-        <v>83.21334160020305</v>
+        <v>83.21334160020297</v>
       </c>
     </row>
     <row r="13">
@@ -614,13 +614,13 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>326.941634021927</v>
+        <v>326.9416340219249</v>
       </c>
       <c r="C13" t="n">
-        <v>122.6956007101996</v>
+        <v>122.6956007101995</v>
       </c>
       <c r="D13" t="n">
-        <v>83.18927373671912</v>
+        <v>83.18927373671906</v>
       </c>
     </row>
     <row r="14">
@@ -628,13 +628,13 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>326.6015274920394</v>
+        <v>326.6015274920373</v>
       </c>
       <c r="C14" t="n">
         <v>122.6497336752814</v>
       </c>
       <c r="D14" t="n">
-        <v>83.16520587323521</v>
+        <v>83.16520587323512</v>
       </c>
     </row>
     <row r="15">
@@ -642,13 +642,13 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>326.2614209621519</v>
+        <v>326.2614209621498</v>
       </c>
       <c r="C15" t="n">
-        <v>122.6038666403633</v>
+        <v>122.6038666403632</v>
       </c>
       <c r="D15" t="n">
-        <v>83.14113800975127</v>
+        <v>83.1411380097512</v>
       </c>
     </row>
     <row r="16">
@@ -656,13 +656,13 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>325.9213144322644</v>
+        <v>325.9213144322622</v>
       </c>
       <c r="C16" t="n">
-        <v>122.5579996054452</v>
+        <v>122.5579996054451</v>
       </c>
       <c r="D16" t="n">
-        <v>83.11707014626735</v>
+        <v>83.11707014626728</v>
       </c>
     </row>
     <row r="17">
@@ -670,13 +670,13 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>325.5812079023767</v>
+        <v>325.5812079023747</v>
       </c>
       <c r="C17" t="n">
         <v>122.512132570527</v>
       </c>
       <c r="D17" t="n">
-        <v>83.09300228278343</v>
+        <v>83.09300228278336</v>
       </c>
     </row>
     <row r="18">
@@ -684,13 +684,13 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>325.2411013724892</v>
+        <v>325.2411013724872</v>
       </c>
       <c r="C18" t="n">
-        <v>122.4662655356089</v>
+        <v>122.4662655356088</v>
       </c>
       <c r="D18" t="n">
-        <v>83.06893441929951</v>
+        <v>83.06893441929944</v>
       </c>
     </row>
     <row r="19">
@@ -698,13 +698,13 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>324.9009948426017</v>
+        <v>324.9009948425996</v>
       </c>
       <c r="C19" t="n">
-        <v>122.4203985006908</v>
+        <v>122.4203985006907</v>
       </c>
       <c r="D19" t="n">
-        <v>83.04486655581559</v>
+        <v>83.04486655581552</v>
       </c>
     </row>
     <row r="20">
@@ -712,13 +712,13 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>324.5608883127142</v>
+        <v>324.560888312712</v>
       </c>
       <c r="C20" t="n">
         <v>122.3745314657726</v>
       </c>
       <c r="D20" t="n">
-        <v>83.02079869233167</v>
+        <v>83.0207986923316</v>
       </c>
     </row>
     <row r="21">
@@ -726,13 +726,13 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>324.2207817828265</v>
+        <v>324.2207817828245</v>
       </c>
       <c r="C21" t="n">
         <v>122.3286644308545</v>
       </c>
       <c r="D21" t="n">
-        <v>82.99673082884775</v>
+        <v>82.99673082884767</v>
       </c>
     </row>
     <row r="22">
@@ -740,13 +740,13 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>323.880675252939</v>
+        <v>323.880675252937</v>
       </c>
       <c r="C22" t="n">
-        <v>122.2827973959364</v>
+        <v>122.2827973959363</v>
       </c>
       <c r="D22" t="n">
-        <v>82.97266296536382</v>
+        <v>82.97266296536375</v>
       </c>
     </row>
     <row r="23">
@@ -754,13 +754,13 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>323.5405687230515</v>
+        <v>323.5405687230494</v>
       </c>
       <c r="C23" t="n">
-        <v>122.2369303610183</v>
+        <v>122.2369303610182</v>
       </c>
       <c r="D23" t="n">
-        <v>82.9485951018799</v>
+        <v>82.94859510187983</v>
       </c>
     </row>
     <row r="24">
@@ -768,13 +768,13 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>323.2004621931638</v>
+        <v>323.2004621931618</v>
       </c>
       <c r="C24" t="n">
         <v>122.1910633261001</v>
       </c>
       <c r="D24" t="n">
-        <v>82.92452723839597</v>
+        <v>82.92452723839591</v>
       </c>
     </row>
     <row r="25">
@@ -782,13 +782,13 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>322.8603556632763</v>
+        <v>322.8603556632743</v>
       </c>
       <c r="C25" t="n">
-        <v>122.145196291182</v>
+        <v>122.1451962911819</v>
       </c>
       <c r="D25" t="n">
-        <v>82.90045937491206</v>
+        <v>82.90045937491197</v>
       </c>
     </row>
     <row r="26">
@@ -796,13 +796,13 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>322.5202491333888</v>
+        <v>322.5202491333868</v>
       </c>
       <c r="C26" t="n">
-        <v>122.0993292562639</v>
+        <v>122.0993292562638</v>
       </c>
       <c r="D26" t="n">
-        <v>82.87639151142812</v>
+        <v>82.87639151142807</v>
       </c>
     </row>
     <row r="27">
@@ -810,13 +810,13 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>322.1801426035013</v>
+        <v>322.1801426034992</v>
       </c>
       <c r="C27" t="n">
         <v>122.0534622213457</v>
       </c>
       <c r="D27" t="n">
-        <v>82.85232364794422</v>
+        <v>82.85232364794413</v>
       </c>
     </row>
     <row r="28">
@@ -824,13 +824,13 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>321.8400360736136</v>
+        <v>321.8400360736116</v>
       </c>
       <c r="C28" t="n">
-        <v>122.0075951864276</v>
+        <v>122.0075951864275</v>
       </c>
       <c r="D28" t="n">
-        <v>82.82825578446028</v>
+        <v>82.82825578446023</v>
       </c>
     </row>
     <row r="29">
@@ -838,13 +838,13 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>321.4999295437261</v>
+        <v>321.4999295437241</v>
       </c>
       <c r="C29" t="n">
-        <v>121.9617281515095</v>
+        <v>121.9617281515094</v>
       </c>
       <c r="D29" t="n">
-        <v>82.80418792097637</v>
+        <v>82.80418792097629</v>
       </c>
     </row>
     <row r="30">
@@ -852,13 +852,13 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>321.1598230138386</v>
+        <v>321.1598230138366</v>
       </c>
       <c r="C30" t="n">
         <v>121.9158611165913</v>
       </c>
       <c r="D30" t="n">
-        <v>82.78012005749244</v>
+        <v>82.78012005749238</v>
       </c>
     </row>
     <row r="31">
@@ -866,13 +866,13 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>320.819716483951</v>
+        <v>320.819716483949</v>
       </c>
       <c r="C31" t="n">
-        <v>121.8699940816732</v>
+        <v>121.8699940816731</v>
       </c>
       <c r="D31" t="n">
-        <v>82.75605219400852</v>
+        <v>82.75605219400845</v>
       </c>
     </row>
     <row r="32">
@@ -880,13 +880,13 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>320.4796099540634</v>
+        <v>320.4796099540614</v>
       </c>
       <c r="C32" t="n">
-        <v>121.8241270467551</v>
+        <v>121.824127046755</v>
       </c>
       <c r="D32" t="n">
-        <v>82.7319843305246</v>
+        <v>82.73198433052454</v>
       </c>
     </row>
     <row r="33">
@@ -894,13 +894,13 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>320.1395034241759</v>
+        <v>320.1395034241739</v>
       </c>
       <c r="C33" t="n">
         <v>121.7782600118369</v>
       </c>
       <c r="D33" t="n">
-        <v>82.70791646704068</v>
+        <v>82.7079164670406</v>
       </c>
     </row>
     <row r="34">
@@ -908,13 +908,13 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>319.7993968942883</v>
+        <v>319.7993968942864</v>
       </c>
       <c r="C34" t="n">
         <v>121.7323929769188</v>
       </c>
       <c r="D34" t="n">
-        <v>82.68384860355675</v>
+        <v>82.68384860355668</v>
       </c>
     </row>
     <row r="35">
@@ -922,13 +922,13 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>319.4592903644008</v>
+        <v>319.4592903643988</v>
       </c>
       <c r="C35" t="n">
-        <v>121.6865259420007</v>
+        <v>121.6865259420006</v>
       </c>
       <c r="D35" t="n">
-        <v>82.65978074007283</v>
+        <v>82.65978074007276</v>
       </c>
     </row>
     <row r="36">
@@ -936,13 +936,13 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>319.1191838345133</v>
+        <v>319.1191838345112</v>
       </c>
       <c r="C36" t="n">
-        <v>121.6406589070826</v>
+        <v>121.6406589070825</v>
       </c>
       <c r="D36" t="n">
-        <v>82.63571287658891</v>
+        <v>82.63571287658884</v>
       </c>
     </row>
     <row r="37">
@@ -950,13 +950,13 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>318.7790773046257</v>
+        <v>318.7790773046237</v>
       </c>
       <c r="C37" t="n">
         <v>121.5947918721644</v>
       </c>
       <c r="D37" t="n">
-        <v>82.61164501310499</v>
+        <v>82.61164501310492</v>
       </c>
     </row>
     <row r="38">
@@ -964,13 +964,13 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>318.4389707747381</v>
+        <v>318.4389707747362</v>
       </c>
       <c r="C38" t="n">
-        <v>121.5489248372463</v>
+        <v>121.5489248372462</v>
       </c>
       <c r="D38" t="n">
-        <v>82.58757714962107</v>
+        <v>82.587577149621</v>
       </c>
     </row>
     <row r="39">
@@ -978,13 +978,13 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>318.0988642448506</v>
+        <v>318.0988642448486</v>
       </c>
       <c r="C39" t="n">
-        <v>121.5030578023282</v>
+        <v>121.5030578023281</v>
       </c>
       <c r="D39" t="n">
-        <v>82.56350928613713</v>
+        <v>82.56350928613708</v>
       </c>
     </row>
     <row r="40">
@@ -992,13 +992,13 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>317.7587577149631</v>
+        <v>317.758757714961</v>
       </c>
       <c r="C40" t="n">
         <v>121.45719076741</v>
       </c>
       <c r="D40" t="n">
-        <v>82.53944142265323</v>
+        <v>82.53944142265316</v>
       </c>
     </row>
     <row r="41">
@@ -1006,13 +1006,13 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>317.4186511850754</v>
+        <v>317.4186511850735</v>
       </c>
       <c r="C41" t="n">
-        <v>121.4113237324919</v>
+        <v>121.4113237324918</v>
       </c>
       <c r="D41" t="n">
-        <v>82.51537355916929</v>
+        <v>82.51537355916923</v>
       </c>
     </row>
     <row r="42">
@@ -1020,13 +1020,13 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>317.0785446551879</v>
+        <v>317.078544655186</v>
       </c>
       <c r="C42" t="n">
-        <v>121.3654566975738</v>
+        <v>121.3654566975737</v>
       </c>
       <c r="D42" t="n">
-        <v>82.49130569568538</v>
+        <v>82.4913056956853</v>
       </c>
     </row>
     <row r="43">
@@ -1034,13 +1034,13 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>316.7384381253004</v>
+        <v>316.7384381252984</v>
       </c>
       <c r="C43" t="n">
         <v>121.3195896626556</v>
       </c>
       <c r="D43" t="n">
-        <v>82.46723783220145</v>
+        <v>82.46723783220139</v>
       </c>
     </row>
     <row r="44">
@@ -1048,13 +1048,13 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>316.3983315954129</v>
+        <v>316.3983315954109</v>
       </c>
       <c r="C44" t="n">
         <v>121.2737226277375</v>
       </c>
       <c r="D44" t="n">
-        <v>82.44316996871754</v>
+        <v>82.44316996871746</v>
       </c>
     </row>
     <row r="45">
@@ -1062,13 +1062,13 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>316.0582250655252</v>
+        <v>316.0582250655233</v>
       </c>
       <c r="C45" t="n">
-        <v>121.2278555928194</v>
+        <v>121.2278555928193</v>
       </c>
       <c r="D45" t="n">
-        <v>82.41910210523361</v>
+        <v>82.41910210523355</v>
       </c>
     </row>
     <row r="46">
@@ -1076,13 +1076,13 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>315.7181185356377</v>
+        <v>315.7181185356358</v>
       </c>
       <c r="C46" t="n">
         <v>121.1819885579012</v>
       </c>
       <c r="D46" t="n">
-        <v>82.39503424174968</v>
+        <v>82.39503424174961</v>
       </c>
     </row>
     <row r="47">
@@ -1090,13 +1090,13 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>315.3780120057502</v>
+        <v>315.3780120057482</v>
       </c>
       <c r="C47" t="n">
         <v>121.1361215229831</v>
       </c>
       <c r="D47" t="n">
-        <v>82.37096637826576</v>
+        <v>82.37096637826571</v>
       </c>
     </row>
     <row r="48">
@@ -1104,13 +1104,13 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>315.0379054758625</v>
+        <v>315.0379054758607</v>
       </c>
       <c r="C48" t="n">
-        <v>121.090254488065</v>
+        <v>121.0902544880649</v>
       </c>
       <c r="D48" t="n">
-        <v>82.34689851478184</v>
+        <v>82.34689851478177</v>
       </c>
     </row>
     <row r="49">
@@ -1118,13 +1118,13 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>314.697798945975</v>
+        <v>314.6977989459731</v>
       </c>
       <c r="C49" t="n">
-        <v>121.0443874531469</v>
+        <v>121.0443874531468</v>
       </c>
       <c r="D49" t="n">
-        <v>82.32283065129792</v>
+        <v>82.32283065129786</v>
       </c>
     </row>
     <row r="50">
@@ -1132,13 +1132,13 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>314.3576924160875</v>
+        <v>314.3576924160856</v>
       </c>
       <c r="C50" t="n">
         <v>120.9985204182287</v>
       </c>
       <c r="D50" t="n">
-        <v>82.298762787814</v>
+        <v>82.29876278781393</v>
       </c>
     </row>
     <row r="51">
@@ -1146,13 +1146,13 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>314.0175858861999</v>
+        <v>314.017585886198</v>
       </c>
       <c r="C51" t="n">
-        <v>120.9526533833106</v>
+        <v>120.9526533833105</v>
       </c>
       <c r="D51" t="n">
-        <v>82.27469492433008</v>
+        <v>82.27469492433001</v>
       </c>
     </row>
     <row r="52">
@@ -1160,13 +1160,13 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>313.6774793563123</v>
+        <v>313.6774793563105</v>
       </c>
       <c r="C52" t="n">
-        <v>120.9067863483925</v>
+        <v>120.9067863483924</v>
       </c>
       <c r="D52" t="n">
-        <v>82.25062706084616</v>
+        <v>82.25062706084609</v>
       </c>
     </row>
     <row r="53">
@@ -1174,13 +1174,13 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>313.3373728264248</v>
+        <v>313.3373728264229</v>
       </c>
       <c r="C53" t="n">
         <v>120.8609193134743</v>
       </c>
       <c r="D53" t="n">
-        <v>82.22655919736223</v>
+        <v>82.22655919736216</v>
       </c>
     </row>
     <row r="54">
@@ -1188,13 +1188,13 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>312.9972662965373</v>
+        <v>312.9972662965354</v>
       </c>
       <c r="C54" t="n">
         <v>120.8150522785562</v>
       </c>
       <c r="D54" t="n">
-        <v>82.2024913338783</v>
+        <v>82.20249133387824</v>
       </c>
     </row>
     <row r="55">
@@ -1202,13 +1202,13 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>312.6571597666497</v>
+        <v>312.6571597666479</v>
       </c>
       <c r="C55" t="n">
-        <v>120.7691852436381</v>
+        <v>120.769185243638</v>
       </c>
       <c r="D55" t="n">
-        <v>82.17842347039439</v>
+        <v>82.17842347039432</v>
       </c>
     </row>
     <row r="56">
@@ -1216,13 +1216,13 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>312.3170532367621</v>
+        <v>312.3170532367603</v>
       </c>
       <c r="C56" t="n">
         <v>120.7233182087199</v>
       </c>
       <c r="D56" t="n">
-        <v>82.15435560691046</v>
+        <v>82.1543556069104</v>
       </c>
     </row>
     <row r="57">
@@ -1230,13 +1230,13 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>311.9769467068746</v>
+        <v>311.9769467068727</v>
       </c>
       <c r="C57" t="n">
         <v>120.6774511738018</v>
       </c>
       <c r="D57" t="n">
-        <v>82.13028774342655</v>
+        <v>82.13028774342648</v>
       </c>
     </row>
     <row r="58">
@@ -1244,13 +1244,13 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>311.636840176987</v>
+        <v>311.6368401769852</v>
       </c>
       <c r="C58" t="n">
-        <v>120.6315841388837</v>
+        <v>120.6315841388836</v>
       </c>
       <c r="D58" t="n">
-        <v>82.10621987994261</v>
+        <v>82.10621987994256</v>
       </c>
     </row>
     <row r="59">
@@ -1258,13 +1258,13 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>311.2967336470995</v>
+        <v>311.2967336470977</v>
       </c>
       <c r="C59" t="n">
         <v>120.5857171039655</v>
       </c>
       <c r="D59" t="n">
-        <v>82.08215201645871</v>
+        <v>82.08215201645864</v>
       </c>
     </row>
     <row r="60">
@@ -1272,13 +1272,13 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>310.956627117212</v>
+        <v>310.9566271172101</v>
       </c>
       <c r="C60" t="n">
         <v>120.5398500690474</v>
       </c>
       <c r="D60" t="n">
-        <v>82.05808415297477</v>
+        <v>82.05808415297471</v>
       </c>
     </row>
     <row r="61">
@@ -1286,13 +1286,13 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>310.6165205873244</v>
+        <v>310.6165205873225</v>
       </c>
       <c r="C61" t="n">
-        <v>120.4939830341293</v>
+        <v>120.4939830341292</v>
       </c>
       <c r="D61" t="n">
-        <v>82.03401628949085</v>
+        <v>82.03401628949078</v>
       </c>
     </row>
     <row r="62">
@@ -1300,13 +1300,13 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>310.2764140574368</v>
+        <v>310.276414057435</v>
       </c>
       <c r="C62" t="n">
-        <v>120.4481159992112</v>
+        <v>120.4481159992111</v>
       </c>
       <c r="D62" t="n">
-        <v>82.00994842600693</v>
+        <v>82.00994842600687</v>
       </c>
     </row>
     <row r="63">
@@ -1314,13 +1314,13 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>309.9363075275493</v>
+        <v>309.9363075275475</v>
       </c>
       <c r="C63" t="n">
         <v>120.402248964293</v>
       </c>
       <c r="D63" t="n">
-        <v>81.98588056252301</v>
+        <v>81.98588056252294</v>
       </c>
     </row>
     <row r="64">
@@ -1328,13 +1328,13 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>309.5962009976618</v>
+        <v>309.5962009976599</v>
       </c>
       <c r="C64" t="n">
-        <v>120.3563819293749</v>
+        <v>120.3563819293748</v>
       </c>
       <c r="D64" t="n">
-        <v>81.96181269903909</v>
+        <v>81.96181269903903</v>
       </c>
     </row>
     <row r="65">
@@ -1342,13 +1342,13 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>309.2560944677741</v>
+        <v>309.2560944677723</v>
       </c>
       <c r="C65" t="n">
-        <v>120.3105148944568</v>
+        <v>120.3105148944567</v>
       </c>
       <c r="D65" t="n">
-        <v>81.93774483555516</v>
+        <v>81.93774483555509</v>
       </c>
     </row>
     <row r="66">
@@ -1356,13 +1356,13 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>308.9159879378866</v>
+        <v>308.9159879378848</v>
       </c>
       <c r="C66" t="n">
         <v>120.2646478595386</v>
       </c>
       <c r="D66" t="n">
-        <v>81.91367697207124</v>
+        <v>81.91367697207119</v>
       </c>
     </row>
     <row r="67">
@@ -1370,13 +1370,13 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>308.5758814079991</v>
+        <v>308.5758814079973</v>
       </c>
       <c r="C67" t="n">
         <v>120.2187808246205</v>
       </c>
       <c r="D67" t="n">
-        <v>81.88960910858732</v>
+        <v>81.88960910858725</v>
       </c>
     </row>
     <row r="68">
@@ -1384,13 +1384,13 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>308.2357748781114</v>
+        <v>308.2357748781097</v>
       </c>
       <c r="C68" t="n">
-        <v>120.1729137897024</v>
+        <v>120.1729137897023</v>
       </c>
       <c r="D68" t="n">
-        <v>81.8655412451034</v>
+        <v>81.86554124510334</v>
       </c>
     </row>
     <row r="69">
@@ -1398,13 +1398,13 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>307.8956683482239</v>
+        <v>307.8956683482221</v>
       </c>
       <c r="C69" t="n">
         <v>120.1270467547842</v>
       </c>
       <c r="D69" t="n">
-        <v>81.84147338161947</v>
+        <v>81.84147338161941</v>
       </c>
     </row>
     <row r="70">
@@ -1412,13 +1412,13 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>307.5555618183364</v>
+        <v>307.5555618183346</v>
       </c>
       <c r="C70" t="n">
         <v>120.0811797198661</v>
       </c>
       <c r="D70" t="n">
-        <v>81.81740551813556</v>
+        <v>81.81740551813549</v>
       </c>
     </row>
     <row r="71">
@@ -1426,13 +1426,13 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>307.2154552884489</v>
+        <v>307.2154552884471</v>
       </c>
       <c r="C71" t="n">
-        <v>120.035312684948</v>
+        <v>120.0353126849479</v>
       </c>
       <c r="D71" t="n">
-        <v>81.79333765465162</v>
+        <v>81.79333765465157</v>
       </c>
     </row>
     <row r="72">
@@ -1440,13 +1440,13 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>306.8753487585612</v>
+        <v>306.8753487585595</v>
       </c>
       <c r="C72" t="n">
-        <v>119.9894456500299</v>
+        <v>119.9894456500298</v>
       </c>
       <c r="D72" t="n">
-        <v>81.76926979116772</v>
+        <v>81.76926979116764</v>
       </c>
     </row>
     <row r="73">
@@ -1454,13 +1454,13 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>306.5352422286737</v>
+        <v>306.5352422286719</v>
       </c>
       <c r="C73" t="n">
         <v>119.9435786151117</v>
       </c>
       <c r="D73" t="n">
-        <v>81.74520192768378</v>
+        <v>81.74520192768372</v>
       </c>
     </row>
     <row r="74">
@@ -1468,13 +1468,13 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>306.1951356987862</v>
+        <v>306.1951356987844</v>
       </c>
       <c r="C74" t="n">
-        <v>119.8977115801936</v>
+        <v>119.8977115801935</v>
       </c>
       <c r="D74" t="n">
-        <v>81.72113406419987</v>
+        <v>81.7211340641998</v>
       </c>
     </row>
     <row r="75">
@@ -1482,13 +1482,13 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>305.8550291688986</v>
+        <v>305.8550291688969</v>
       </c>
       <c r="C75" t="n">
-        <v>119.8518445452755</v>
+        <v>119.8518445452754</v>
       </c>
       <c r="D75" t="n">
-        <v>81.69706620071594</v>
+        <v>81.69706620071588</v>
       </c>
     </row>
     <row r="76">
@@ -1496,13 +1496,13 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>305.514922639011</v>
+        <v>305.5149226390093</v>
       </c>
       <c r="C76" t="n">
         <v>119.8059775103573</v>
       </c>
       <c r="D76" t="n">
-        <v>81.67299833723202</v>
+        <v>81.67299833723196</v>
       </c>
     </row>
     <row r="77">
@@ -1510,13 +1510,13 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>305.1748161091235</v>
+        <v>305.1748161091217</v>
       </c>
       <c r="C77" t="n">
-        <v>119.7601104754392</v>
+        <v>119.7601104754391</v>
       </c>
       <c r="D77" t="n">
-        <v>81.64893047374809</v>
+        <v>81.64893047374804</v>
       </c>
     </row>
     <row r="78">
@@ -1524,13 +1524,13 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>304.834709579236</v>
+        <v>304.8347095792342</v>
       </c>
       <c r="C78" t="n">
-        <v>119.7142434405211</v>
+        <v>119.714243440521</v>
       </c>
       <c r="D78" t="n">
-        <v>81.62486261026417</v>
+        <v>81.6248626102641</v>
       </c>
     </row>
     <row r="79">
@@ -1538,13 +1538,13 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>304.4946030493484</v>
+        <v>304.4946030493467</v>
       </c>
       <c r="C79" t="n">
         <v>119.6683764056029</v>
       </c>
       <c r="D79" t="n">
-        <v>81.60079474678025</v>
+        <v>81.6007947467802</v>
       </c>
     </row>
     <row r="80">
@@ -1552,13 +1552,13 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>304.1544965194608</v>
+        <v>304.1544965194591</v>
       </c>
       <c r="C80" t="n">
         <v>119.6225093706848</v>
       </c>
       <c r="D80" t="n">
-        <v>81.57672688329633</v>
+        <v>81.57672688329626</v>
       </c>
     </row>
     <row r="81">
@@ -1566,13 +1566,13 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>303.8143899895733</v>
+        <v>303.8143899895715</v>
       </c>
       <c r="C81" t="n">
-        <v>119.5766423357667</v>
+        <v>119.5766423357666</v>
       </c>
       <c r="D81" t="n">
-        <v>81.55265901981241</v>
+        <v>81.55265901981235</v>
       </c>
     </row>
     <row r="82">
@@ -1580,13 +1580,13 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>303.4742834596857</v>
+        <v>303.474283459684</v>
       </c>
       <c r="C82" t="n">
         <v>119.5307753008485</v>
       </c>
       <c r="D82" t="n">
-        <v>81.52859115632849</v>
+        <v>81.52859115632842</v>
       </c>
     </row>
     <row r="83">
@@ -1594,13 +1594,13 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>303.1341769297982</v>
+        <v>303.1341769297965</v>
       </c>
       <c r="C83" t="n">
         <v>119.4849082659304</v>
       </c>
       <c r="D83" t="n">
-        <v>81.50452329284457</v>
+        <v>81.50452329284451</v>
       </c>
     </row>
     <row r="84">
@@ -1608,13 +1608,13 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>302.7940703999107</v>
+        <v>302.7940703999089</v>
       </c>
       <c r="C84" t="n">
-        <v>119.4390412310123</v>
+        <v>119.4390412310122</v>
       </c>
       <c r="D84" t="n">
-        <v>81.48045542936063</v>
+        <v>81.48045542936057</v>
       </c>
     </row>
     <row r="85">
@@ -1622,13 +1622,13 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>302.453963870023</v>
+        <v>302.4539638700213</v>
       </c>
       <c r="C85" t="n">
-        <v>119.3931741960942</v>
+        <v>119.3931741960941</v>
       </c>
       <c r="D85" t="n">
-        <v>81.45638756587672</v>
+        <v>81.45638756587667</v>
       </c>
     </row>
     <row r="86">
@@ -1636,13 +1636,13 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>302.1138573401355</v>
+        <v>302.1138573401338</v>
       </c>
       <c r="C86" t="n">
         <v>119.347307161176</v>
       </c>
       <c r="D86" t="n">
-        <v>81.43231970239279</v>
+        <v>81.43231970239273</v>
       </c>
     </row>
     <row r="87">
@@ -1650,13 +1650,13 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>301.773750810248</v>
+        <v>301.7737508102463</v>
       </c>
       <c r="C87" t="n">
-        <v>119.3014401262579</v>
+        <v>119.3014401262578</v>
       </c>
       <c r="D87" t="n">
-        <v>81.40825183890888</v>
+        <v>81.40825183890881</v>
       </c>
     </row>
     <row r="88">
@@ -1664,13 +1664,13 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>301.4336442803605</v>
+        <v>301.4336442803587</v>
       </c>
       <c r="C88" t="n">
-        <v>119.2555730913398</v>
+        <v>119.2555730913397</v>
       </c>
       <c r="D88" t="n">
-        <v>81.38418397542495</v>
+        <v>81.38418397542489</v>
       </c>
     </row>
     <row r="89">
@@ -1678,13 +1678,13 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>301.0935377504728</v>
+        <v>301.0935377504711</v>
       </c>
       <c r="C89" t="n">
         <v>119.2097060564216</v>
       </c>
       <c r="D89" t="n">
-        <v>81.36011611194104</v>
+        <v>81.36011611194097</v>
       </c>
     </row>
     <row r="90">
@@ -1692,13 +1692,13 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>300.7534312205853</v>
+        <v>300.7534312205836</v>
       </c>
       <c r="C90" t="n">
-        <v>119.1638390215035</v>
+        <v>119.1638390215034</v>
       </c>
       <c r="D90" t="n">
-        <v>81.3360482484571</v>
+        <v>81.33604824845705</v>
       </c>
     </row>
     <row r="91">
@@ -1706,13 +1706,13 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>300.4133246906978</v>
+        <v>300.4133246906961</v>
       </c>
       <c r="C91" t="n">
-        <v>119.1179719865854</v>
+        <v>119.1179719865853</v>
       </c>
       <c r="D91" t="n">
-        <v>81.31198038497318</v>
+        <v>81.31198038497313</v>
       </c>
     </row>
     <row r="92">
@@ -1720,13 +1720,13 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>300.0732181608101</v>
+        <v>300.0732181608086</v>
       </c>
       <c r="C92" t="n">
         <v>119.0721049516672</v>
       </c>
       <c r="D92" t="n">
-        <v>81.28791252148926</v>
+        <v>81.2879125214892</v>
       </c>
     </row>
     <row r="93">
@@ -1734,13 +1734,13 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>299.7331116309226</v>
+        <v>299.733111630921</v>
       </c>
       <c r="C93" t="n">
         <v>119.0262379167491</v>
       </c>
       <c r="D93" t="n">
-        <v>81.26384465800534</v>
+        <v>81.26384465800528</v>
       </c>
     </row>
     <row r="94">
@@ -1748,13 +1748,13 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>299.3930051010351</v>
+        <v>299.3930051010334</v>
       </c>
       <c r="C94" t="n">
-        <v>118.980370881831</v>
+        <v>118.9803708818309</v>
       </c>
       <c r="D94" t="n">
-        <v>81.23977679452142</v>
+        <v>81.23977679452136</v>
       </c>
     </row>
     <row r="95">
@@ -1762,13 +1762,13 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>299.0528985711476</v>
+        <v>299.0528985711459</v>
       </c>
       <c r="C95" t="n">
         <v>118.9345038469128</v>
       </c>
       <c r="D95" t="n">
-        <v>81.2157089310375</v>
+        <v>81.21570893103744</v>
       </c>
     </row>
     <row r="96">
@@ -1776,13 +1776,13 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>298.7127920412599</v>
+        <v>298.7127920412584</v>
       </c>
       <c r="C96" t="n">
         <v>118.8886368119947</v>
       </c>
       <c r="D96" t="n">
-        <v>81.19164106755358</v>
+        <v>81.19164106755352</v>
       </c>
     </row>
     <row r="97">
@@ -1790,13 +1790,13 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>298.3726855113724</v>
+        <v>298.3726855113708</v>
       </c>
       <c r="C97" t="n">
-        <v>118.8427697770766</v>
+        <v>118.8427697770765</v>
       </c>
       <c r="D97" t="n">
-        <v>81.16757320406965</v>
+        <v>81.16757320406958</v>
       </c>
     </row>
     <row r="98">
@@ -1804,13 +1804,13 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>298.0325789814849</v>
+        <v>298.0325789814832</v>
       </c>
       <c r="C98" t="n">
-        <v>118.7969027421585</v>
+        <v>118.7969027421584</v>
       </c>
       <c r="D98" t="n">
-        <v>81.14350534058573</v>
+        <v>81.14350534058568</v>
       </c>
     </row>
     <row r="99">
@@ -1818,13 +1818,13 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>297.6924724515973</v>
+        <v>297.6924724515957</v>
       </c>
       <c r="C99" t="n">
         <v>118.7510357072403</v>
       </c>
       <c r="D99" t="n">
-        <v>81.1194374771018</v>
+        <v>81.11943747710174</v>
       </c>
     </row>
     <row r="100">
@@ -1832,13 +1832,13 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>297.3523659217097</v>
+        <v>297.3523659217082</v>
       </c>
       <c r="C100" t="n">
-        <v>118.7051686723222</v>
+        <v>118.7051686723221</v>
       </c>
       <c r="D100" t="n">
-        <v>81.09536961361789</v>
+        <v>81.09536961361783</v>
       </c>
     </row>
     <row r="101">
@@ -1846,13 +1846,13 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>297.0122593918222</v>
+        <v>297.0122593918206</v>
       </c>
       <c r="C101" t="n">
-        <v>118.6593016374041</v>
+        <v>118.659301637404</v>
       </c>
       <c r="D101" t="n">
-        <v>81.07130175013396</v>
+        <v>81.0713017501339</v>
       </c>
     </row>
     <row r="102">
@@ -1860,13 +1860,13 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>296.6721528619346</v>
+        <v>296.672152861933</v>
       </c>
       <c r="C102" t="n">
         <v>118.6134346024859</v>
       </c>
       <c r="D102" t="n">
-        <v>81.04723388665005</v>
+        <v>81.04723388664999</v>
       </c>
     </row>
     <row r="103">
@@ -1874,13 +1874,13 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>296.3320463320471</v>
+        <v>296.3320463320455</v>
       </c>
       <c r="C103" t="n">
-        <v>118.5675675675678</v>
+        <v>118.5675675675677</v>
       </c>
       <c r="D103" t="n">
-        <v>81.02316602316611</v>
+        <v>81.02316602316606</v>
       </c>
     </row>
     <row r="104">
@@ -1888,13 +1888,13 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>295.9919398021595</v>
+        <v>295.991939802158</v>
       </c>
       <c r="C104" t="n">
-        <v>118.5217005326497</v>
+        <v>118.5217005326496</v>
       </c>
       <c r="D104" t="n">
-        <v>80.99909815968221</v>
+        <v>80.99909815968215</v>
       </c>
     </row>
     <row r="105">
@@ -1902,13 +1902,13 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>295.651833272272</v>
+        <v>295.6518332722704</v>
       </c>
       <c r="C105" t="n">
         <v>118.4758334977315</v>
       </c>
       <c r="D105" t="n">
-        <v>80.97503029619827</v>
+        <v>80.97503029619821</v>
       </c>
     </row>
     <row r="106">
@@ -1916,13 +1916,13 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>295.3117267423844</v>
+        <v>295.3117267423828</v>
       </c>
       <c r="C106" t="n">
         <v>118.4299664628134</v>
       </c>
       <c r="D106" t="n">
-        <v>80.95096243271435</v>
+        <v>80.95096243271429</v>
       </c>
     </row>
     <row r="107">
@@ -1930,13 +1930,13 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>294.9716202124969</v>
+        <v>294.9716202124953</v>
       </c>
       <c r="C107" t="n">
-        <v>118.3840994278953</v>
+        <v>118.3840994278952</v>
       </c>
       <c r="D107" t="n">
-        <v>80.92689456923043</v>
+        <v>80.92689456923037</v>
       </c>
     </row>
     <row r="108">
@@ -1944,13 +1944,13 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>294.6315136826094</v>
+        <v>294.6315136826078</v>
       </c>
       <c r="C108" t="n">
         <v>118.3382323929771</v>
       </c>
       <c r="D108" t="n">
-        <v>80.90282670574651</v>
+        <v>80.90282670574645</v>
       </c>
     </row>
     <row r="109">
@@ -1958,13 +1958,13 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>294.2914071527217</v>
+        <v>294.2914071527202</v>
       </c>
       <c r="C109" t="n">
         <v>118.292365358059</v>
       </c>
       <c r="D109" t="n">
-        <v>80.87875884226258</v>
+        <v>80.87875884226253</v>
       </c>
     </row>
     <row r="110">
@@ -1972,13 +1972,13 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>293.9513006228342</v>
+        <v>293.9513006228326</v>
       </c>
       <c r="C110" t="n">
-        <v>118.2464983231409</v>
+        <v>118.2464983231408</v>
       </c>
       <c r="D110" t="n">
-        <v>80.85469097877866</v>
+        <v>80.85469097877861</v>
       </c>
     </row>
     <row r="111">
@@ -1986,13 +1986,13 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>293.6111940929467</v>
+        <v>293.6111940929451</v>
       </c>
       <c r="C111" t="n">
-        <v>118.2006312882228</v>
+        <v>118.2006312882227</v>
       </c>
       <c r="D111" t="n">
-        <v>80.83062311529474</v>
+        <v>80.83062311529469</v>
       </c>
     </row>
     <row r="112">
@@ -2000,13 +2000,13 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>293.2710875630592</v>
+        <v>293.2710875630576</v>
       </c>
       <c r="C112" t="n">
         <v>118.1547642533046</v>
       </c>
       <c r="D112" t="n">
-        <v>80.80655525181082</v>
+        <v>80.80655525181076</v>
       </c>
     </row>
     <row r="113">
@@ -2014,13 +2014,13 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>292.9309810331715</v>
+        <v>292.93098103317</v>
       </c>
       <c r="C113" t="n">
-        <v>118.1088972183865</v>
+        <v>118.1088972183864</v>
       </c>
       <c r="D113" t="n">
-        <v>80.7824873883269</v>
+        <v>80.78248738832684</v>
       </c>
     </row>
     <row r="114">
@@ -2028,13 +2028,13 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>292.590874503284</v>
+        <v>292.5908745032824</v>
       </c>
       <c r="C114" t="n">
-        <v>118.0630301834684</v>
+        <v>118.0630301834683</v>
       </c>
       <c r="D114" t="n">
-        <v>80.75841952484296</v>
+        <v>80.75841952484291</v>
       </c>
     </row>
     <row r="115">
@@ -2042,13 +2042,13 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>292.2507679733965</v>
+        <v>292.2507679733949</v>
       </c>
       <c r="C115" t="n">
         <v>118.0171631485502</v>
       </c>
       <c r="D115" t="n">
-        <v>80.73435166135906</v>
+        <v>80.734351661359</v>
       </c>
     </row>
     <row r="116">
@@ -2056,13 +2056,13 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>291.9106614435088</v>
+        <v>291.9106614435074</v>
       </c>
       <c r="C116" t="n">
         <v>117.9712961136321</v>
       </c>
       <c r="D116" t="n">
-        <v>80.71028379787512</v>
+        <v>80.71028379787506</v>
       </c>
     </row>
     <row r="117">
@@ -2070,13 +2070,13 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>291.5705549136213</v>
+        <v>291.5705549136198</v>
       </c>
       <c r="C117" t="n">
-        <v>117.925429078714</v>
+        <v>117.9254290787139</v>
       </c>
       <c r="D117" t="n">
-        <v>80.68621593439121</v>
+        <v>80.68621593439116</v>
       </c>
     </row>
     <row r="118">
@@ -2084,13 +2084,13 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>291.2304483837338</v>
+        <v>291.2304483837322</v>
       </c>
       <c r="C118" t="n">
         <v>117.8795620437958</v>
       </c>
       <c r="D118" t="n">
-        <v>80.66214807090728</v>
+        <v>80.66214807090722</v>
       </c>
     </row>
     <row r="119">
@@ -2098,13 +2098,13 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>290.8903418538462</v>
+        <v>290.8903418538447</v>
       </c>
       <c r="C119" t="n">
         <v>117.8336950088777</v>
       </c>
       <c r="D119" t="n">
-        <v>80.63808020742337</v>
+        <v>80.63808020742331</v>
       </c>
     </row>
     <row r="120">
@@ -2112,13 +2112,13 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>290.5502353239586</v>
+        <v>290.5502353239572</v>
       </c>
       <c r="C120" t="n">
-        <v>117.7878279739596</v>
+        <v>117.7878279739595</v>
       </c>
       <c r="D120" t="n">
-        <v>80.61401234393944</v>
+        <v>80.61401234393938</v>
       </c>
     </row>
     <row r="121">
@@ -2126,13 +2126,13 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>290.2101287940711</v>
+        <v>290.2101287940696</v>
       </c>
       <c r="C121" t="n">
-        <v>117.7419609390415</v>
+        <v>117.7419609390414</v>
       </c>
       <c r="D121" t="n">
-        <v>80.58994448045551</v>
+        <v>80.58994448045547</v>
       </c>
     </row>
     <row r="122">
@@ -2140,13 +2140,13 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>289.8700222641836</v>
+        <v>289.870022264182</v>
       </c>
       <c r="C122" t="n">
         <v>117.6960939041233</v>
       </c>
       <c r="D122" t="n">
-        <v>80.56587661697159</v>
+        <v>80.56587661697154</v>
       </c>
     </row>
     <row r="123">
@@ -2154,13 +2154,13 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>289.529915734296</v>
+        <v>289.5299157342945</v>
       </c>
       <c r="C123" t="n">
-        <v>117.6502268692052</v>
+        <v>117.6502268692051</v>
       </c>
       <c r="D123" t="n">
-        <v>80.54180875348767</v>
+        <v>80.54180875348762</v>
       </c>
     </row>
     <row r="124">
@@ -2168,13 +2168,13 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>289.1898092044084</v>
+        <v>289.189809204407</v>
       </c>
       <c r="C124" t="n">
-        <v>117.6043598342871</v>
+        <v>117.604359834287</v>
       </c>
       <c r="D124" t="n">
-        <v>80.51774089000375</v>
+        <v>80.51774089000369</v>
       </c>
     </row>
     <row r="125">
@@ -2182,13 +2182,13 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>288.8497026745209</v>
+        <v>288.8497026745194</v>
       </c>
       <c r="C125" t="n">
         <v>117.5584927993689</v>
       </c>
       <c r="D125" t="n">
-        <v>80.49367302651983</v>
+        <v>80.49367302651977</v>
       </c>
     </row>
     <row r="126">
@@ -2196,13 +2196,13 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>288.5095961446333</v>
+        <v>288.5095961446318</v>
       </c>
       <c r="C126" t="n">
         <v>117.5126257644508</v>
       </c>
       <c r="D126" t="n">
-        <v>80.46960516303591</v>
+        <v>80.46960516303585</v>
       </c>
     </row>
     <row r="127">
@@ -2210,13 +2210,13 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>288.1694896147458</v>
+        <v>288.1694896147443</v>
       </c>
       <c r="C127" t="n">
-        <v>117.4667587295327</v>
+        <v>117.4667587295326</v>
       </c>
       <c r="D127" t="n">
-        <v>80.44553729955199</v>
+        <v>80.44553729955193</v>
       </c>
     </row>
     <row r="128">
@@ -2224,13 +2224,13 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>287.8293830848583</v>
+        <v>287.8293830848568</v>
       </c>
       <c r="C128" t="n">
         <v>117.4208916946145</v>
       </c>
       <c r="D128" t="n">
-        <v>80.42146943606807</v>
+        <v>80.42146943606801</v>
       </c>
     </row>
     <row r="129">
@@ -2238,13 +2238,13 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>287.4892765549707</v>
+        <v>287.4892765549693</v>
       </c>
       <c r="C129" t="n">
         <v>117.3750246596964</v>
       </c>
       <c r="D129" t="n">
-        <v>80.39740157258413</v>
+        <v>80.39740157258409</v>
       </c>
     </row>
     <row r="130">
@@ -2252,13 +2252,13 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>287.1491700250831</v>
+        <v>287.1491700250816</v>
       </c>
       <c r="C130" t="n">
-        <v>117.3291576247783</v>
+        <v>117.3291576247782</v>
       </c>
       <c r="D130" t="n">
-        <v>80.37333370910022</v>
+        <v>80.37333370910017</v>
       </c>
     </row>
     <row r="131">
@@ -2266,13 +2266,13 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>286.8090634951956</v>
+        <v>286.8090634951941</v>
       </c>
       <c r="C131" t="n">
         <v>117.2832905898601</v>
       </c>
       <c r="D131" t="n">
-        <v>80.34926584561629</v>
+        <v>80.34926584561624</v>
       </c>
     </row>
     <row r="132">
@@ -2280,13 +2280,13 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>286.4689569653081</v>
+        <v>286.4689569653066</v>
       </c>
       <c r="C132" t="n">
         <v>117.237423554942</v>
       </c>
       <c r="D132" t="n">
-        <v>80.32519798213238</v>
+        <v>80.32519798213232</v>
       </c>
     </row>
     <row r="133">
@@ -2294,13 +2294,13 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>286.1288504354204</v>
+        <v>286.1288504354191</v>
       </c>
       <c r="C133" t="n">
-        <v>117.1915565200239</v>
+        <v>117.1915565200238</v>
       </c>
       <c r="D133" t="n">
-        <v>80.30113011864844</v>
+        <v>80.30113011864839</v>
       </c>
     </row>
     <row r="134">
@@ -2308,13 +2308,13 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>285.7887439055329</v>
+        <v>285.7887439055314</v>
       </c>
       <c r="C134" t="n">
-        <v>117.1456894851058</v>
+        <v>117.1456894851057</v>
       </c>
       <c r="D134" t="n">
-        <v>80.27706225516454</v>
+        <v>80.27706225516448</v>
       </c>
     </row>
     <row r="135">
@@ -2322,13 +2322,13 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>285.4486373756454</v>
+        <v>285.4486373756439</v>
       </c>
       <c r="C135" t="n">
         <v>117.0998224501876</v>
       </c>
       <c r="D135" t="n">
-        <v>80.2529943916806</v>
+        <v>80.25299439168055</v>
       </c>
     </row>
     <row r="136">
@@ -2336,13 +2336,13 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>285.1085308457577</v>
+        <v>285.1085308457564</v>
       </c>
       <c r="C136" t="n">
         <v>117.0539554152695</v>
       </c>
       <c r="D136" t="n">
-        <v>80.22892652819668</v>
+        <v>80.22892652819664</v>
       </c>
     </row>
     <row r="137">
@@ -2350,13 +2350,13 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>284.7684243158702</v>
+        <v>284.7684243158689</v>
       </c>
       <c r="C137" t="n">
-        <v>117.0080883803514</v>
+        <v>117.0080883803513</v>
       </c>
       <c r="D137" t="n">
-        <v>80.20485866471276</v>
+        <v>80.2048586647127</v>
       </c>
     </row>
     <row r="138">
@@ -2364,13 +2364,13 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>284.4283177859827</v>
+        <v>284.4283177859812</v>
       </c>
       <c r="C138" t="n">
         <v>116.9622213454332</v>
       </c>
       <c r="D138" t="n">
-        <v>80.18079080122884</v>
+        <v>80.1807908012288</v>
       </c>
     </row>
     <row r="139">
@@ -2378,13 +2378,13 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>284.0882112560952</v>
+        <v>284.0882112560937</v>
       </c>
       <c r="C139" t="n">
         <v>116.9163543105151</v>
       </c>
       <c r="D139" t="n">
-        <v>80.15672293774492</v>
+        <v>80.15672293774486</v>
       </c>
     </row>
     <row r="140">
@@ -2392,13 +2392,13 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>283.7481047262075</v>
+        <v>283.7481047262062</v>
       </c>
       <c r="C140" t="n">
-        <v>116.870487275597</v>
+        <v>116.8704872755969</v>
       </c>
       <c r="D140" t="n">
-        <v>80.132655074261</v>
+        <v>80.13265507426095</v>
       </c>
     </row>
     <row r="141">
@@ -2406,13 +2406,13 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>283.40799819632</v>
+        <v>283.4079981963187</v>
       </c>
       <c r="C141" t="n">
         <v>116.8246202406788</v>
       </c>
       <c r="D141" t="n">
-        <v>80.10858721077707</v>
+        <v>80.10858721077702</v>
       </c>
     </row>
     <row r="142">
@@ -2420,13 +2420,13 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>283.0678916664325</v>
+        <v>283.067891666431</v>
       </c>
       <c r="C142" t="n">
         <v>116.7787532057607</v>
       </c>
       <c r="D142" t="n">
-        <v>80.08451934729315</v>
+        <v>80.0845193472931</v>
       </c>
     </row>
     <row r="143">
@@ -2434,13 +2434,13 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>282.7277851365449</v>
+        <v>282.7277851365435</v>
       </c>
       <c r="C143" t="n">
-        <v>116.7328861708426</v>
+        <v>116.7328861708425</v>
       </c>
       <c r="D143" t="n">
-        <v>80.06045148380923</v>
+        <v>80.06045148380917</v>
       </c>
     </row>
     <row r="144">
@@ -2448,13 +2448,13 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>282.3876786066573</v>
+        <v>282.387678606656</v>
       </c>
       <c r="C144" t="n">
-        <v>116.6870191359245</v>
+        <v>116.6870191359244</v>
       </c>
       <c r="D144" t="n">
-        <v>80.0363836203253</v>
+        <v>80.03638362032525</v>
       </c>
     </row>
     <row r="145">
@@ -2462,13 +2462,13 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>282.0475720767698</v>
+        <v>282.0475720767685</v>
       </c>
       <c r="C145" t="n">
         <v>116.6411521010063</v>
       </c>
       <c r="D145" t="n">
-        <v>80.01231575684139</v>
+        <v>80.01231575684133</v>
       </c>
     </row>
     <row r="146">
@@ -2476,13 +2476,13 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>281.7074655468823</v>
+        <v>281.7074655468809</v>
       </c>
       <c r="C146" t="n">
         <v>116.5952850660882</v>
       </c>
       <c r="D146" t="n">
-        <v>79.98824789335745</v>
+        <v>79.98824789335741</v>
       </c>
     </row>
     <row r="147">
@@ -2490,13 +2490,13 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>281.3673590169947</v>
+        <v>281.3673590169933</v>
       </c>
       <c r="C147" t="n">
-        <v>116.5494180311701</v>
+        <v>116.54941803117</v>
       </c>
       <c r="D147" t="n">
-        <v>79.96418002987355</v>
+        <v>79.96418002987349</v>
       </c>
     </row>
     <row r="148">
@@ -2504,13 +2504,13 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>281.0272524871071</v>
+        <v>281.0272524871058</v>
       </c>
       <c r="C148" t="n">
         <v>116.5035509962519</v>
       </c>
       <c r="D148" t="n">
-        <v>79.94011216638961</v>
+        <v>79.94011216638957</v>
       </c>
     </row>
     <row r="149">
@@ -2518,13 +2518,13 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>280.6871459572196</v>
+        <v>280.6871459572183</v>
       </c>
       <c r="C149" t="n">
         <v>116.4576839613338</v>
       </c>
       <c r="D149" t="n">
-        <v>79.9160443029057</v>
+        <v>79.91604430290565</v>
       </c>
     </row>
     <row r="150">
@@ -2532,13 +2532,13 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>280.347039427332</v>
+        <v>280.3470394273307</v>
       </c>
       <c r="C150" t="n">
-        <v>116.4118169264157</v>
+        <v>116.4118169264156</v>
       </c>
       <c r="D150" t="n">
-        <v>79.89197643942177</v>
+        <v>79.89197643942171</v>
       </c>
     </row>
     <row r="151">
@@ -2546,13 +2546,13 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>280.0069328974445</v>
+        <v>280.0069328974431</v>
       </c>
       <c r="C151" t="n">
         <v>116.3659498914975</v>
       </c>
       <c r="D151" t="n">
-        <v>79.86790857593785</v>
+        <v>79.8679085759378</v>
       </c>
     </row>
     <row r="152">
@@ -2560,13 +2560,13 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>279.666826367557</v>
+        <v>279.6668263675556</v>
       </c>
       <c r="C152" t="n">
         <v>116.3200828565794</v>
       </c>
       <c r="D152" t="n">
-        <v>79.84384071245393</v>
+        <v>79.84384071245387</v>
       </c>
     </row>
     <row r="153">
@@ -2574,13 +2574,13 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>279.3267198376693</v>
+        <v>279.3267198376681</v>
       </c>
       <c r="C153" t="n">
-        <v>116.2742158216613</v>
+        <v>116.2742158216612</v>
       </c>
       <c r="D153" t="n">
-        <v>79.81977284897</v>
+        <v>79.81977284896996</v>
       </c>
     </row>
     <row r="154">
@@ -2588,13 +2588,13 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>278.9866133077818</v>
+        <v>278.9866133077805</v>
       </c>
       <c r="C154" t="n">
-        <v>116.2283487867432</v>
+        <v>116.2283487867431</v>
       </c>
       <c r="D154" t="n">
-        <v>79.79570498548608</v>
+        <v>79.79570498548603</v>
       </c>
     </row>
     <row r="155">
@@ -2602,13 +2602,13 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>278.6465067778943</v>
+        <v>278.6465067778929</v>
       </c>
       <c r="C155" t="n">
         <v>116.182481751825</v>
       </c>
       <c r="D155" t="n">
-        <v>79.77163712200216</v>
+        <v>79.77163712200212</v>
       </c>
     </row>
     <row r="156">
@@ -2616,13 +2616,13 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>278.3064002480068</v>
+        <v>278.3064002480054</v>
       </c>
       <c r="C156" t="n">
-        <v>116.1366147169069</v>
+        <v>116.1366147169068</v>
       </c>
       <c r="D156" t="n">
-        <v>79.74756925851824</v>
+        <v>79.74756925851818</v>
       </c>
     </row>
     <row r="157">
@@ -2630,13 +2630,13 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>277.9662937181191</v>
+        <v>277.9662937181179</v>
       </c>
       <c r="C157" t="n">
-        <v>116.0907476819888</v>
+        <v>116.0907476819887</v>
       </c>
       <c r="D157" t="n">
-        <v>79.7235013950343</v>
+        <v>79.72350139503428</v>
       </c>
     </row>
     <row r="158">
@@ -2644,13 +2644,13 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>277.6261871882316</v>
+        <v>277.6261871882303</v>
       </c>
       <c r="C158" t="n">
         <v>116.0448806470706</v>
       </c>
       <c r="D158" t="n">
-        <v>79.6994335315504</v>
+        <v>79.69943353155034</v>
       </c>
     </row>
     <row r="159">
@@ -2658,13 +2658,13 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>277.2860806583441</v>
+        <v>277.2860806583427</v>
       </c>
       <c r="C159" t="n">
         <v>115.9990136121525</v>
       </c>
       <c r="D159" t="n">
-        <v>79.67536566806646</v>
+        <v>79.67536566806642</v>
       </c>
     </row>
     <row r="160">
@@ -2672,13 +2672,13 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>276.9459741284564</v>
+        <v>276.9459741284552</v>
       </c>
       <c r="C160" t="n">
-        <v>115.9531465772344</v>
+        <v>115.9531465772343</v>
       </c>
       <c r="D160" t="n">
-        <v>79.65129780458255</v>
+        <v>79.6512978045825</v>
       </c>
     </row>
     <row r="161">
@@ -2686,13 +2686,13 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>276.6058675985689</v>
+        <v>276.6058675985677</v>
       </c>
       <c r="C161" t="n">
         <v>115.9072795423162</v>
       </c>
       <c r="D161" t="n">
-        <v>79.62722994109862</v>
+        <v>79.62722994109858</v>
       </c>
     </row>
     <row r="162">
@@ -2700,13 +2700,13 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>276.2657610686814</v>
+        <v>276.2657610686801</v>
       </c>
       <c r="C162" t="n">
         <v>115.8614125073981</v>
       </c>
       <c r="D162" t="n">
-        <v>79.60316207761471</v>
+        <v>79.60316207761466</v>
       </c>
     </row>
     <row r="163">
@@ -2714,13 +2714,13 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>275.9256545387939</v>
+        <v>275.9256545387925</v>
       </c>
       <c r="C163" t="n">
-        <v>115.81554547248</v>
+        <v>115.8155454724799</v>
       </c>
       <c r="D163" t="n">
-        <v>79.57909421413078</v>
+        <v>79.57909421413073</v>
       </c>
     </row>
     <row r="164">
@@ -2728,13 +2728,13 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>275.5855480089062</v>
+        <v>275.585548008905</v>
       </c>
       <c r="C164" t="n">
         <v>115.7696784375618</v>
       </c>
       <c r="D164" t="n">
-        <v>79.55502635064687</v>
+        <v>79.55502635064681</v>
       </c>
     </row>
     <row r="165">
@@ -2742,13 +2742,13 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>275.2454414790187</v>
+        <v>275.2454414790175</v>
       </c>
       <c r="C165" t="n">
         <v>115.7238114026437</v>
       </c>
       <c r="D165" t="n">
-        <v>79.53095848716293</v>
+        <v>79.53095848716289</v>
       </c>
     </row>
     <row r="166">
@@ -2756,13 +2756,13 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>274.9053349491312</v>
+        <v>274.90533494913</v>
       </c>
       <c r="C166" t="n">
-        <v>115.6779443677256</v>
+        <v>115.6779443677255</v>
       </c>
       <c r="D166" t="n">
-        <v>79.50689062367901</v>
+        <v>79.50689062367897</v>
       </c>
     </row>
     <row r="167">
@@ -2770,13 +2770,13 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>274.5652284192436</v>
+        <v>274.5652284192423</v>
       </c>
       <c r="C167" t="n">
-        <v>115.6320773328075</v>
+        <v>115.6320773328074</v>
       </c>
       <c r="D167" t="n">
-        <v>79.48282276019509</v>
+        <v>79.48282276019505</v>
       </c>
     </row>
     <row r="168">
@@ -2784,13 +2784,13 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>274.225121889356</v>
+        <v>274.2251218893548</v>
       </c>
       <c r="C168" t="n">
         <v>115.5862102978893</v>
       </c>
       <c r="D168" t="n">
-        <v>79.45875489671117</v>
+        <v>79.45875489671113</v>
       </c>
     </row>
     <row r="169">
@@ -2798,13 +2798,13 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>273.8850153594685</v>
+        <v>273.8850153594673</v>
       </c>
       <c r="C169" t="n">
-        <v>115.5403432629712</v>
+        <v>115.5403432629711</v>
       </c>
       <c r="D169" t="n">
-        <v>79.43468703322725</v>
+        <v>79.43468703322719</v>
       </c>
     </row>
     <row r="170">
@@ -2812,13 +2812,13 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>273.5449088295809</v>
+        <v>273.5449088295798</v>
       </c>
       <c r="C170" t="n">
-        <v>115.4944762280531</v>
+        <v>115.494476228053</v>
       </c>
       <c r="D170" t="n">
-        <v>79.41061916974333</v>
+        <v>79.41061916974328</v>
       </c>
     </row>
     <row r="171">
@@ -2826,13 +2826,13 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>273.2048022996934</v>
+        <v>273.2048022996921</v>
       </c>
       <c r="C171" t="n">
         <v>115.4486091931349</v>
       </c>
       <c r="D171" t="n">
-        <v>79.38655130625941</v>
+        <v>79.38655130625935</v>
       </c>
     </row>
     <row r="172">
@@ -2840,13 +2840,13 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>272.8646957698058</v>
+        <v>272.8646957698046</v>
       </c>
       <c r="C172" t="n">
         <v>115.4027421582168</v>
       </c>
       <c r="D172" t="n">
-        <v>79.36248344277547</v>
+        <v>79.36248344277544</v>
       </c>
     </row>
     <row r="173">
@@ -2854,13 +2854,13 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>272.5245892399183</v>
+        <v>272.5245892399171</v>
       </c>
       <c r="C173" t="n">
-        <v>115.3568751232987</v>
+        <v>115.3568751232986</v>
       </c>
       <c r="D173" t="n">
-        <v>79.33841557929156</v>
+        <v>79.33841557929151</v>
       </c>
     </row>
     <row r="174">
@@ -2868,13 +2868,13 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>272.1844827100307</v>
+        <v>272.1844827100296</v>
       </c>
       <c r="C174" t="n">
         <v>115.3110080883805</v>
       </c>
       <c r="D174" t="n">
-        <v>79.31434771580763</v>
+        <v>79.3143477158076</v>
       </c>
     </row>
     <row r="175">
@@ -2882,13 +2882,13 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>271.8443761801432</v>
+        <v>271.8443761801419</v>
       </c>
       <c r="C175" t="n">
         <v>115.2651410534624</v>
       </c>
       <c r="D175" t="n">
-        <v>79.29027985232372</v>
+        <v>79.29027985232366</v>
       </c>
     </row>
     <row r="176">
@@ -2896,13 +2896,13 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>271.5042696502557</v>
+        <v>271.5042696502544</v>
       </c>
       <c r="C176" t="n">
-        <v>115.2192740185443</v>
+        <v>115.2192740185442</v>
       </c>
       <c r="D176" t="n">
-        <v>79.26621198883979</v>
+        <v>79.26621198883976</v>
       </c>
     </row>
     <row r="177">
@@ -2910,13 +2910,13 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>271.164163120368</v>
+        <v>271.1641631203669</v>
       </c>
       <c r="C177" t="n">
-        <v>115.1734069836262</v>
+        <v>115.1734069836261</v>
       </c>
       <c r="D177" t="n">
-        <v>79.24214412535588</v>
+        <v>79.24214412535582</v>
       </c>
     </row>
     <row r="178">
@@ -2924,13 +2924,13 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>270.8240565904805</v>
+        <v>270.8240565904794</v>
       </c>
       <c r="C178" t="n">
         <v>115.127539948708</v>
       </c>
       <c r="D178" t="n">
-        <v>79.21807626187194</v>
+        <v>79.2180762618719</v>
       </c>
     </row>
     <row r="179">
@@ -2938,13 +2938,13 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>270.483950060593</v>
+        <v>270.4839500605917</v>
       </c>
       <c r="C179" t="n">
-        <v>115.0816729137899</v>
+        <v>115.0816729137898</v>
       </c>
       <c r="D179" t="n">
-        <v>79.19400839838804</v>
+        <v>79.19400839838798</v>
       </c>
     </row>
     <row r="180">
@@ -2952,13 +2952,13 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>270.1438435307053</v>
+        <v>270.1438435307042</v>
       </c>
       <c r="C180" t="n">
-        <v>115.0358058788718</v>
+        <v>115.0358058788717</v>
       </c>
       <c r="D180" t="n">
-        <v>79.1699405349041</v>
+        <v>79.16994053490406</v>
       </c>
     </row>
     <row r="181">
@@ -2966,13 +2966,13 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>269.8037370008178</v>
+        <v>269.8037370008167</v>
       </c>
       <c r="C181" t="n">
         <v>114.9899388439536</v>
       </c>
       <c r="D181" t="n">
-        <v>79.14587267142018</v>
+        <v>79.14587267142014</v>
       </c>
     </row>
     <row r="182">
@@ -2980,13 +2980,13 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>269.4636304709303</v>
+        <v>269.4636304709292</v>
       </c>
       <c r="C182" t="n">
-        <v>114.9440718090355</v>
+        <v>114.9440718090354</v>
       </c>
       <c r="D182" t="n">
-        <v>79.12180480793626</v>
+        <v>79.12180480793621</v>
       </c>
     </row>
     <row r="183">
@@ -2994,13 +2994,13 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>269.1235239410428</v>
+        <v>269.1235239410415</v>
       </c>
       <c r="C183" t="n">
-        <v>114.8982047741174</v>
+        <v>114.8982047741173</v>
       </c>
       <c r="D183" t="n">
-        <v>79.09773694445234</v>
+        <v>79.09773694445229</v>
       </c>
     </row>
     <row r="184">
@@ -3008,13 +3008,13 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>268.7834174111551</v>
+        <v>268.783417411154</v>
       </c>
       <c r="C184" t="n">
         <v>114.8523377391992</v>
       </c>
       <c r="D184" t="n">
-        <v>79.07366908096841</v>
+        <v>79.07366908096837</v>
       </c>
     </row>
     <row r="185">
@@ -3022,13 +3022,13 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>268.4433108812676</v>
+        <v>268.4433108812665</v>
       </c>
       <c r="C185" t="n">
         <v>114.8064707042811</v>
       </c>
       <c r="D185" t="n">
-        <v>79.04960121748449</v>
+        <v>79.04960121748445</v>
       </c>
     </row>
     <row r="186">
@@ -3036,13 +3036,13 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>268.1032043513801</v>
+        <v>268.103204351379</v>
       </c>
       <c r="C186" t="n">
-        <v>114.760603669363</v>
+        <v>114.7606036693629</v>
       </c>
       <c r="D186" t="n">
-        <v>79.02553335400057</v>
+        <v>79.02553335400052</v>
       </c>
     </row>
     <row r="187">
@@ -3050,13 +3050,13 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>267.7630978214925</v>
+        <v>267.7630978214913</v>
       </c>
       <c r="C187" t="n">
         <v>114.7147366344448</v>
       </c>
       <c r="D187" t="n">
-        <v>79.00146549051664</v>
+        <v>79.00146549051661</v>
       </c>
     </row>
     <row r="188">
@@ -3064,13 +3064,13 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>267.4229912916049</v>
+        <v>267.4229912916038</v>
       </c>
       <c r="C188" t="n">
         <v>114.6688695995267</v>
       </c>
       <c r="D188" t="n">
-        <v>78.97739762703273</v>
+        <v>78.97739762703267</v>
       </c>
     </row>
     <row r="189">
@@ -3078,13 +3078,13 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>267.0828847617174</v>
+        <v>267.0828847617163</v>
       </c>
       <c r="C189" t="n">
-        <v>114.6230025646086</v>
+        <v>114.6230025646085</v>
       </c>
       <c r="D189" t="n">
-        <v>78.95332976354879</v>
+        <v>78.95332976354877</v>
       </c>
     </row>
     <row r="190">
@@ -3092,13 +3092,13 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>266.7427782318299</v>
+        <v>266.7427782318288</v>
       </c>
       <c r="C190" t="n">
-        <v>114.5771355296905</v>
+        <v>114.5771355296904</v>
       </c>
       <c r="D190" t="n">
-        <v>78.92926190006489</v>
+        <v>78.92926190006483</v>
       </c>
     </row>
     <row r="191">
@@ -3106,13 +3106,13 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>266.4026717019423</v>
+        <v>266.4026717019411</v>
       </c>
       <c r="C191" t="n">
         <v>114.5312684947723</v>
       </c>
       <c r="D191" t="n">
-        <v>78.90519403658095</v>
+        <v>78.90519403658092</v>
       </c>
     </row>
     <row r="192">
@@ -3120,13 +3120,13 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>266.0625651720547</v>
+        <v>266.0625651720536</v>
       </c>
       <c r="C192" t="n">
-        <v>114.4854014598542</v>
+        <v>114.4854014598541</v>
       </c>
       <c r="D192" t="n">
-        <v>78.88112617309704</v>
+        <v>78.88112617309699</v>
       </c>
     </row>
     <row r="193">
@@ -3134,13 +3134,13 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>265.7224586421672</v>
+        <v>265.7224586421661</v>
       </c>
       <c r="C193" t="n">
-        <v>114.4395344249361</v>
+        <v>114.439534424936</v>
       </c>
       <c r="D193" t="n">
-        <v>78.85705830961311</v>
+        <v>78.85705830961308</v>
       </c>
     </row>
     <row r="194">
@@ -3148,13 +3148,13 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>265.3823521122796</v>
+        <v>265.3823521122786</v>
       </c>
       <c r="C194" t="n">
         <v>114.3936673900179</v>
       </c>
       <c r="D194" t="n">
-        <v>78.83299044612919</v>
+        <v>78.83299044612914</v>
       </c>
     </row>
     <row r="195">
@@ -3162,13 +3162,13 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>265.0422455823921</v>
+        <v>265.042245582391</v>
       </c>
       <c r="C195" t="n">
-        <v>114.3478003550998</v>
+        <v>114.3478003550997</v>
       </c>
       <c r="D195" t="n">
-        <v>78.80892258264527</v>
+        <v>78.80892258264522</v>
       </c>
     </row>
     <row r="196">
@@ -3176,13 +3176,13 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>264.7021390525045</v>
+        <v>264.7021390525034</v>
       </c>
       <c r="C196" t="n">
-        <v>114.3019333201817</v>
+        <v>114.3019333201816</v>
       </c>
       <c r="D196" t="n">
-        <v>78.78485471916134</v>
+        <v>78.7848547191613</v>
       </c>
     </row>
     <row r="197">
@@ -3190,13 +3190,13 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>264.3620325226169</v>
+        <v>264.3620325226159</v>
       </c>
       <c r="C197" t="n">
         <v>114.2560662852635</v>
       </c>
       <c r="D197" t="n">
-        <v>78.76078685567742</v>
+        <v>78.76078685567738</v>
       </c>
     </row>
     <row r="198">
@@ -3204,13 +3204,13 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>264.0219259927294</v>
+        <v>264.0219259927284</v>
       </c>
       <c r="C198" t="n">
         <v>114.2101992503454</v>
       </c>
       <c r="D198" t="n">
-        <v>78.7367189921935</v>
+        <v>78.73671899219346</v>
       </c>
     </row>
     <row r="199">
@@ -3218,13 +3218,13 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>263.6818194628419</v>
+        <v>263.6818194628408</v>
       </c>
       <c r="C199" t="n">
-        <v>114.1643322154273</v>
+        <v>114.1643322154272</v>
       </c>
       <c r="D199" t="n">
-        <v>78.71265112870958</v>
+        <v>78.71265112870954</v>
       </c>
     </row>
     <row r="200">
@@ -3232,13 +3232,13 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>263.3417129329544</v>
+        <v>263.3417129329532</v>
       </c>
       <c r="C200" t="n">
         <v>114.1184651805091</v>
       </c>
       <c r="D200" t="n">
-        <v>78.68858326522566</v>
+        <v>78.68858326522562</v>
       </c>
     </row>
     <row r="201">
@@ -3246,13 +3246,13 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>263.0016064030667</v>
+        <v>263.0016064030657</v>
       </c>
       <c r="C201" t="n">
         <v>114.072598145591</v>
       </c>
       <c r="D201" t="n">
-        <v>78.66451540174174</v>
+        <v>78.6645154017417</v>
       </c>
     </row>
     <row r="202">
@@ -3260,13 +3260,13 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>262.6614998731792</v>
+        <v>262.6614998731782</v>
       </c>
       <c r="C202" t="n">
-        <v>114.0267311106729</v>
+        <v>114.0267311106728</v>
       </c>
       <c r="D202" t="n">
-        <v>78.6404475382578</v>
+        <v>78.64044753825777</v>
       </c>
     </row>
     <row r="203">
@@ -3274,13 +3274,13 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>262.3213933432917</v>
+        <v>262.3213933432907</v>
       </c>
       <c r="C203" t="n">
-        <v>113.9808640757548</v>
+        <v>113.9808640757547</v>
       </c>
       <c r="D203" t="n">
-        <v>78.6163796747739</v>
+        <v>78.61637967477384</v>
       </c>
     </row>
     <row r="204">
@@ -3288,13 +3288,13 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>261.981286813404</v>
+        <v>261.981286813403</v>
       </c>
       <c r="C204" t="n">
         <v>113.9349970408366</v>
       </c>
       <c r="D204" t="n">
-        <v>78.59231181128996</v>
+        <v>78.59231181128993</v>
       </c>
     </row>
     <row r="205">
@@ -3302,13 +3302,13 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>261.6411802835165</v>
+        <v>261.6411802835155</v>
       </c>
       <c r="C205" t="n">
-        <v>113.8891300059185</v>
+        <v>113.8891300059184</v>
       </c>
       <c r="D205" t="n">
-        <v>78.56824394780605</v>
+        <v>78.568243947806</v>
       </c>
     </row>
     <row r="206">
@@ -3316,13 +3316,13 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>261.301073753629</v>
+        <v>261.301073753628</v>
       </c>
       <c r="C206" t="n">
-        <v>113.8432629710004</v>
+        <v>113.8432629710003</v>
       </c>
       <c r="D206" t="n">
-        <v>78.54417608432212</v>
+        <v>78.54417608432209</v>
       </c>
     </row>
     <row r="207">
@@ -3330,13 +3330,13 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>260.9609672237415</v>
+        <v>260.9609672237405</v>
       </c>
       <c r="C207" t="n">
         <v>113.7973959360822</v>
       </c>
       <c r="D207" t="n">
-        <v>78.52010822083821</v>
+        <v>78.52010822083815</v>
       </c>
     </row>
     <row r="208">
@@ -3344,13 +3344,13 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>260.6208606938538</v>
+        <v>260.6208606938528</v>
       </c>
       <c r="C208" t="n">
         <v>113.7515289011641</v>
       </c>
       <c r="D208" t="n">
-        <v>78.49604035735427</v>
+        <v>78.49604035735425</v>
       </c>
     </row>
     <row r="209">
@@ -3358,13 +3358,13 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>260.2807541639663</v>
+        <v>260.2807541639653</v>
       </c>
       <c r="C209" t="n">
-        <v>113.705661866246</v>
+        <v>113.7056618662459</v>
       </c>
       <c r="D209" t="n">
-        <v>78.47197249387035</v>
+        <v>78.47197249387031</v>
       </c>
     </row>
     <row r="210">
@@ -3372,13 +3372,13 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>259.9406476340788</v>
+        <v>259.9406476340778</v>
       </c>
       <c r="C210" t="n">
         <v>113.6597948313278</v>
       </c>
       <c r="D210" t="n">
-        <v>78.44790463038643</v>
+        <v>78.4479046303864</v>
       </c>
     </row>
     <row r="211">
@@ -3386,13 +3386,13 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>259.6005411041912</v>
+        <v>259.6005411041903</v>
       </c>
       <c r="C211" t="n">
         <v>113.6139277964097</v>
       </c>
       <c r="D211" t="n">
-        <v>78.42383676690251</v>
+        <v>78.42383676690247</v>
       </c>
     </row>
     <row r="212">
@@ -3400,13 +3400,13 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>259.2604345743036</v>
+        <v>259.2604345743026</v>
       </c>
       <c r="C212" t="n">
-        <v>113.5680607614916</v>
+        <v>113.5680607614915</v>
       </c>
       <c r="D212" t="n">
-        <v>78.39976890341859</v>
+        <v>78.39976890341855</v>
       </c>
     </row>
     <row r="213">
@@ -3414,13 +3414,13 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>258.9203280444161</v>
+        <v>258.9203280444151</v>
       </c>
       <c r="C213" t="n">
         <v>113.5221937265734</v>
       </c>
       <c r="D213" t="n">
-        <v>78.37570103993467</v>
+        <v>78.37570103993463</v>
       </c>
     </row>
     <row r="214">
@@ -3428,13 +3428,13 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>258.5802215145285</v>
+        <v>258.5802215145276</v>
       </c>
       <c r="C214" t="n">
         <v>113.4763266916553</v>
       </c>
       <c r="D214" t="n">
-        <v>78.35163317645075</v>
+        <v>78.3516331764507</v>
       </c>
     </row>
     <row r="215">
@@ -3442,13 +3442,13 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>258.240114984641</v>
+        <v>258.2401149846401</v>
       </c>
       <c r="C215" t="n">
-        <v>113.4304596567372</v>
+        <v>113.4304596567371</v>
       </c>
       <c r="D215" t="n">
-        <v>78.32756531296683</v>
+        <v>78.32756531296678</v>
       </c>
     </row>
     <row r="216">
@@ -3456,13 +3456,13 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>257.9000084547534</v>
+        <v>257.9000084547524</v>
       </c>
       <c r="C216" t="n">
-        <v>113.3845926218191</v>
+        <v>113.384592621819</v>
       </c>
       <c r="D216" t="n">
-        <v>78.3034974494829</v>
+        <v>78.30349744948286</v>
       </c>
     </row>
     <row r="217">
@@ -3470,13 +3470,13 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>257.5599019248659</v>
+        <v>257.5599019248649</v>
       </c>
       <c r="C217" t="n">
         <v>113.3387255869009</v>
       </c>
       <c r="D217" t="n">
-        <v>78.27942958599897</v>
+        <v>78.27942958599894</v>
       </c>
     </row>
     <row r="218">
@@ -3484,13 +3484,13 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>257.2197953949783</v>
+        <v>257.2197953949774</v>
       </c>
       <c r="C218" t="n">
         <v>113.2928585519828</v>
       </c>
       <c r="D218" t="n">
-        <v>78.25536172251506</v>
+        <v>78.25536172251502</v>
       </c>
     </row>
     <row r="219">
@@ -3498,13 +3498,13 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>256.8796888650908</v>
+        <v>256.8796888650899</v>
       </c>
       <c r="C219" t="n">
-        <v>113.2469915170647</v>
+        <v>113.2469915170646</v>
       </c>
       <c r="D219" t="n">
-        <v>78.23129385903113</v>
+        <v>78.2312938590311</v>
       </c>
     </row>
     <row r="220">
@@ -3512,13 +3512,13 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>256.5395823352032</v>
+        <v>256.5395823352022</v>
       </c>
       <c r="C220" t="n">
         <v>113.2011244821465</v>
       </c>
       <c r="D220" t="n">
-        <v>78.20722599554722</v>
+        <v>78.20722599554718</v>
       </c>
     </row>
     <row r="221">
@@ -3526,13 +3526,13 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>256.1994758053156</v>
+        <v>256.1994758053147</v>
       </c>
       <c r="C221" t="n">
         <v>113.1552574472284</v>
       </c>
       <c r="D221" t="n">
-        <v>78.18315813206328</v>
+        <v>78.18315813206326</v>
       </c>
     </row>
     <row r="222">
@@ -3540,13 +3540,13 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>255.8593692754281</v>
+        <v>255.8593692754272</v>
       </c>
       <c r="C222" t="n">
-        <v>113.1093904123103</v>
+        <v>113.1093904123102</v>
       </c>
       <c r="D222" t="n">
-        <v>78.15909026857938</v>
+        <v>78.15909026857932</v>
       </c>
     </row>
     <row r="223">
@@ -3554,13 +3554,13 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>255.5192627455406</v>
+        <v>255.5192627455397</v>
       </c>
       <c r="C223" t="n">
         <v>113.0635233773921</v>
       </c>
       <c r="D223" t="n">
-        <v>78.13502240509544</v>
+        <v>78.13502240509541</v>
       </c>
     </row>
     <row r="224">
@@ -3568,13 +3568,13 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>255.1791562156531</v>
+        <v>255.179156215652</v>
       </c>
       <c r="C224" t="n">
         <v>113.017656342474</v>
       </c>
       <c r="D224" t="n">
-        <v>78.11095454161152</v>
+        <v>78.11095454161148</v>
       </c>
     </row>
     <row r="225">
@@ -3582,13 +3582,13 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>254.8390496857654</v>
+        <v>254.8390496857645</v>
       </c>
       <c r="C225" t="n">
-        <v>112.9717893075559</v>
+        <v>112.9717893075558</v>
       </c>
       <c r="D225" t="n">
-        <v>78.0868866781276</v>
+        <v>78.08688667812757</v>
       </c>
     </row>
     <row r="226">
@@ -3596,13 +3596,13 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>254.4989431558779</v>
+        <v>254.498943155877</v>
       </c>
       <c r="C226" t="n">
         <v>112.9259222726377</v>
       </c>
       <c r="D226" t="n">
-        <v>78.06281881464368</v>
+        <v>78.06281881464363</v>
       </c>
     </row>
     <row r="227">
@@ -3610,13 +3610,13 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>254.1588366259904</v>
+        <v>254.1588366259895</v>
       </c>
       <c r="C227" t="n">
         <v>112.8800552377196</v>
       </c>
       <c r="D227" t="n">
-        <v>78.03875095115976</v>
+        <v>78.03875095115973</v>
       </c>
     </row>
     <row r="228">
@@ -3624,13 +3624,13 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>253.8187300961027</v>
+        <v>253.8187300961018</v>
       </c>
       <c r="C228" t="n">
         <v>112.8341882028015</v>
       </c>
       <c r="D228" t="n">
-        <v>78.01468308767583</v>
+        <v>78.01468308767579</v>
       </c>
     </row>
     <row r="229">
@@ -3638,13 +3638,13 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>253.4786235662152</v>
+        <v>253.4786235662143</v>
       </c>
       <c r="C229" t="n">
-        <v>112.7883211678834</v>
+        <v>112.7883211678833</v>
       </c>
       <c r="D229" t="n">
-        <v>77.99061522419191</v>
+        <v>77.99061522419188</v>
       </c>
     </row>
     <row r="230">
@@ -3652,13 +3652,13 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>253.1385170363277</v>
+        <v>253.1385170363268</v>
       </c>
       <c r="C230" t="n">
         <v>112.7424541329652</v>
       </c>
       <c r="D230" t="n">
-        <v>77.96654736070799</v>
+        <v>77.96654736070795</v>
       </c>
     </row>
     <row r="231">
@@ -3666,13 +3666,13 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>252.7984105064401</v>
+        <v>252.7984105064393</v>
       </c>
       <c r="C231" t="n">
         <v>112.6965870980471</v>
       </c>
       <c r="D231" t="n">
-        <v>77.94247949722407</v>
+        <v>77.94247949722403</v>
       </c>
     </row>
     <row r="232">
@@ -3680,13 +3680,13 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>252.4583039765525</v>
+        <v>252.4583039765516</v>
       </c>
       <c r="C232" t="n">
-        <v>112.650720063129</v>
+        <v>112.6507200631289</v>
       </c>
       <c r="D232" t="n">
-        <v>77.91841163374013</v>
+        <v>77.91841163374011</v>
       </c>
     </row>
     <row r="233">
@@ -3694,13 +3694,13 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>252.118197446665</v>
+        <v>252.1181974466641</v>
       </c>
       <c r="C233" t="n">
         <v>112.6048530282108</v>
       </c>
       <c r="D233" t="n">
-        <v>77.89434377025623</v>
+        <v>77.89434377025619</v>
       </c>
     </row>
     <row r="234">
@@ -3708,13 +3708,13 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>251.7780909167775</v>
+        <v>251.7780909167766</v>
       </c>
       <c r="C234" t="n">
         <v>112.5589859932927</v>
       </c>
       <c r="D234" t="n">
-        <v>77.87027590677229</v>
+        <v>77.87027590677226</v>
       </c>
     </row>
     <row r="235">
@@ -3722,13 +3722,13 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>251.4379843868899</v>
+        <v>251.4379843868891</v>
       </c>
       <c r="C235" t="n">
-        <v>112.5131189583746</v>
+        <v>112.5131189583745</v>
       </c>
       <c r="D235" t="n">
-        <v>77.84620804328839</v>
+        <v>77.84620804328834</v>
       </c>
     </row>
     <row r="236">
@@ -3736,13 +3736,13 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>251.0978778570023</v>
+        <v>251.0978778570014</v>
       </c>
       <c r="C236" t="n">
         <v>112.4672519234564</v>
       </c>
       <c r="D236" t="n">
-        <v>77.82214017980445</v>
+        <v>77.82214017980442</v>
       </c>
     </row>
     <row r="237">
@@ -3750,13 +3750,13 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>250.7577713271148</v>
+        <v>250.7577713271139</v>
       </c>
       <c r="C237" t="n">
         <v>112.4213848885383</v>
       </c>
       <c r="D237" t="n">
-        <v>77.79807231632054</v>
+        <v>77.7980723163205</v>
       </c>
     </row>
     <row r="238">
@@ -3764,13 +3764,13 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>250.4176647972272</v>
+        <v>250.4176647972264</v>
       </c>
       <c r="C238" t="n">
         <v>112.3755178536202</v>
       </c>
       <c r="D238" t="n">
-        <v>77.77400445283661</v>
+        <v>77.77400445283658</v>
       </c>
     </row>
     <row r="239">
@@ -3778,13 +3778,13 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>250.0775582673397</v>
+        <v>250.0775582673389</v>
       </c>
       <c r="C239" t="n">
         <v>112.329650818702</v>
       </c>
       <c r="D239" t="n">
-        <v>77.74993658935269</v>
+        <v>77.74993658935264</v>
       </c>
     </row>
     <row r="240">
@@ -3792,13 +3792,13 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>249.7374517374521</v>
+        <v>249.7374517374512</v>
       </c>
       <c r="C240" t="n">
         <v>112.2837837837839</v>
       </c>
       <c r="D240" t="n">
-        <v>77.72586872586876</v>
+        <v>77.72586872586874</v>
       </c>
     </row>
     <row r="241">
@@ -3806,13 +3806,13 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>249.3973452075646</v>
+        <v>249.3973452075637</v>
       </c>
       <c r="C241" t="n">
         <v>112.2379167488658</v>
       </c>
       <c r="D241" t="n">
-        <v>77.70180086238484</v>
+        <v>77.7018008623848</v>
       </c>
     </row>
     <row r="242">
@@ -3820,13 +3820,13 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>249.057238677677</v>
+        <v>249.0572386776762</v>
       </c>
       <c r="C242" t="n">
-        <v>112.1920497139477</v>
+        <v>112.1920497139476</v>
       </c>
       <c r="D242" t="n">
-        <v>77.67773299890092</v>
+        <v>77.67773299890089</v>
       </c>
     </row>
     <row r="243">
@@ -3834,13 +3834,13 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>248.7171321477895</v>
+        <v>248.7171321477887</v>
       </c>
       <c r="C243" t="n">
         <v>112.1461826790295</v>
       </c>
       <c r="D243" t="n">
-        <v>77.653665135417</v>
+        <v>77.65366513541696</v>
       </c>
     </row>
     <row r="244">
@@ -3848,13 +3848,13 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>248.3770256179019</v>
+        <v>248.377025617901</v>
       </c>
       <c r="C244" t="n">
         <v>112.1003156441114</v>
       </c>
       <c r="D244" t="n">
-        <v>77.62959727193308</v>
+        <v>77.62959727193305</v>
       </c>
     </row>
     <row r="245">
@@ -3862,13 +3862,13 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>248.0369190880143</v>
+        <v>248.0369190880135</v>
       </c>
       <c r="C245" t="n">
-        <v>112.0544486091933</v>
+        <v>112.0544486091932</v>
       </c>
       <c r="D245" t="n">
-        <v>77.60552940844916</v>
+        <v>77.60552940844912</v>
       </c>
     </row>
     <row r="246">
@@ -3876,13 +3876,13 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>247.6968125581268</v>
+        <v>247.696812558126</v>
       </c>
       <c r="C246" t="n">
         <v>112.0085815742751</v>
       </c>
       <c r="D246" t="n">
-        <v>77.58146154496524</v>
+        <v>77.58146154496521</v>
       </c>
     </row>
     <row r="247">
@@ -3890,13 +3890,13 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>247.3567060282393</v>
+        <v>247.3567060282385</v>
       </c>
       <c r="C247" t="n">
         <v>111.962714539357</v>
       </c>
       <c r="D247" t="n">
-        <v>77.5573936814813</v>
+        <v>77.55739368148127</v>
       </c>
     </row>
     <row r="248">
@@ -3904,13 +3904,13 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>247.0165994983516</v>
+        <v>247.016599498351</v>
       </c>
       <c r="C248" t="n">
-        <v>111.9168475044389</v>
+        <v>111.9168475044388</v>
       </c>
       <c r="D248" t="n">
-        <v>77.53332581799739</v>
+        <v>77.53332581799735</v>
       </c>
     </row>
     <row r="249">
@@ -3918,13 +3918,13 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>246.6764929684641</v>
+        <v>246.6764929684633</v>
       </c>
       <c r="C249" t="n">
         <v>111.8709804695207</v>
       </c>
       <c r="D249" t="n">
-        <v>77.50925795451346</v>
+        <v>77.50925795451343</v>
       </c>
     </row>
     <row r="250">
@@ -3932,13 +3932,13 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>246.3363864385766</v>
+        <v>246.3363864385758</v>
       </c>
       <c r="C250" t="n">
         <v>111.8251134346026</v>
       </c>
       <c r="D250" t="n">
-        <v>77.48519009102955</v>
+        <v>77.48519009102951</v>
       </c>
     </row>
     <row r="251">
@@ -3946,13 +3946,13 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>245.9962799086891</v>
+        <v>245.9962799086883</v>
       </c>
       <c r="C251" t="n">
         <v>111.7792463996845</v>
       </c>
       <c r="D251" t="n">
-        <v>77.46112222754562</v>
+        <v>77.46112222754559</v>
       </c>
     </row>
     <row r="252">
@@ -3960,13 +3960,13 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>245.6561733788014</v>
+        <v>245.6561733788008</v>
       </c>
       <c r="C252" t="n">
         <v>111.7333793647663</v>
       </c>
       <c r="D252" t="n">
-        <v>77.43705436406171</v>
+        <v>77.43705436406167</v>
       </c>
     </row>
     <row r="253">
@@ -3974,13 +3974,13 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>245.3160668489139</v>
+        <v>245.3160668489131</v>
       </c>
       <c r="C253" t="n">
         <v>111.6875123298482</v>
       </c>
       <c r="D253" t="n">
-        <v>77.41298650057777</v>
+        <v>77.41298650057774</v>
       </c>
     </row>
     <row r="254">
@@ -3988,13 +3988,13 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>244.9759603190264</v>
+        <v>244.9759603190256</v>
       </c>
       <c r="C254" t="n">
         <v>111.6416452949301</v>
       </c>
       <c r="D254" t="n">
-        <v>77.38891863709385</v>
+        <v>77.38891863709382</v>
       </c>
     </row>
     <row r="255">
@@ -4002,13 +4002,13 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>244.6358537891388</v>
+        <v>244.6358537891381</v>
       </c>
       <c r="C255" t="n">
-        <v>111.595778260012</v>
+        <v>111.5957782600119</v>
       </c>
       <c r="D255" t="n">
-        <v>77.36485077360993</v>
+        <v>77.3648507736099</v>
       </c>
     </row>
     <row r="256">
@@ -4016,13 +4016,13 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>244.2957472592512</v>
+        <v>244.2957472592506</v>
       </c>
       <c r="C256" t="n">
         <v>111.5499112250938</v>
       </c>
       <c r="D256" t="n">
-        <v>77.34078291012601</v>
+        <v>77.34078291012598</v>
       </c>
     </row>
     <row r="257">
@@ -4030,13 +4030,13 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>243.9556407293637</v>
+        <v>243.9556407293629</v>
       </c>
       <c r="C257" t="n">
         <v>111.5040441901757</v>
       </c>
       <c r="D257" t="n">
-        <v>77.31671504664209</v>
+        <v>77.31671504664206</v>
       </c>
     </row>
     <row r="258">
@@ -4044,13 +4044,13 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>243.6155341994762</v>
+        <v>243.6155341994754</v>
       </c>
       <c r="C258" t="n">
-        <v>111.4581771552576</v>
+        <v>111.4581771552575</v>
       </c>
       <c r="D258" t="n">
-        <v>77.29264718315817</v>
+        <v>77.29264718315812</v>
       </c>
     </row>
     <row r="259">
@@ -4058,13 +4058,13 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>243.2754276695886</v>
+        <v>243.2754276695879</v>
       </c>
       <c r="C259" t="n">
         <v>111.4123101203394</v>
       </c>
       <c r="D259" t="n">
-        <v>77.26857931967425</v>
+        <v>77.26857931967422</v>
       </c>
     </row>
     <row r="260">
@@ -4072,13 +4072,13 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>242.935321139701</v>
+        <v>242.9353211397004</v>
       </c>
       <c r="C260" t="n">
         <v>111.3664430854213</v>
       </c>
       <c r="D260" t="n">
-        <v>77.24451145619032</v>
+        <v>77.24451145619028</v>
       </c>
     </row>
     <row r="261">
@@ -4086,13 +4086,13 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>242.5952146098135</v>
+        <v>242.5952146098127</v>
       </c>
       <c r="C261" t="n">
-        <v>111.3205760505032</v>
+        <v>111.3205760505031</v>
       </c>
       <c r="D261" t="n">
-        <v>77.2204435927064</v>
+        <v>77.22044359270637</v>
       </c>
     </row>
     <row r="262">
@@ -4100,13 +4100,13 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>242.2551080799259</v>
+        <v>242.2551080799252</v>
       </c>
       <c r="C262" t="n">
         <v>111.274709015585</v>
       </c>
       <c r="D262" t="n">
-        <v>77.19637572922247</v>
+        <v>77.19637572922244</v>
       </c>
     </row>
     <row r="263">
@@ -4114,13 +4114,13 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>241.9150015500384</v>
+        <v>241.9150015500377</v>
       </c>
       <c r="C263" t="n">
         <v>111.2288419806669</v>
       </c>
       <c r="D263" t="n">
-        <v>77.17230786573856</v>
+        <v>77.17230786573853</v>
       </c>
     </row>
     <row r="264">
@@ -4128,13 +4128,13 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>241.5748950201508</v>
+        <v>241.5748950201502</v>
       </c>
       <c r="C264" t="n">
         <v>111.1829749457488</v>
       </c>
       <c r="D264" t="n">
-        <v>77.14824000225462</v>
+        <v>77.1482400022546</v>
       </c>
     </row>
     <row r="265">
@@ -4142,13 +4142,13 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>241.2347884902632</v>
+        <v>241.2347884902625</v>
       </c>
       <c r="C265" t="n">
-        <v>111.1371079108307</v>
+        <v>111.1371079108306</v>
       </c>
       <c r="D265" t="n">
-        <v>77.12417213877072</v>
+        <v>77.12417213877069</v>
       </c>
     </row>
     <row r="266">
@@ -4156,13 +4156,13 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>240.8946819603757</v>
+        <v>240.894681960375</v>
       </c>
       <c r="C266" t="n">
         <v>111.0912408759125</v>
       </c>
       <c r="D266" t="n">
-        <v>77.10010427528678</v>
+        <v>77.10010427528675</v>
       </c>
     </row>
     <row r="267">
@@ -4170,13 +4170,13 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>240.5545754304882</v>
+        <v>240.5545754304875</v>
       </c>
       <c r="C267" t="n">
         <v>111.0453738409944</v>
       </c>
       <c r="D267" t="n">
-        <v>77.07603641180287</v>
+        <v>77.07603641180283</v>
       </c>
     </row>
     <row r="268">
@@ -4184,13 +4184,13 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>240.2144689006007</v>
+        <v>240.2144689006</v>
       </c>
       <c r="C268" t="n">
-        <v>110.9995068060763</v>
+        <v>110.9995068060762</v>
       </c>
       <c r="D268" t="n">
-        <v>77.05196854831894</v>
+        <v>77.05196854831891</v>
       </c>
     </row>
     <row r="269">
@@ -4198,13 +4198,13 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>239.874362370713</v>
+        <v>239.8743623707123</v>
       </c>
       <c r="C269" t="n">
         <v>110.9536397711581</v>
       </c>
       <c r="D269" t="n">
-        <v>77.02790068483502</v>
+        <v>77.02790068483499</v>
       </c>
     </row>
     <row r="270">
@@ -4212,13 +4212,13 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>239.5342558408255</v>
+        <v>239.5342558408248</v>
       </c>
       <c r="C270" t="n">
         <v>110.90777273624</v>
       </c>
       <c r="D270" t="n">
-        <v>77.0038328213511</v>
+        <v>77.00383282135107</v>
       </c>
     </row>
     <row r="271">
@@ -4226,13 +4226,13 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>239.194149310938</v>
+        <v>239.1941493109373</v>
       </c>
       <c r="C271" t="n">
-        <v>110.8619057013219</v>
+        <v>110.8619057013218</v>
       </c>
       <c r="D271" t="n">
-        <v>76.97976495786718</v>
+        <v>76.97976495786715</v>
       </c>
     </row>
     <row r="272">
@@ -4240,13 +4240,13 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>238.8540427810503</v>
+        <v>238.8540427810498</v>
       </c>
       <c r="C272" t="n">
         <v>110.8160386664037</v>
       </c>
       <c r="D272" t="n">
-        <v>76.95569709438325</v>
+        <v>76.95569709438323</v>
       </c>
     </row>
     <row r="273">
@@ -4254,13 +4254,13 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>238.5139362511628</v>
+        <v>238.5139362511621</v>
       </c>
       <c r="C273" t="n">
         <v>110.7701716314856</v>
       </c>
       <c r="D273" t="n">
-        <v>76.93162923089933</v>
+        <v>76.9316292308993</v>
       </c>
     </row>
     <row r="274">
@@ -4268,13 +4268,13 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>238.1738297212753</v>
+        <v>238.1738297212746</v>
       </c>
       <c r="C274" t="n">
-        <v>110.7243045965675</v>
+        <v>110.7243045965674</v>
       </c>
       <c r="D274" t="n">
-        <v>76.90756136741541</v>
+        <v>76.90756136741538</v>
       </c>
     </row>
     <row r="275">
@@ -4282,13 +4282,13 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>237.8337231913878</v>
+        <v>237.8337231913871</v>
       </c>
       <c r="C275" t="n">
         <v>110.6784375616493</v>
       </c>
       <c r="D275" t="n">
-        <v>76.88349350393149</v>
+        <v>76.88349350393145</v>
       </c>
     </row>
     <row r="276">
@@ -4296,13 +4296,13 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>237.4936166615001</v>
+        <v>237.4936166614996</v>
       </c>
       <c r="C276" t="n">
         <v>110.6325705267312</v>
       </c>
       <c r="D276" t="n">
-        <v>76.85942564044757</v>
+        <v>76.85942564044754</v>
       </c>
     </row>
     <row r="277">
@@ -4310,13 +4310,13 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>237.1535101316126</v>
+        <v>237.1535101316119</v>
       </c>
       <c r="C277" t="n">
         <v>110.5867034918131</v>
       </c>
       <c r="D277" t="n">
-        <v>76.83535777696363</v>
+        <v>76.8353577769636</v>
       </c>
     </row>
     <row r="278">
@@ -4324,13 +4324,13 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>236.8134036017251</v>
+        <v>236.8134036017244</v>
       </c>
       <c r="C278" t="n">
-        <v>110.540836456895</v>
+        <v>110.5408364568949</v>
       </c>
       <c r="D278" t="n">
-        <v>76.81128991347973</v>
+        <v>76.8112899134797</v>
       </c>
     </row>
     <row r="279">
@@ -4338,13 +4338,13 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>236.4732970718375</v>
+        <v>236.4732970718369</v>
       </c>
       <c r="C279" t="n">
         <v>110.4949694219768</v>
       </c>
       <c r="D279" t="n">
-        <v>76.78722204999579</v>
+        <v>76.78722204999576</v>
       </c>
     </row>
     <row r="280">
@@ -4352,13 +4352,13 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>236.1331905419499</v>
+        <v>236.1331905419494</v>
       </c>
       <c r="C280" t="n">
         <v>110.4491023870587</v>
       </c>
       <c r="D280" t="n">
-        <v>76.76315418651188</v>
+        <v>76.76315418651185</v>
       </c>
     </row>
     <row r="281">
@@ -4366,13 +4366,13 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>235.7930840120624</v>
+        <v>235.7930840120617</v>
       </c>
       <c r="C281" t="n">
-        <v>110.4032353521406</v>
+        <v>110.4032353521405</v>
       </c>
       <c r="D281" t="n">
-        <v>76.73908632302795</v>
+        <v>76.73908632302792</v>
       </c>
     </row>
     <row r="282">
@@ -4380,13 +4380,13 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>235.4529774821748</v>
+        <v>235.4529774821742</v>
       </c>
       <c r="C282" t="n">
         <v>110.3573683172224</v>
       </c>
       <c r="D282" t="n">
-        <v>76.71501845954404</v>
+        <v>76.71501845954401</v>
       </c>
     </row>
     <row r="283">
@@ -4394,13 +4394,13 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>235.1128709522873</v>
+        <v>235.1128709522867</v>
       </c>
       <c r="C283" t="n">
         <v>110.3115012823043</v>
       </c>
       <c r="D283" t="n">
-        <v>76.69095059606011</v>
+        <v>76.69095059606008</v>
       </c>
     </row>
     <row r="284">
@@ -4408,13 +4408,13 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>234.7727644223997</v>
+        <v>234.7727644223992</v>
       </c>
       <c r="C284" t="n">
-        <v>110.2656342473862</v>
+        <v>110.2656342473861</v>
       </c>
       <c r="D284" t="n">
-        <v>76.66688273257618</v>
+        <v>76.66688273257616</v>
       </c>
     </row>
     <row r="285">
@@ -4422,13 +4422,13 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>234.4326578925122</v>
+        <v>234.4326578925115</v>
       </c>
       <c r="C285" t="n">
         <v>110.219767212468</v>
       </c>
       <c r="D285" t="n">
-        <v>76.64281486909226</v>
+        <v>76.64281486909223</v>
       </c>
     </row>
     <row r="286">
@@ -4436,13 +4436,13 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>234.0925513626246</v>
+        <v>234.092551362624</v>
       </c>
       <c r="C286" t="n">
         <v>110.1739001775499</v>
       </c>
       <c r="D286" t="n">
-        <v>76.61874700560834</v>
+        <v>76.61874700560831</v>
       </c>
     </row>
     <row r="287">
@@ -4450,13 +4450,13 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>233.7524448327371</v>
+        <v>233.7524448327365</v>
       </c>
       <c r="C287" t="n">
         <v>110.1280331426318</v>
       </c>
       <c r="D287" t="n">
-        <v>76.59467914212442</v>
+        <v>76.59467914212439</v>
       </c>
     </row>
     <row r="288">
@@ -4464,13 +4464,13 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>233.4123383028495</v>
+        <v>233.412338302849</v>
       </c>
       <c r="C288" t="n">
-        <v>110.0821661077137</v>
+        <v>110.0821661077136</v>
       </c>
       <c r="D288" t="n">
-        <v>76.5706112786405</v>
+        <v>76.57061127864047</v>
       </c>
     </row>
     <row r="289">
@@ -4478,13 +4478,13 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>233.0722317729619</v>
+        <v>233.0722317729613</v>
       </c>
       <c r="C289" t="n">
         <v>110.0362990727955</v>
       </c>
       <c r="D289" t="n">
-        <v>76.54654341515658</v>
+        <v>76.54654341515655</v>
       </c>
     </row>
     <row r="290">
@@ -4492,13 +4492,13 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>232.7321252430744</v>
+        <v>232.7321252430738</v>
       </c>
       <c r="C290" t="n">
         <v>109.9904320378774</v>
       </c>
       <c r="D290" t="n">
-        <v>76.52247555167266</v>
+        <v>76.52247555167263</v>
       </c>
     </row>
     <row r="291">
@@ -4506,13 +4506,13 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>232.3920187131869</v>
+        <v>232.3920187131863</v>
       </c>
       <c r="C291" t="n">
-        <v>109.9445650029593</v>
+        <v>109.9445650029592</v>
       </c>
       <c r="D291" t="n">
-        <v>76.49840768818873</v>
+        <v>76.49840768818871</v>
       </c>
     </row>
     <row r="292">
@@ -4520,13 +4520,13 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>232.0519121832994</v>
+        <v>232.0519121832988</v>
       </c>
       <c r="C292" t="n">
         <v>109.8986979680411</v>
       </c>
       <c r="D292" t="n">
-        <v>76.4743398247048</v>
+        <v>76.47433982470478</v>
       </c>
     </row>
     <row r="293">
@@ -4534,13 +4534,13 @@
         <v>1890</v>
       </c>
       <c r="B293" t="n">
-        <v>232.0519121832994</v>
+        <v>232.0519121832988</v>
       </c>
       <c r="C293" t="n">
         <v>109.8986979680411</v>
       </c>
       <c r="D293" t="n">
-        <v>76.4743398247048</v>
+        <v>76.47433982470478</v>
       </c>
     </row>
     <row r="294">
@@ -4548,13 +4548,13 @@
         <v>1891</v>
       </c>
       <c r="B294" t="n">
-        <v>231.7118056534117</v>
+        <v>231.7118056534111</v>
       </c>
       <c r="C294" t="n">
         <v>109.852830933123</v>
       </c>
       <c r="D294" t="n">
-        <v>76.45027196122089</v>
+        <v>76.45027196122086</v>
       </c>
     </row>
     <row r="295">
@@ -4562,13 +4562,13 @@
         <v>1892</v>
       </c>
       <c r="B295" t="n">
-        <v>231.3716991235242</v>
+        <v>231.3716991235236</v>
       </c>
       <c r="C295" t="n">
-        <v>109.8069638982049</v>
+        <v>109.8069638982048</v>
       </c>
       <c r="D295" t="n">
-        <v>76.42620409773696</v>
+        <v>76.42620409773693</v>
       </c>
     </row>
     <row r="296">
@@ -4576,13 +4576,13 @@
         <v>1893</v>
       </c>
       <c r="B296" t="n">
-        <v>231.0315925936367</v>
+        <v>231.0315925936361</v>
       </c>
       <c r="C296" t="n">
         <v>109.7610968632867</v>
       </c>
       <c r="D296" t="n">
-        <v>76.40213623425305</v>
+        <v>76.40213623425302</v>
       </c>
     </row>
     <row r="297">
@@ -4590,13 +4590,13 @@
         <v>1894</v>
       </c>
       <c r="B297" t="n">
-        <v>230.691486063749</v>
+        <v>230.6914860637486</v>
       </c>
       <c r="C297" t="n">
         <v>109.7152298283686</v>
       </c>
       <c r="D297" t="n">
-        <v>76.37806837076911</v>
+        <v>76.37806837076909</v>
       </c>
     </row>
     <row r="298">
@@ -4604,13 +4604,13 @@
         <v>1895</v>
       </c>
       <c r="B298" t="n">
-        <v>230.3513795338615</v>
+        <v>230.3513795338611</v>
       </c>
       <c r="C298" t="n">
-        <v>109.6693627934505</v>
+        <v>109.6693627934504</v>
       </c>
       <c r="D298" t="n">
-        <v>76.35400050728521</v>
+        <v>76.35400050728518</v>
       </c>
     </row>
     <row r="299">
@@ -4618,13 +4618,13 @@
         <v>1896</v>
       </c>
       <c r="B299" t="n">
-        <v>230.011273003974</v>
+        <v>230.0112730039734</v>
       </c>
       <c r="C299" t="n">
         <v>109.6234957585323</v>
       </c>
       <c r="D299" t="n">
-        <v>76.32993264380127</v>
+        <v>76.32993264380124</v>
       </c>
     </row>
     <row r="300">
@@ -4632,13 +4632,13 @@
         <v>1897</v>
       </c>
       <c r="B300" t="n">
-        <v>229.6711664740864</v>
+        <v>229.6711664740859</v>
       </c>
       <c r="C300" t="n">
         <v>109.5776287236142</v>
       </c>
       <c r="D300" t="n">
-        <v>76.30586478031735</v>
+        <v>76.30586478031734</v>
       </c>
     </row>
     <row r="301">
@@ -4646,13 +4646,13 @@
         <v>1898</v>
       </c>
       <c r="B301" t="n">
-        <v>229.3310599441988</v>
+        <v>229.3310599441984</v>
       </c>
       <c r="C301" t="n">
         <v>109.5317616886961</v>
       </c>
       <c r="D301" t="n">
-        <v>76.28179691683343</v>
+        <v>76.2817969168334</v>
       </c>
     </row>
     <row r="302">
@@ -4660,13 +4660,13 @@
         <v>1899</v>
       </c>
       <c r="B302" t="n">
-        <v>228.9909534143113</v>
+        <v>228.9909534143109</v>
       </c>
       <c r="C302" t="n">
-        <v>109.485894653778</v>
+        <v>109.4858946537779</v>
       </c>
       <c r="D302" t="n">
-        <v>76.25772905334951</v>
+        <v>76.25772905334949</v>
       </c>
     </row>
     <row r="303">
@@ -4674,13 +4674,13 @@
         <v>1900</v>
       </c>
       <c r="B303" t="n">
-        <v>228.6508468844238</v>
+        <v>228.6508468844232</v>
       </c>
       <c r="C303" t="n">
         <v>109.4400276188598</v>
       </c>
       <c r="D303" t="n">
-        <v>76.23366118986559</v>
+        <v>76.23366118986556</v>
       </c>
     </row>
     <row r="304">
@@ -4688,13 +4688,13 @@
         <v>1901</v>
       </c>
       <c r="B304" t="n">
-        <v>228.3107403545362</v>
+        <v>228.3107403545357</v>
       </c>
       <c r="C304" t="n">
         <v>109.3941605839417</v>
       </c>
       <c r="D304" t="n">
-        <v>76.20959332638166</v>
+        <v>76.20959332638164</v>
       </c>
     </row>
     <row r="305">
@@ -4702,13 +4702,13 @@
         <v>1902</v>
       </c>
       <c r="B305" t="n">
-        <v>227.9706338246486</v>
+        <v>227.9706338246482</v>
       </c>
       <c r="C305" t="n">
-        <v>109.3482935490236</v>
+        <v>109.3482935490235</v>
       </c>
       <c r="D305" t="n">
-        <v>76.18552546289774</v>
+        <v>76.18552546289771</v>
       </c>
     </row>
     <row r="306">
@@ -4716,13 +4716,13 @@
         <v>1903</v>
       </c>
       <c r="B306" t="n">
-        <v>227.6305272947611</v>
+        <v>227.6305272947607</v>
       </c>
       <c r="C306" t="n">
         <v>109.3024265141054</v>
       </c>
       <c r="D306" t="n">
-        <v>76.16145759941382</v>
+        <v>76.16145759941379</v>
       </c>
     </row>
     <row r="307">
@@ -4730,13 +4730,13 @@
         <v>1904</v>
       </c>
       <c r="B307" t="n">
-        <v>227.2904207648735</v>
+        <v>227.290420764873</v>
       </c>
       <c r="C307" t="n">
         <v>109.2565594791873</v>
       </c>
       <c r="D307" t="n">
-        <v>76.1373897359299</v>
+        <v>76.13738973592987</v>
       </c>
     </row>
     <row r="308">
@@ -4744,13 +4744,13 @@
         <v>1905</v>
       </c>
       <c r="B308" t="n">
-        <v>226.950314234986</v>
+        <v>226.9503142349855</v>
       </c>
       <c r="C308" t="n">
-        <v>109.2106924442692</v>
+        <v>109.2106924442691</v>
       </c>
       <c r="D308" t="n">
-        <v>76.11332187244597</v>
+        <v>76.11332187244595</v>
       </c>
     </row>
     <row r="309">
@@ -4758,13 +4758,13 @@
         <v>1906</v>
       </c>
       <c r="B309" t="n">
-        <v>226.6102077050984</v>
+        <v>226.610207705098</v>
       </c>
       <c r="C309" t="n">
         <v>109.164825409351</v>
       </c>
       <c r="D309" t="n">
-        <v>76.08925400896206</v>
+        <v>76.08925400896203</v>
       </c>
     </row>
     <row r="310">
@@ -4772,13 +4772,13 @@
         <v>1907</v>
       </c>
       <c r="B310" t="n">
-        <v>226.2701011752109</v>
+        <v>226.2701011752105</v>
       </c>
       <c r="C310" t="n">
         <v>109.1189583744329</v>
       </c>
       <c r="D310" t="n">
-        <v>76.06518614547812</v>
+        <v>76.06518614547811</v>
       </c>
     </row>
     <row r="311">
@@ -4786,13 +4786,13 @@
         <v>1908</v>
       </c>
       <c r="B311" t="n">
-        <v>225.9299946453233</v>
+        <v>225.9299946453228</v>
       </c>
       <c r="C311" t="n">
-        <v>109.0730913395148</v>
+        <v>109.0730913395147</v>
       </c>
       <c r="D311" t="n">
-        <v>76.04111828199422</v>
+        <v>76.04111828199419</v>
       </c>
     </row>
     <row r="312">
@@ -4800,13 +4800,13 @@
         <v>1909</v>
       </c>
       <c r="B312" t="n">
-        <v>225.5898881154358</v>
+        <v>225.5898881154353</v>
       </c>
       <c r="C312" t="n">
-        <v>109.0272243045967</v>
+        <v>109.0272243045966</v>
       </c>
       <c r="D312" t="n">
-        <v>76.01705041851028</v>
+        <v>76.01705041851025</v>
       </c>
     </row>
     <row r="313">
@@ -4814,13 +4814,13 @@
         <v>1910</v>
       </c>
       <c r="B313" t="n">
-        <v>225.2497815855482</v>
+        <v>225.2497815855478</v>
       </c>
       <c r="C313" t="n">
         <v>108.9813572696785</v>
       </c>
       <c r="D313" t="n">
-        <v>75.99298255502637</v>
+        <v>75.99298255502634</v>
       </c>
     </row>
     <row r="314">
@@ -4828,13 +4828,13 @@
         <v>1911</v>
       </c>
       <c r="B314" t="n">
-        <v>224.9096750556606</v>
+        <v>224.9096750556603</v>
       </c>
       <c r="C314" t="n">
         <v>108.9354902347604</v>
       </c>
       <c r="D314" t="n">
-        <v>75.96891469154244</v>
+        <v>75.96891469154241</v>
       </c>
     </row>
     <row r="315">
@@ -4842,13 +4842,13 @@
         <v>1912</v>
       </c>
       <c r="B315" t="n">
-        <v>224.5695685257731</v>
+        <v>224.5695685257726</v>
       </c>
       <c r="C315" t="n">
-        <v>108.8896231998423</v>
+        <v>108.8896231998422</v>
       </c>
       <c r="D315" t="n">
-        <v>75.94484682805852</v>
+        <v>75.9448468280585</v>
       </c>
     </row>
     <row r="316">
@@ -4856,13 +4856,13 @@
         <v>1913</v>
       </c>
       <c r="B316" t="n">
-        <v>224.2294619958856</v>
+        <v>224.2294619958851</v>
       </c>
       <c r="C316" t="n">
         <v>108.8437561649241</v>
       </c>
       <c r="D316" t="n">
-        <v>75.92077896457459</v>
+        <v>75.92077896457457</v>
       </c>
     </row>
     <row r="317">
@@ -4870,13 +4870,13 @@
         <v>1914</v>
       </c>
       <c r="B317" t="n">
-        <v>223.8893554659979</v>
+        <v>223.8893554659976</v>
       </c>
       <c r="C317" t="n">
         <v>108.797889130006</v>
       </c>
       <c r="D317" t="n">
-        <v>75.89671110109067</v>
+        <v>75.89671110109066</v>
       </c>
     </row>
     <row r="318">
@@ -4884,13 +4884,13 @@
         <v>1915</v>
       </c>
       <c r="B318" t="n">
-        <v>223.5492489361104</v>
+        <v>223.5492489361101</v>
       </c>
       <c r="C318" t="n">
-        <v>108.7520220950879</v>
+        <v>108.7520220950878</v>
       </c>
       <c r="D318" t="n">
-        <v>75.87264323760675</v>
+        <v>75.87264323760672</v>
       </c>
     </row>
     <row r="319">
@@ -4898,13 +4898,13 @@
         <v>1916</v>
       </c>
       <c r="B319" t="n">
-        <v>223.2091424062229</v>
+        <v>223.2091424062224</v>
       </c>
       <c r="C319" t="n">
         <v>108.7061550601697</v>
       </c>
       <c r="D319" t="n">
-        <v>75.84857537412283</v>
+        <v>75.84857537412282</v>
       </c>
     </row>
     <row r="320">
@@ -4912,13 +4912,13 @@
         <v>1917</v>
       </c>
       <c r="B320" t="n">
-        <v>222.8690358763354</v>
+        <v>222.8690358763349</v>
       </c>
       <c r="C320" t="n">
         <v>108.6602880252516</v>
       </c>
       <c r="D320" t="n">
-        <v>75.82450751063891</v>
+        <v>75.82450751063888</v>
       </c>
     </row>
     <row r="321">
@@ -4926,13 +4926,13 @@
         <v>1918</v>
       </c>
       <c r="B321" t="n">
-        <v>222.5289293464477</v>
+        <v>222.5289293464474</v>
       </c>
       <c r="C321" t="n">
-        <v>108.6144209903335</v>
+        <v>108.6144209903334</v>
       </c>
       <c r="D321" t="n">
-        <v>75.80043964715499</v>
+        <v>75.80043964715496</v>
       </c>
     </row>
     <row r="322">
@@ -4940,13 +4940,13 @@
         <v>1919</v>
       </c>
       <c r="B322" t="n">
-        <v>222.1888228165602</v>
+        <v>222.1888228165599</v>
       </c>
       <c r="C322" t="n">
         <v>108.5685539554153</v>
       </c>
       <c r="D322" t="n">
-        <v>75.77637178367107</v>
+        <v>75.77637178367104</v>
       </c>
     </row>
     <row r="323">
@@ -4954,13 +4954,13 @@
         <v>1920</v>
       </c>
       <c r="B323" t="n">
-        <v>221.8487162866727</v>
+        <v>221.8487162866722</v>
       </c>
       <c r="C323" t="n">
         <v>108.5226869204972</v>
       </c>
       <c r="D323" t="n">
-        <v>75.75230392018713</v>
+        <v>75.75230392018712</v>
       </c>
     </row>
     <row r="324">
@@ -4968,13 +4968,13 @@
         <v>1921</v>
       </c>
       <c r="B324" t="n">
-        <v>221.5086097567851</v>
+        <v>221.5086097567847</v>
       </c>
       <c r="C324" t="n">
         <v>108.4768198855791</v>
       </c>
       <c r="D324" t="n">
-        <v>75.72823605670322</v>
+        <v>75.7282360567032</v>
       </c>
     </row>
     <row r="325">
@@ -4982,13 +4982,13 @@
         <v>1922</v>
       </c>
       <c r="B325" t="n">
-        <v>221.1685032268975</v>
+        <v>221.1685032268972</v>
       </c>
       <c r="C325" t="n">
-        <v>108.430952850661</v>
+        <v>108.4309528506609</v>
       </c>
       <c r="D325" t="n">
-        <v>75.70416819321929</v>
+        <v>75.70416819321927</v>
       </c>
     </row>
     <row r="326">
@@ -4996,13 +4996,13 @@
         <v>1923</v>
       </c>
       <c r="B326" t="n">
-        <v>220.82839669701</v>
+        <v>220.8283966970097</v>
       </c>
       <c r="C326" t="n">
         <v>108.3850858157428</v>
       </c>
       <c r="D326" t="n">
-        <v>75.68010032973538</v>
+        <v>75.68010032973535</v>
       </c>
     </row>
     <row r="327">
@@ -5010,13 +5010,13 @@
         <v>1924</v>
       </c>
       <c r="B327" t="n">
-        <v>220.4882901671225</v>
+        <v>220.488290167122</v>
       </c>
       <c r="C327" t="n">
         <v>108.3392187808247</v>
       </c>
       <c r="D327" t="n">
-        <v>75.65603246625145</v>
+        <v>75.65603246625143</v>
       </c>
     </row>
     <row r="328">
@@ -5024,13 +5024,13 @@
         <v>1925</v>
       </c>
       <c r="B328" t="n">
-        <v>220.1481836372349</v>
+        <v>220.1481836372345</v>
       </c>
       <c r="C328" t="n">
-        <v>108.2933517459066</v>
+        <v>108.2933517459065</v>
       </c>
       <c r="D328" t="n">
-        <v>75.63196460276754</v>
+        <v>75.63196460276751</v>
       </c>
     </row>
     <row r="329">
@@ -5038,13 +5038,13 @@
         <v>1926</v>
       </c>
       <c r="B329" t="n">
-        <v>219.8080771073473</v>
+        <v>219.808077107347</v>
       </c>
       <c r="C329" t="n">
         <v>108.2474847109884</v>
       </c>
       <c r="D329" t="n">
-        <v>75.6078967392836</v>
+        <v>75.60789673928359</v>
       </c>
     </row>
     <row r="330">
@@ -5052,13 +5052,13 @@
         <v>1927</v>
       </c>
       <c r="B330" t="n">
-        <v>219.4679705774598</v>
+        <v>219.4679705774595</v>
       </c>
       <c r="C330" t="n">
         <v>108.2016176760703</v>
       </c>
       <c r="D330" t="n">
-        <v>75.58382887579968</v>
+        <v>75.58382887579967</v>
       </c>
     </row>
     <row r="331">
@@ -5066,13 +5066,13 @@
         <v>1928</v>
       </c>
       <c r="B331" t="n">
-        <v>219.1278640475722</v>
+        <v>219.1278640475718</v>
       </c>
       <c r="C331" t="n">
-        <v>108.1557506411522</v>
+        <v>108.1557506411521</v>
       </c>
       <c r="D331" t="n">
-        <v>75.55976101231576</v>
+        <v>75.55976101231573</v>
       </c>
     </row>
     <row r="332">
@@ -5080,13 +5080,13 @@
         <v>1929</v>
       </c>
       <c r="B332" t="n">
-        <v>218.7877575176847</v>
+        <v>218.7877575176843</v>
       </c>
       <c r="C332" t="n">
         <v>108.109883606234</v>
       </c>
       <c r="D332" t="n">
-        <v>75.53569314883184</v>
+        <v>75.53569314883183</v>
       </c>
     </row>
     <row r="333">
@@ -5094,13 +5094,13 @@
         <v>1930</v>
       </c>
       <c r="B333" t="n">
-        <v>218.4476509877971</v>
+        <v>218.4476509877968</v>
       </c>
       <c r="C333" t="n">
         <v>108.0640165713159</v>
       </c>
       <c r="D333" t="n">
-        <v>75.51162528534792</v>
+        <v>75.51162528534789</v>
       </c>
     </row>
     <row r="334">
@@ -5108,13 +5108,13 @@
         <v>1931</v>
       </c>
       <c r="B334" t="n">
-        <v>218.1075444579095</v>
+        <v>218.1075444579093</v>
       </c>
       <c r="C334" t="n">
         <v>108.0181495363978</v>
       </c>
       <c r="D334" t="n">
-        <v>75.487557421864</v>
+        <v>75.48755742186398</v>
       </c>
     </row>
     <row r="335">
@@ -5122,13 +5122,13 @@
         <v>1932</v>
       </c>
       <c r="B335" t="n">
-        <v>217.767437928022</v>
+        <v>217.7674379280216</v>
       </c>
       <c r="C335" t="n">
-        <v>107.9722825014797</v>
+        <v>107.9722825014796</v>
       </c>
       <c r="D335" t="n">
-        <v>75.46348955838008</v>
+        <v>75.46348955838005</v>
       </c>
     </row>
     <row r="336">
@@ -5136,7 +5136,7 @@
         <v>1933</v>
       </c>
       <c r="B336" t="n">
-        <v>217.4273313981345</v>
+        <v>217.4273313981341</v>
       </c>
       <c r="C336" t="n">
         <v>107.9264154665615</v>
@@ -5150,13 +5150,13 @@
         <v>1934</v>
       </c>
       <c r="B337" t="n">
-        <v>217.0872248682469</v>
+        <v>217.0872248682466</v>
       </c>
       <c r="C337" t="n">
         <v>107.8805484316434</v>
       </c>
       <c r="D337" t="n">
-        <v>75.41535383141223</v>
+        <v>75.4153538314122</v>
       </c>
     </row>
     <row r="338">
@@ -5164,10 +5164,10 @@
         <v>1935</v>
       </c>
       <c r="B338" t="n">
-        <v>216.7471183383593</v>
+        <v>216.7471183383591</v>
       </c>
       <c r="C338" t="n">
-        <v>107.8346813967253</v>
+        <v>107.8346813967252</v>
       </c>
       <c r="D338" t="n">
         <v>75.3912859679283</v>
@@ -5178,13 +5178,13 @@
         <v>1936</v>
       </c>
       <c r="B339" t="n">
-        <v>216.4070118084718</v>
+        <v>216.4070118084715</v>
       </c>
       <c r="C339" t="n">
         <v>107.7888143618071</v>
       </c>
       <c r="D339" t="n">
-        <v>75.36721810444439</v>
+        <v>75.36721810444436</v>
       </c>
     </row>
     <row r="340">
@@ -5192,13 +5192,13 @@
         <v>1937</v>
       </c>
       <c r="B340" t="n">
-        <v>216.0669052785843</v>
+        <v>216.0669052785839</v>
       </c>
       <c r="C340" t="n">
         <v>107.742947326889</v>
       </c>
       <c r="D340" t="n">
-        <v>75.34315024096045</v>
+        <v>75.34315024096044</v>
       </c>
     </row>
     <row r="341">
@@ -5206,13 +5206,13 @@
         <v>1938</v>
       </c>
       <c r="B341" t="n">
-        <v>215.7267987486966</v>
+        <v>215.7267987486964</v>
       </c>
       <c r="C341" t="n">
-        <v>107.6970802919709</v>
+        <v>107.6970802919708</v>
       </c>
       <c r="D341" t="n">
-        <v>75.31908237747655</v>
+        <v>75.31908237747652</v>
       </c>
     </row>
     <row r="342">
@@ -5220,13 +5220,13 @@
         <v>1939</v>
       </c>
       <c r="B342" t="n">
-        <v>215.3866922188091</v>
+        <v>215.3866922188089</v>
       </c>
       <c r="C342" t="n">
         <v>107.6512132570527</v>
       </c>
       <c r="D342" t="n">
-        <v>75.29501451399261</v>
+        <v>75.2950145139926</v>
       </c>
     </row>
     <row r="343">
@@ -5234,13 +5234,13 @@
         <v>1940</v>
       </c>
       <c r="B343" t="n">
-        <v>215.0465856889216</v>
+        <v>215.0465856889213</v>
       </c>
       <c r="C343" t="n">
         <v>107.6053462221346</v>
       </c>
       <c r="D343" t="n">
-        <v>75.27094665050871</v>
+        <v>75.27094665050868</v>
       </c>
     </row>
     <row r="344">
@@ -5248,13 +5248,13 @@
         <v>1941</v>
       </c>
       <c r="B344" t="n">
-        <v>214.7064791590341</v>
+        <v>214.7064791590337</v>
       </c>
       <c r="C344" t="n">
         <v>107.5594791872165</v>
       </c>
       <c r="D344" t="n">
-        <v>75.24687878702477</v>
+        <v>75.24687878702476</v>
       </c>
     </row>
     <row r="345">
@@ -5262,13 +5262,13 @@
         <v>1942</v>
       </c>
       <c r="B345" t="n">
-        <v>214.3663726291464</v>
+        <v>214.3663726291462</v>
       </c>
       <c r="C345" t="n">
-        <v>107.5136121522984</v>
+        <v>107.5136121522983</v>
       </c>
       <c r="D345" t="n">
-        <v>75.22281092354085</v>
+        <v>75.22281092354083</v>
       </c>
     </row>
     <row r="346">
@@ -5276,13 +5276,13 @@
         <v>1943</v>
       </c>
       <c r="B346" t="n">
-        <v>214.0262660992589</v>
+        <v>214.0262660992587</v>
       </c>
       <c r="C346" t="n">
         <v>107.4677451173802</v>
       </c>
       <c r="D346" t="n">
-        <v>75.19874306005693</v>
+        <v>75.19874306005691</v>
       </c>
     </row>
     <row r="347">
@@ -5290,13 +5290,13 @@
         <v>1944</v>
       </c>
       <c r="B347" t="n">
-        <v>213.6861595693714</v>
+        <v>213.6861595693711</v>
       </c>
       <c r="C347" t="n">
         <v>107.4218780824621</v>
       </c>
       <c r="D347" t="n">
-        <v>75.17467519657301</v>
+        <v>75.17467519657299</v>
       </c>
     </row>
     <row r="348">
@@ -5304,13 +5304,13 @@
         <v>1945</v>
       </c>
       <c r="B348" t="n">
-        <v>213.3460530394838</v>
+        <v>213.3460530394835</v>
       </c>
       <c r="C348" t="n">
-        <v>107.376011047544</v>
+        <v>107.3760110475439</v>
       </c>
       <c r="D348" t="n">
-        <v>75.15060733308908</v>
+        <v>75.15060733308906</v>
       </c>
     </row>
     <row r="349">
@@ -5318,13 +5318,13 @@
         <v>1946</v>
       </c>
       <c r="B349" t="n">
-        <v>213.0059465095962</v>
+        <v>213.005946509596</v>
       </c>
       <c r="C349" t="n">
         <v>107.3301440126258</v>
       </c>
       <c r="D349" t="n">
-        <v>75.12653946960516</v>
+        <v>75.12653946960515</v>
       </c>
     </row>
     <row r="350">
@@ -5332,13 +5332,13 @@
         <v>1947</v>
       </c>
       <c r="B350" t="n">
-        <v>212.6658399797087</v>
+        <v>212.6658399797085</v>
       </c>
       <c r="C350" t="n">
         <v>107.2842769777077</v>
       </c>
       <c r="D350" t="n">
-        <v>75.10247160612124</v>
+        <v>75.10247160612121</v>
       </c>
     </row>
     <row r="351">
@@ -5346,10 +5346,10 @@
         <v>1948</v>
       </c>
       <c r="B351" t="n">
-        <v>212.3257334498211</v>
+        <v>212.325733449821</v>
       </c>
       <c r="C351" t="n">
-        <v>107.2384099427896</v>
+        <v>107.2384099427895</v>
       </c>
       <c r="D351" t="n">
         <v>75.07840374263731</v>
@@ -5360,13 +5360,13 @@
         <v>1949</v>
       </c>
       <c r="B352" t="n">
-        <v>211.9856269199336</v>
+        <v>211.9856269199333</v>
       </c>
       <c r="C352" t="n">
         <v>107.1925429078714</v>
       </c>
       <c r="D352" t="n">
-        <v>75.0543358791534</v>
+        <v>75.05433587915337</v>
       </c>
     </row>
     <row r="353">
@@ -5374,7 +5374,7 @@
         <v>1950</v>
       </c>
       <c r="B353" t="n">
-        <v>211.645520390046</v>
+        <v>211.6455203900458</v>
       </c>
       <c r="C353" t="n">
         <v>107.1466758729533</v>
@@ -5388,13 +5388,13 @@
         <v>1951</v>
       </c>
       <c r="B354" t="n">
-        <v>211.3054138601585</v>
+        <v>211.3054138601583</v>
       </c>
       <c r="C354" t="n">
-        <v>107.1008088380352</v>
+        <v>107.1008088380351</v>
       </c>
       <c r="D354" t="n">
-        <v>75.00620015218556</v>
+        <v>75.00620015218553</v>
       </c>
     </row>
     <row r="355">
@@ -5402,7 +5402,7 @@
         <v>1952</v>
       </c>
       <c r="B355" t="n">
-        <v>210.9653073302709</v>
+        <v>210.9653073302708</v>
       </c>
       <c r="C355" t="n">
         <v>107.054941803117</v>
@@ -5416,13 +5416,13 @@
         <v>1953</v>
       </c>
       <c r="B356" t="n">
-        <v>210.6252008003834</v>
+        <v>210.6252008003831</v>
       </c>
       <c r="C356" t="n">
         <v>107.0090747681989</v>
       </c>
       <c r="D356" t="n">
-        <v>74.95806442521771</v>
+        <v>74.95806442521769</v>
       </c>
     </row>
     <row r="357">
@@ -5430,13 +5430,13 @@
         <v>1954</v>
       </c>
       <c r="B357" t="n">
-        <v>210.2850942704958</v>
+        <v>210.2850942704956</v>
       </c>
       <c r="C357" t="n">
         <v>106.9632077332808</v>
       </c>
       <c r="D357" t="n">
-        <v>74.93399656173378</v>
+        <v>74.93399656173376</v>
       </c>
     </row>
     <row r="358">
@@ -5444,13 +5444,13 @@
         <v>1955</v>
       </c>
       <c r="B358" t="n">
-        <v>209.9449877406082</v>
+        <v>209.9449877406081</v>
       </c>
       <c r="C358" t="n">
-        <v>106.9173406983627</v>
+        <v>106.9173406983626</v>
       </c>
       <c r="D358" t="n">
-        <v>74.90992869824987</v>
+        <v>74.90992869824984</v>
       </c>
     </row>
     <row r="359">
@@ -5458,13 +5458,13 @@
         <v>1956</v>
       </c>
       <c r="B359" t="n">
-        <v>209.6048812107207</v>
+        <v>209.6048812107206</v>
       </c>
       <c r="C359" t="n">
         <v>106.8714736634445</v>
       </c>
       <c r="D359" t="n">
-        <v>74.88586083476594</v>
+        <v>74.88586083476592</v>
       </c>
     </row>
     <row r="360">
@@ -5472,13 +5472,13 @@
         <v>1957</v>
       </c>
       <c r="B360" t="n">
-        <v>209.2647746808332</v>
+        <v>209.2647746808329</v>
       </c>
       <c r="C360" t="n">
         <v>106.8256066285264</v>
       </c>
       <c r="D360" t="n">
-        <v>74.86179297128201</v>
+        <v>74.861792971282</v>
       </c>
     </row>
     <row r="361">
@@ -5486,13 +5486,13 @@
         <v>1958</v>
       </c>
       <c r="B361" t="n">
-        <v>208.9246681509455</v>
+        <v>208.9246681509454</v>
       </c>
       <c r="C361" t="n">
-        <v>106.7797395936083</v>
+        <v>106.7797395936082</v>
       </c>
       <c r="D361" t="n">
-        <v>74.83772510779809</v>
+        <v>74.83772510779808</v>
       </c>
     </row>
     <row r="362">
@@ -5500,13 +5500,13 @@
         <v>1959</v>
       </c>
       <c r="B362" t="n">
-        <v>208.584561621058</v>
+        <v>208.5845616210579</v>
       </c>
       <c r="C362" t="n">
         <v>106.7338725586901</v>
       </c>
       <c r="D362" t="n">
-        <v>74.81365724431417</v>
+        <v>74.81365724431416</v>
       </c>
     </row>
     <row r="363">
@@ -5514,13 +5514,13 @@
         <v>1960</v>
       </c>
       <c r="B363" t="n">
-        <v>208.2444550911705</v>
+        <v>208.2444550911704</v>
       </c>
       <c r="C363" t="n">
         <v>106.688005523772</v>
       </c>
       <c r="D363" t="n">
-        <v>74.78958938083025</v>
+        <v>74.78958938083024</v>
       </c>
     </row>
     <row r="364">
@@ -5528,13 +5528,13 @@
         <v>1961</v>
       </c>
       <c r="B364" t="n">
-        <v>207.904348561283</v>
+        <v>207.9043485612827</v>
       </c>
       <c r="C364" t="n">
-        <v>106.6421384888539</v>
+        <v>106.6421384888538</v>
       </c>
       <c r="D364" t="n">
-        <v>74.76552151734633</v>
+        <v>74.76552151734631</v>
       </c>
     </row>
     <row r="365">
@@ -5542,13 +5542,13 @@
         <v>1962</v>
       </c>
       <c r="B365" t="n">
-        <v>207.5642420313953</v>
+        <v>207.5642420313952</v>
       </c>
       <c r="C365" t="n">
         <v>106.5962714539357</v>
       </c>
       <c r="D365" t="n">
-        <v>74.74145365386241</v>
+        <v>74.74145365386239</v>
       </c>
     </row>
     <row r="366">
@@ -5556,7 +5556,7 @@
         <v>1963</v>
       </c>
       <c r="B366" t="n">
-        <v>207.2241355015078</v>
+        <v>207.2241355015077</v>
       </c>
       <c r="C366" t="n">
         <v>106.5504044190176</v>
@@ -5570,13 +5570,13 @@
         <v>1964</v>
       </c>
       <c r="B367" t="n">
-        <v>206.8840289716203</v>
+        <v>206.8840289716202</v>
       </c>
       <c r="C367" t="n">
         <v>106.5045373840995</v>
       </c>
       <c r="D367" t="n">
-        <v>74.69331792689457</v>
+        <v>74.69331792689454</v>
       </c>
     </row>
     <row r="368">
@@ -5584,7 +5584,7 @@
         <v>1965</v>
       </c>
       <c r="B368" t="n">
-        <v>206.5439224417327</v>
+        <v>206.5439224417325</v>
       </c>
       <c r="C368" t="n">
         <v>106.4586703491813</v>
@@ -5598,13 +5598,13 @@
         <v>1966</v>
       </c>
       <c r="B369" t="n">
-        <v>206.2038159118451</v>
+        <v>206.203815911845</v>
       </c>
       <c r="C369" t="n">
         <v>106.4128033142632</v>
       </c>
       <c r="D369" t="n">
-        <v>74.64518219992672</v>
+        <v>74.64518219992669</v>
       </c>
     </row>
     <row r="370">
@@ -5612,7 +5612,7 @@
         <v>1967</v>
       </c>
       <c r="B370" t="n">
-        <v>205.8637093819576</v>
+        <v>205.8637093819575</v>
       </c>
       <c r="C370" t="n">
         <v>106.3669362793451</v>
@@ -5626,13 +5626,13 @@
         <v>1968</v>
       </c>
       <c r="B371" t="n">
-        <v>205.5236028520701</v>
+        <v>205.52360285207</v>
       </c>
       <c r="C371" t="n">
-        <v>106.321069244427</v>
+        <v>106.3210692444269</v>
       </c>
       <c r="D371" t="n">
-        <v>74.59704647295888</v>
+        <v>74.59704647295885</v>
       </c>
     </row>
     <row r="372">
@@ -5640,7 +5640,7 @@
         <v>1969</v>
       </c>
       <c r="B372" t="n">
-        <v>205.1834963221825</v>
+        <v>205.1834963221824</v>
       </c>
       <c r="C372" t="n">
         <v>106.2752022095088</v>
@@ -5654,13 +5654,13 @@
         <v>1970</v>
       </c>
       <c r="B373" t="n">
-        <v>204.8433897922949</v>
+        <v>204.8433897922948</v>
       </c>
       <c r="C373" t="n">
         <v>106.2293351745907</v>
       </c>
       <c r="D373" t="n">
-        <v>74.54891074599104</v>
+        <v>74.54891074599101</v>
       </c>
     </row>
     <row r="374">
@@ -5668,10 +5668,10 @@
         <v>1971</v>
       </c>
       <c r="B374" t="n">
-        <v>204.5032832624074</v>
+        <v>204.5032832624073</v>
       </c>
       <c r="C374" t="n">
-        <v>106.1834681396726</v>
+        <v>106.1834681396725</v>
       </c>
       <c r="D374" t="n">
         <v>74.5248428825071</v>
@@ -5688,7 +5688,7 @@
         <v>106.1376011047544</v>
       </c>
       <c r="D375" t="n">
-        <v>74.50077501902318</v>
+        <v>74.50077501902317</v>
       </c>
     </row>
     <row r="376">
@@ -5696,13 +5696,13 @@
         <v>1973</v>
       </c>
       <c r="B376" t="n">
-        <v>203.8230702026323</v>
+        <v>203.8230702026322</v>
       </c>
       <c r="C376" t="n">
         <v>106.0917340698363</v>
       </c>
       <c r="D376" t="n">
-        <v>74.47670715553926</v>
+        <v>74.47670715553924</v>
       </c>
     </row>
     <row r="377">
@@ -5710,13 +5710,13 @@
         <v>1974</v>
       </c>
       <c r="B377" t="n">
-        <v>203.4829636727447</v>
+        <v>203.4829636727446</v>
       </c>
       <c r="C377" t="n">
-        <v>106.0458670349182</v>
+        <v>106.0458670349181</v>
       </c>
       <c r="D377" t="n">
-        <v>74.45263929205534</v>
+        <v>74.45263929205532</v>
       </c>
     </row>
     <row r="378">
@@ -5730,7 +5730,7 @@
         <v>106</v>
       </c>
       <c r="D378" t="n">
-        <v>74.42857142857142</v>
+        <v>74.4285714285714</v>
       </c>
     </row>
     <row r="379">
@@ -5744,7 +5744,7 @@
         <v>105.9541329650819</v>
       </c>
       <c r="D379" t="n">
-        <v>74.4045035650875</v>
+        <v>74.40450356508748</v>
       </c>
     </row>
     <row r="380">
@@ -5752,13 +5752,13 @@
         <v>1977</v>
       </c>
       <c r="B380" t="n">
-        <v>202.4626440830821</v>
+        <v>202.462644083082</v>
       </c>
       <c r="C380" t="n">
         <v>105.9082659301638</v>
       </c>
       <c r="D380" t="n">
-        <v>74.38043570160357</v>
+        <v>74.38043570160356</v>
       </c>
     </row>
     <row r="381">
@@ -5766,7 +5766,7 @@
         <v>1978</v>
       </c>
       <c r="B381" t="n">
-        <v>202.1225375531945</v>
+        <v>202.1225375531944</v>
       </c>
       <c r="C381" t="n">
         <v>105.8623988952456</v>
@@ -5786,7 +5786,7 @@
         <v>105.8165318603275</v>
       </c>
       <c r="D382" t="n">
-        <v>74.33229997463573</v>
+        <v>74.33229997463572</v>
       </c>
     </row>
     <row r="383">
@@ -5808,13 +5808,13 @@
         <v>1981</v>
       </c>
       <c r="B384" t="n">
-        <v>201.1022179635319</v>
+        <v>201.1022179635318</v>
       </c>
       <c r="C384" t="n">
-        <v>105.7247977904913</v>
+        <v>105.7247977904912</v>
       </c>
       <c r="D384" t="n">
-        <v>74.28416424766789</v>
+        <v>74.28416424766786</v>
       </c>
     </row>
     <row r="385">
@@ -5842,7 +5842,7 @@
         <v>105.633063720655</v>
       </c>
       <c r="D386" t="n">
-        <v>74.23602852070005</v>
+        <v>74.23602852070002</v>
       </c>
     </row>
     <row r="387">
@@ -5853,7 +5853,7 @@
         <v>200.0818983738692</v>
       </c>
       <c r="C387" t="n">
-        <v>105.5871966857369</v>
+        <v>105.5871966857368</v>
       </c>
       <c r="D387" t="n">
         <v>74.21196065721611</v>
@@ -5864,13 +5864,13 @@
         <v>1985</v>
       </c>
       <c r="B388" t="n">
-        <v>199.7417918439817</v>
+        <v>199.7417918439816</v>
       </c>
       <c r="C388" t="n">
         <v>105.5413296508187</v>
       </c>
       <c r="D388" t="n">
-        <v>74.18789279373219</v>
+        <v>74.18789279373217</v>
       </c>
     </row>
     <row r="389">
@@ -5895,10 +5895,10 @@
         <v>199.0615787842065</v>
       </c>
       <c r="C390" t="n">
-        <v>105.4495955809825</v>
+        <v>105.4495955809824</v>
       </c>
       <c r="D390" t="n">
-        <v>74.13975706676435</v>
+        <v>74.13975706676433</v>
       </c>
     </row>
     <row r="391">
@@ -5926,7 +5926,7 @@
         <v>105.3578615111462</v>
       </c>
       <c r="D392" t="n">
-        <v>74.0916213397965</v>
+        <v>74.09162133979649</v>
       </c>
     </row>
     <row r="393">
@@ -5940,7 +5940,7 @@
         <v>105.3119944762281</v>
       </c>
       <c r="D393" t="n">
-        <v>74.06755347631258</v>
+        <v>74.06755347631257</v>
       </c>
     </row>
     <row r="394">
@@ -5954,7 +5954,7 @@
         <v>105.2661274413099</v>
       </c>
       <c r="D394" t="n">
-        <v>74.04348561282866</v>
+        <v>74.04348561282865</v>
       </c>
     </row>
     <row r="395">
@@ -5962,13 +5962,13 @@
         <v>1992</v>
       </c>
       <c r="B395" t="n">
-        <v>197.3610461347687</v>
+        <v>197.3610461347688</v>
       </c>
       <c r="C395" t="n">
         <v>105.2202604063918</v>
       </c>
       <c r="D395" t="n">
-        <v>74.01941774934474</v>
+        <v>74.01941774934473</v>
       </c>
     </row>
     <row r="396">
@@ -5993,10 +5993,10 @@
         <v>196.6808330749936</v>
       </c>
       <c r="C397" t="n">
-        <v>105.1285263365556</v>
+        <v>105.1285263365555</v>
       </c>
       <c r="D397" t="n">
-        <v>73.9712820223769</v>
+        <v>73.97128202237688</v>
       </c>
     </row>
     <row r="398">
@@ -6018,13 +6018,13 @@
         <v>1996</v>
       </c>
       <c r="B399" t="n">
-        <v>196.0006200152185</v>
+        <v>196.0006200152186</v>
       </c>
       <c r="C399" t="n">
         <v>105.0367922667193</v>
       </c>
       <c r="D399" t="n">
-        <v>73.92314629540905</v>
+        <v>73.92314629540904</v>
       </c>
     </row>
     <row r="400">
@@ -6032,10 +6032,10 @@
         <v>1997</v>
       </c>
       <c r="B400" t="n">
-        <v>195.660513485331</v>
+        <v>195.6605134853311</v>
       </c>
       <c r="C400" t="n">
-        <v>104.9909252318012</v>
+        <v>104.9909252318011</v>
       </c>
       <c r="D400" t="n">
         <v>73.89907843192512</v>
@@ -6052,7 +6052,7 @@
         <v>104.945058196883</v>
       </c>
       <c r="D401" t="n">
-        <v>73.87501056844121</v>
+        <v>73.8750105684412</v>
       </c>
     </row>
     <row r="402">
@@ -6060,7 +6060,7 @@
         <v>1999</v>
       </c>
       <c r="B402" t="n">
-        <v>194.9803004255558</v>
+        <v>194.9803004255559</v>
       </c>
       <c r="C402" t="n">
         <v>104.8991911619649</v>
@@ -6074,13 +6074,13 @@
         <v>2000</v>
       </c>
       <c r="B403" t="n">
-        <v>194.6401938956683</v>
+        <v>194.6401938956684</v>
       </c>
       <c r="C403" t="n">
-        <v>104.8533241270468</v>
+        <v>104.8533241270467</v>
       </c>
       <c r="D403" t="n">
-        <v>73.82687484147336</v>
+        <v>73.82687484147334</v>
       </c>
     </row>
     <row r="404">
@@ -6088,7 +6088,7 @@
         <v>2001</v>
       </c>
       <c r="B404" t="n">
-        <v>194.3000873657808</v>
+        <v>194.3000873657809</v>
       </c>
       <c r="C404" t="n">
         <v>104.8074570921286</v>
@@ -6108,7 +6108,7 @@
         <v>104.7615900572105</v>
       </c>
       <c r="D405" t="n">
-        <v>73.77873911450551</v>
+        <v>73.7787391145055</v>
       </c>
     </row>
     <row r="406">
@@ -6116,7 +6116,7 @@
         <v>2003</v>
       </c>
       <c r="B406" t="n">
-        <v>193.6198743060056</v>
+        <v>193.6198743060057</v>
       </c>
       <c r="C406" t="n">
         <v>104.7157230222924</v>
@@ -6130,13 +6130,13 @@
         <v>2004</v>
       </c>
       <c r="B407" t="n">
-        <v>193.2797677761181</v>
+        <v>193.2797677761182</v>
       </c>
       <c r="C407" t="n">
         <v>104.6698559873742</v>
       </c>
       <c r="D407" t="n">
-        <v>73.73060338753767</v>
+        <v>73.73060338753766</v>
       </c>
     </row>
     <row r="408">
@@ -6144,7 +6144,7 @@
         <v>2005</v>
       </c>
       <c r="B408" t="n">
-        <v>192.9396612462306</v>
+        <v>192.9396612462307</v>
       </c>
       <c r="C408" t="n">
         <v>104.6239889524561</v>
@@ -6158,13 +6158,13 @@
         <v>2006</v>
       </c>
       <c r="B409" t="n">
-        <v>192.5995547163429</v>
+        <v>192.5995547163431</v>
       </c>
       <c r="C409" t="n">
         <v>104.578121917538</v>
       </c>
       <c r="D409" t="n">
-        <v>73.68246766056983</v>
+        <v>73.68246766056981</v>
       </c>
     </row>
     <row r="410">
@@ -6172,10 +6172,10 @@
         <v>2007</v>
       </c>
       <c r="B410" t="n">
-        <v>192.2594481864554</v>
+        <v>192.2594481864555</v>
       </c>
       <c r="C410" t="n">
-        <v>104.5322548826199</v>
+        <v>104.5322548826198</v>
       </c>
       <c r="D410" t="n">
         <v>73.65839979708591</v>
@@ -6186,7 +6186,7 @@
         <v>2008</v>
       </c>
       <c r="B411" t="n">
-        <v>191.9193416565679</v>
+        <v>191.919341656568</v>
       </c>
       <c r="C411" t="n">
         <v>104.4863878477017</v>
@@ -6200,13 +6200,13 @@
         <v>2009</v>
       </c>
       <c r="B412" t="n">
-        <v>191.5792351266803</v>
+        <v>191.5792351266805</v>
       </c>
       <c r="C412" t="n">
         <v>104.4405208127836</v>
       </c>
       <c r="D412" t="n">
-        <v>73.61026407011806</v>
+        <v>73.61026407011805</v>
       </c>
     </row>
     <row r="413">
@@ -6214,10 +6214,10 @@
         <v>2010</v>
       </c>
       <c r="B413" t="n">
-        <v>191.2391285967927</v>
+        <v>191.2391285967929</v>
       </c>
       <c r="C413" t="n">
-        <v>104.3946537778655</v>
+        <v>104.3946537778654</v>
       </c>
       <c r="D413" t="n">
         <v>73.58619620663413</v>
@@ -6228,13 +6228,13 @@
         <v>2011</v>
       </c>
       <c r="B414" t="n">
-        <v>190.8990220669052</v>
+        <v>190.8990220669053</v>
       </c>
       <c r="C414" t="n">
         <v>104.3487867429473</v>
       </c>
       <c r="D414" t="n">
-        <v>73.56212834315022</v>
+        <v>73.56212834315021</v>
       </c>
     </row>
     <row r="415">
@@ -6242,7 +6242,7 @@
         <v>2012</v>
       </c>
       <c r="B415" t="n">
-        <v>190.5589155370177</v>
+        <v>190.5589155370178</v>
       </c>
       <c r="C415" t="n">
         <v>104.3029197080292</v>
@@ -6256,7 +6256,7 @@
         <v>2012</v>
       </c>
       <c r="B416" t="n">
-        <v>190.5589155370177</v>
+        <v>190.5589155370178</v>
       </c>
       <c r="C416" t="n">
         <v>104.3029197080292</v>
@@ -6270,13 +6270,13 @@
         <v>2013</v>
       </c>
       <c r="B417" t="n">
-        <v>190.2188090071301</v>
+        <v>190.2188090071303</v>
       </c>
       <c r="C417" t="n">
         <v>104.2570526731111</v>
       </c>
       <c r="D417" t="n">
-        <v>73.51399261618238</v>
+        <v>73.51399261618236</v>
       </c>
     </row>
     <row r="418">
@@ -6284,7 +6284,7 @@
         <v>2014</v>
       </c>
       <c r="B418" t="n">
-        <v>189.8787024772425</v>
+        <v>189.8787024772427</v>
       </c>
       <c r="C418" t="n">
         <v>104.2111856381929</v>
@@ -6298,7 +6298,7 @@
         <v>2015</v>
       </c>
       <c r="B419" t="n">
-        <v>189.538595947355</v>
+        <v>189.5385959473551</v>
       </c>
       <c r="C419" t="n">
         <v>104.1653186032748</v>
@@ -6312,7 +6312,7 @@
         <v>2016</v>
       </c>
       <c r="B420" t="n">
-        <v>189.1984894174674</v>
+        <v>189.1984894174676</v>
       </c>
       <c r="C420" t="n">
         <v>104.1194515683567</v>
@@ -6326,13 +6326,13 @@
         <v>2017</v>
       </c>
       <c r="B421" t="n">
-        <v>188.8583828875799</v>
+        <v>188.8583828875801</v>
       </c>
       <c r="C421" t="n">
         <v>104.0735845334385</v>
       </c>
       <c r="D421" t="n">
-        <v>73.41772116224668</v>
+        <v>73.41772116224666</v>
       </c>
     </row>
     <row r="422">
@@ -6340,7 +6340,7 @@
         <v>2018</v>
       </c>
       <c r="B422" t="n">
-        <v>188.5182763576923</v>
+        <v>188.5182763576925</v>
       </c>
       <c r="C422" t="n">
         <v>104.0277174985204</v>
@@ -6354,13 +6354,13 @@
         <v>2019</v>
       </c>
       <c r="B423" t="n">
-        <v>188.1781698278048</v>
+        <v>188.1781698278049</v>
       </c>
       <c r="C423" t="n">
         <v>103.9818504636023</v>
       </c>
       <c r="D423" t="n">
-        <v>73.36958543527884</v>
+        <v>73.36958543527882</v>
       </c>
     </row>
     <row r="424">
@@ -6368,10 +6368,10 @@
         <v>2020</v>
       </c>
       <c r="B424" t="n">
-        <v>187.8380632979172</v>
+        <v>187.8380632979174</v>
       </c>
       <c r="C424" t="n">
-        <v>103.9359834286842</v>
+        <v>103.9359834286841</v>
       </c>
       <c r="D424" t="n">
         <v>73.34551757179491</v>
@@ -6382,13 +6382,13 @@
         <v>2021</v>
       </c>
       <c r="B425" t="n">
-        <v>187.4979567680297</v>
+        <v>187.4979567680299</v>
       </c>
       <c r="C425" t="n">
         <v>103.890116393766</v>
       </c>
       <c r="D425" t="n">
-        <v>73.32144970831099</v>
+        <v>73.32144970831098</v>
       </c>
     </row>
     <row r="426">
@@ -6396,7 +6396,7 @@
         <v>2022</v>
       </c>
       <c r="B426" t="n">
-        <v>187.1578502381421</v>
+        <v>187.1578502381423</v>
       </c>
       <c r="C426" t="n">
         <v>103.8442493588479</v>
@@ -6410,7 +6410,7 @@
         <v>2023</v>
       </c>
       <c r="B427" t="n">
-        <v>186.8177437082545</v>
+        <v>186.8177437082547</v>
       </c>
       <c r="C427" t="n">
         <v>103.7983823239298</v>
@@ -6424,7 +6424,7 @@
         <v>2024</v>
       </c>
       <c r="B428" t="n">
-        <v>186.477637178367</v>
+        <v>186.4776371783672</v>
       </c>
       <c r="C428" t="n">
         <v>103.7525152890116</v>
@@ -6438,7 +6438,7 @@
         <v>2025</v>
       </c>
       <c r="B429" t="n">
-        <v>186.1375306484795</v>
+        <v>186.1375306484797</v>
       </c>
       <c r="C429" t="n">
         <v>103.7066482540935</v>
@@ -6452,13 +6452,13 @@
         <v>2026</v>
       </c>
       <c r="B430" t="n">
-        <v>185.7974241185918</v>
+        <v>185.7974241185921</v>
       </c>
       <c r="C430" t="n">
         <v>103.6607812191754</v>
       </c>
       <c r="D430" t="n">
-        <v>73.20111039089139</v>
+        <v>73.20111039089137</v>
       </c>
     </row>
     <row r="431">
@@ -6466,7 +6466,7 @@
         <v>2027</v>
       </c>
       <c r="B431" t="n">
-        <v>185.4573175887043</v>
+        <v>185.4573175887045</v>
       </c>
       <c r="C431" t="n">
         <v>103.6149141842572</v>
@@ -6480,13 +6480,13 @@
         <v>2028</v>
       </c>
       <c r="B432" t="n">
-        <v>185.1172110588168</v>
+        <v>185.117211058817</v>
       </c>
       <c r="C432" t="n">
         <v>103.5690471493391</v>
       </c>
       <c r="D432" t="n">
-        <v>73.15297466392354</v>
+        <v>73.15297466392353</v>
       </c>
     </row>
     <row r="433">
@@ -6494,7 +6494,7 @@
         <v>2029</v>
       </c>
       <c r="B433" t="n">
-        <v>184.7771045289293</v>
+        <v>184.7771045289295</v>
       </c>
       <c r="C433" t="n">
         <v>103.523180114421</v>
@@ -6508,7 +6508,7 @@
         <v>2030</v>
       </c>
       <c r="B434" t="n">
-        <v>184.4369979990416</v>
+        <v>184.4369979990419</v>
       </c>
       <c r="C434" t="n">
         <v>103.4773130795028</v>
@@ -6522,7 +6522,7 @@
         <v>2031</v>
       </c>
       <c r="B435" t="n">
-        <v>184.0968914691541</v>
+        <v>184.0968914691543</v>
       </c>
       <c r="C435" t="n">
         <v>103.4314460445847</v>
@@ -6536,7 +6536,7 @@
         <v>2032</v>
       </c>
       <c r="B436" t="n">
-        <v>183.7567849392666</v>
+        <v>183.7567849392668</v>
       </c>
       <c r="C436" t="n">
         <v>103.3855790096666</v>
@@ -6550,7 +6550,7 @@
         <v>2033</v>
       </c>
       <c r="B437" t="n">
-        <v>183.416678409379</v>
+        <v>183.4166784093793</v>
       </c>
       <c r="C437" t="n">
         <v>103.3397119747485</v>
@@ -6564,7 +6564,7 @@
         <v>2034</v>
       </c>
       <c r="B438" t="n">
-        <v>183.0765718794914</v>
+        <v>183.0765718794917</v>
       </c>
       <c r="C438" t="n">
         <v>103.2938449398303</v>
@@ -6578,7 +6578,7 @@
         <v>2035</v>
       </c>
       <c r="B439" t="n">
-        <v>182.7364653496039</v>
+        <v>182.7364653496041</v>
       </c>
       <c r="C439" t="n">
         <v>103.2479779049122</v>
@@ -6592,13 +6592,13 @@
         <v>2036</v>
       </c>
       <c r="B440" t="n">
-        <v>182.3963588197164</v>
+        <v>182.3963588197166</v>
       </c>
       <c r="C440" t="n">
         <v>103.2021108699941</v>
       </c>
       <c r="D440" t="n">
-        <v>72.96043175605216</v>
+        <v>72.96043175605215</v>
       </c>
     </row>
     <row r="441">
@@ -6606,7 +6606,7 @@
         <v>2037</v>
       </c>
       <c r="B441" t="n">
-        <v>182.0562522898288</v>
+        <v>182.0562522898291</v>
       </c>
       <c r="C441" t="n">
         <v>103.1562438350759</v>
@@ -6620,7 +6620,7 @@
         <v>2038</v>
       </c>
       <c r="B442" t="n">
-        <v>181.7161457599412</v>
+        <v>181.7161457599415</v>
       </c>
       <c r="C442" t="n">
         <v>103.1103768001578</v>
@@ -6634,7 +6634,7 @@
         <v>2039</v>
       </c>
       <c r="B443" t="n">
-        <v>181.3760392300537</v>
+        <v>181.3760392300539</v>
       </c>
       <c r="C443" t="n">
         <v>103.0645097652397</v>
@@ -6648,7 +6648,7 @@
         <v>2040</v>
       </c>
       <c r="B444" t="n">
-        <v>181.0359327001661</v>
+        <v>181.0359327001664</v>
       </c>
       <c r="C444" t="n">
         <v>103.0186427303215</v>
@@ -6662,7 +6662,7 @@
         <v>2041</v>
       </c>
       <c r="B445" t="n">
-        <v>180.6958261702786</v>
+        <v>180.6958261702789</v>
       </c>
       <c r="C445" t="n">
         <v>102.9727756954034</v>
@@ -6676,7 +6676,7 @@
         <v>2042</v>
       </c>
       <c r="B446" t="n">
-        <v>180.355719640391</v>
+        <v>180.3557196403913</v>
       </c>
       <c r="C446" t="n">
         <v>102.9269086604853</v>
@@ -6690,10 +6690,10 @@
         <v>2043</v>
       </c>
       <c r="B447" t="n">
-        <v>180.0156131105034</v>
+        <v>180.0156131105038</v>
       </c>
       <c r="C447" t="n">
-        <v>102.8810416255672</v>
+        <v>102.8810416255671</v>
       </c>
       <c r="D447" t="n">
         <v>72.79195671166471</v>
@@ -6704,7 +6704,7 @@
         <v>2044</v>
       </c>
       <c r="B448" t="n">
-        <v>179.6755065806159</v>
+        <v>179.6755065806162</v>
       </c>
       <c r="C448" t="n">
         <v>102.835174590649</v>
@@ -6718,7 +6718,7 @@
         <v>2045</v>
       </c>
       <c r="B449" t="n">
-        <v>179.3354000507284</v>
+        <v>179.3354000507287</v>
       </c>
       <c r="C449" t="n">
         <v>102.7893075557309</v>
@@ -6732,7 +6732,7 @@
         <v>2046</v>
       </c>
       <c r="B450" t="n">
-        <v>178.9952935208408</v>
+        <v>178.9952935208411</v>
       </c>
       <c r="C450" t="n">
         <v>102.7434405208128</v>
@@ -6746,7 +6746,7 @@
         <v>2047</v>
       </c>
       <c r="B451" t="n">
-        <v>178.6551869909532</v>
+        <v>178.6551869909536</v>
       </c>
       <c r="C451" t="n">
         <v>102.6975734858946</v>
@@ -6760,7 +6760,7 @@
         <v>2048</v>
       </c>
       <c r="B452" t="n">
-        <v>178.3150804610657</v>
+        <v>178.315080461066</v>
       </c>
       <c r="C452" t="n">
         <v>102.6517064509765</v>
@@ -6774,7 +6774,7 @@
         <v>2049</v>
       </c>
       <c r="B453" t="n">
-        <v>177.9749739311782</v>
+        <v>177.9749739311785</v>
       </c>
       <c r="C453" t="n">
         <v>102.6058394160584</v>
@@ -6788,7 +6788,7 @@
         <v>2050</v>
       </c>
       <c r="B454" t="n">
-        <v>177.6348674012905</v>
+        <v>177.634867401291</v>
       </c>
       <c r="C454" t="n">
         <v>102.5599723811402</v>

--- a/Data/regression_data/UFApD/regression_UFApD.xlsx
+++ b/Data/regression_data/UFApD/regression_UFApD.xlsx
@@ -460,13 +460,13 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>330.6828058506879</v>
+        <v>330.6828058506901</v>
       </c>
       <c r="C2" t="n">
-        <v>123.2001380942989</v>
+        <v>123.200138094299</v>
       </c>
       <c r="D2" t="n">
-        <v>83.45402023504219</v>
+        <v>83.45402023504226</v>
       </c>
     </row>
     <row r="3">
@@ -474,13 +474,13 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>330.3426993208004</v>
+        <v>330.3426993208026</v>
       </c>
       <c r="C3" t="n">
-        <v>123.1542710593808</v>
+        <v>123.1542710593809</v>
       </c>
       <c r="D3" t="n">
-        <v>83.42995237155827</v>
+        <v>83.42995237155834</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +488,13 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>330.0025927909128</v>
+        <v>330.0025927909149</v>
       </c>
       <c r="C4" t="n">
         <v>123.1084040244627</v>
       </c>
       <c r="D4" t="n">
-        <v>83.40588450807435</v>
+        <v>83.40588450807442</v>
       </c>
     </row>
     <row r="5">
@@ -502,13 +502,13 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>329.6624862610253</v>
+        <v>329.6624862610274</v>
       </c>
       <c r="C5" t="n">
-        <v>123.0625369895445</v>
+        <v>123.0625369895446</v>
       </c>
       <c r="D5" t="n">
-        <v>83.38181664459043</v>
+        <v>83.3818166445905</v>
       </c>
     </row>
     <row r="6">
@@ -516,13 +516,13 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>329.3223797311377</v>
+        <v>329.3223797311399</v>
       </c>
       <c r="C6" t="n">
-        <v>123.0166699546264</v>
+        <v>123.0166699546265</v>
       </c>
       <c r="D6" t="n">
-        <v>83.35774878110649</v>
+        <v>83.35774878110658</v>
       </c>
     </row>
     <row r="7">
@@ -530,13 +530,13 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>328.9822732012502</v>
+        <v>328.9822732012523</v>
       </c>
       <c r="C7" t="n">
         <v>122.9708029197083</v>
       </c>
       <c r="D7" t="n">
-        <v>83.33368091762259</v>
+        <v>83.33368091762266</v>
       </c>
     </row>
     <row r="8">
@@ -544,13 +544,13 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>328.6421666713626</v>
+        <v>328.6421666713647</v>
       </c>
       <c r="C8" t="n">
-        <v>122.9249358847901</v>
+        <v>122.9249358847902</v>
       </c>
       <c r="D8" t="n">
-        <v>83.30961305413865</v>
+        <v>83.30961305413874</v>
       </c>
     </row>
     <row r="9">
@@ -558,13 +558,13 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>328.3020601414751</v>
+        <v>328.3020601414772</v>
       </c>
       <c r="C9" t="n">
-        <v>122.879068849872</v>
+        <v>122.8790688498721</v>
       </c>
       <c r="D9" t="n">
-        <v>83.28554519065474</v>
+        <v>83.2855451906548</v>
       </c>
     </row>
     <row r="10">
@@ -572,13 +572,13 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>327.9619536115875</v>
+        <v>327.9619536115897</v>
       </c>
       <c r="C10" t="n">
-        <v>122.8332018149539</v>
+        <v>122.833201814954</v>
       </c>
       <c r="D10" t="n">
-        <v>83.26147732717081</v>
+        <v>83.26147732717089</v>
       </c>
     </row>
     <row r="11">
@@ -586,13 +586,13 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>327.6218470817</v>
+        <v>327.6218470817021</v>
       </c>
       <c r="C11" t="n">
         <v>122.7873347800358</v>
       </c>
       <c r="D11" t="n">
-        <v>83.2374094636869</v>
+        <v>83.23740946368696</v>
       </c>
     </row>
     <row r="12">
@@ -600,13 +600,13 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>327.2817405518124</v>
+        <v>327.2817405518146</v>
       </c>
       <c r="C12" t="n">
-        <v>122.7414677451176</v>
+        <v>122.7414677451177</v>
       </c>
       <c r="D12" t="n">
-        <v>83.21334160020297</v>
+        <v>83.21334160020305</v>
       </c>
     </row>
     <row r="13">
@@ -614,13 +614,13 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>326.9416340219249</v>
+        <v>326.941634021927</v>
       </c>
       <c r="C13" t="n">
-        <v>122.6956007101995</v>
+        <v>122.6956007101996</v>
       </c>
       <c r="D13" t="n">
-        <v>83.18927373671906</v>
+        <v>83.18927373671912</v>
       </c>
     </row>
     <row r="14">
@@ -628,13 +628,13 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>326.6015274920373</v>
+        <v>326.6015274920394</v>
       </c>
       <c r="C14" t="n">
         <v>122.6497336752814</v>
       </c>
       <c r="D14" t="n">
-        <v>83.16520587323512</v>
+        <v>83.16520587323521</v>
       </c>
     </row>
     <row r="15">
@@ -642,13 +642,13 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>326.2614209621498</v>
+        <v>326.2614209621519</v>
       </c>
       <c r="C15" t="n">
-        <v>122.6038666403632</v>
+        <v>122.6038666403633</v>
       </c>
       <c r="D15" t="n">
-        <v>83.1411380097512</v>
+        <v>83.14113800975127</v>
       </c>
     </row>
     <row r="16">
@@ -656,13 +656,13 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>325.9213144322622</v>
+        <v>325.9213144322644</v>
       </c>
       <c r="C16" t="n">
-        <v>122.5579996054451</v>
+        <v>122.5579996054452</v>
       </c>
       <c r="D16" t="n">
-        <v>83.11707014626728</v>
+        <v>83.11707014626735</v>
       </c>
     </row>
     <row r="17">
@@ -670,13 +670,13 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>325.5812079023747</v>
+        <v>325.5812079023767</v>
       </c>
       <c r="C17" t="n">
         <v>122.512132570527</v>
       </c>
       <c r="D17" t="n">
-        <v>83.09300228278336</v>
+        <v>83.09300228278343</v>
       </c>
     </row>
     <row r="18">
@@ -684,13 +684,13 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>325.2411013724872</v>
+        <v>325.2411013724892</v>
       </c>
       <c r="C18" t="n">
-        <v>122.4662655356088</v>
+        <v>122.4662655356089</v>
       </c>
       <c r="D18" t="n">
-        <v>83.06893441929944</v>
+        <v>83.06893441929951</v>
       </c>
     </row>
     <row r="19">
@@ -698,13 +698,13 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>324.9009948425996</v>
+        <v>324.9009948426017</v>
       </c>
       <c r="C19" t="n">
-        <v>122.4203985006907</v>
+        <v>122.4203985006908</v>
       </c>
       <c r="D19" t="n">
-        <v>83.04486655581552</v>
+        <v>83.04486655581559</v>
       </c>
     </row>
     <row r="20">
@@ -712,13 +712,13 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>324.560888312712</v>
+        <v>324.5608883127142</v>
       </c>
       <c r="C20" t="n">
         <v>122.3745314657726</v>
       </c>
       <c r="D20" t="n">
-        <v>83.0207986923316</v>
+        <v>83.02079869233167</v>
       </c>
     </row>
     <row r="21">
@@ -726,13 +726,13 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>324.2207817828245</v>
+        <v>324.2207817828265</v>
       </c>
       <c r="C21" t="n">
         <v>122.3286644308545</v>
       </c>
       <c r="D21" t="n">
-        <v>82.99673082884767</v>
+        <v>82.99673082884775</v>
       </c>
     </row>
     <row r="22">
@@ -740,13 +740,13 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>323.880675252937</v>
+        <v>323.880675252939</v>
       </c>
       <c r="C22" t="n">
-        <v>122.2827973959363</v>
+        <v>122.2827973959364</v>
       </c>
       <c r="D22" t="n">
-        <v>82.97266296536375</v>
+        <v>82.97266296536382</v>
       </c>
     </row>
     <row r="23">
@@ -754,13 +754,13 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>323.5405687230494</v>
+        <v>323.5405687230515</v>
       </c>
       <c r="C23" t="n">
-        <v>122.2369303610182</v>
+        <v>122.2369303610183</v>
       </c>
       <c r="D23" t="n">
-        <v>82.94859510187983</v>
+        <v>82.9485951018799</v>
       </c>
     </row>
     <row r="24">
@@ -768,13 +768,13 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>323.2004621931618</v>
+        <v>323.2004621931638</v>
       </c>
       <c r="C24" t="n">
         <v>122.1910633261001</v>
       </c>
       <c r="D24" t="n">
-        <v>82.92452723839591</v>
+        <v>82.92452723839597</v>
       </c>
     </row>
     <row r="25">
@@ -782,13 +782,13 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>322.8603556632743</v>
+        <v>322.8603556632763</v>
       </c>
       <c r="C25" t="n">
-        <v>122.1451962911819</v>
+        <v>122.145196291182</v>
       </c>
       <c r="D25" t="n">
-        <v>82.90045937491197</v>
+        <v>82.90045937491206</v>
       </c>
     </row>
     <row r="26">
@@ -796,13 +796,13 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>322.5202491333868</v>
+        <v>322.5202491333888</v>
       </c>
       <c r="C26" t="n">
-        <v>122.0993292562638</v>
+        <v>122.0993292562639</v>
       </c>
       <c r="D26" t="n">
-        <v>82.87639151142807</v>
+        <v>82.87639151142812</v>
       </c>
     </row>
     <row r="27">
@@ -810,13 +810,13 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>322.1801426034992</v>
+        <v>322.1801426035013</v>
       </c>
       <c r="C27" t="n">
         <v>122.0534622213457</v>
       </c>
       <c r="D27" t="n">
-        <v>82.85232364794413</v>
+        <v>82.85232364794422</v>
       </c>
     </row>
     <row r="28">
@@ -824,13 +824,13 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>321.8400360736116</v>
+        <v>321.8400360736136</v>
       </c>
       <c r="C28" t="n">
-        <v>122.0075951864275</v>
+        <v>122.0075951864276</v>
       </c>
       <c r="D28" t="n">
-        <v>82.82825578446023</v>
+        <v>82.82825578446028</v>
       </c>
     </row>
     <row r="29">
@@ -838,13 +838,13 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>321.4999295437241</v>
+        <v>321.4999295437261</v>
       </c>
       <c r="C29" t="n">
-        <v>121.9617281515094</v>
+        <v>121.9617281515095</v>
       </c>
       <c r="D29" t="n">
-        <v>82.80418792097629</v>
+        <v>82.80418792097637</v>
       </c>
     </row>
     <row r="30">
@@ -852,13 +852,13 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>321.1598230138366</v>
+        <v>321.1598230138386</v>
       </c>
       <c r="C30" t="n">
         <v>121.9158611165913</v>
       </c>
       <c r="D30" t="n">
-        <v>82.78012005749238</v>
+        <v>82.78012005749244</v>
       </c>
     </row>
     <row r="31">
@@ -866,13 +866,13 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>320.819716483949</v>
+        <v>320.819716483951</v>
       </c>
       <c r="C31" t="n">
-        <v>121.8699940816731</v>
+        <v>121.8699940816732</v>
       </c>
       <c r="D31" t="n">
-        <v>82.75605219400845</v>
+        <v>82.75605219400852</v>
       </c>
     </row>
     <row r="32">
@@ -880,13 +880,13 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>320.4796099540614</v>
+        <v>320.4796099540634</v>
       </c>
       <c r="C32" t="n">
-        <v>121.824127046755</v>
+        <v>121.8241270467551</v>
       </c>
       <c r="D32" t="n">
-        <v>82.73198433052454</v>
+        <v>82.7319843305246</v>
       </c>
     </row>
     <row r="33">
@@ -894,13 +894,13 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>320.1395034241739</v>
+        <v>320.1395034241759</v>
       </c>
       <c r="C33" t="n">
         <v>121.7782600118369</v>
       </c>
       <c r="D33" t="n">
-        <v>82.7079164670406</v>
+        <v>82.70791646704068</v>
       </c>
     </row>
     <row r="34">
@@ -908,13 +908,13 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>319.7993968942864</v>
+        <v>319.7993968942883</v>
       </c>
       <c r="C34" t="n">
         <v>121.7323929769188</v>
       </c>
       <c r="D34" t="n">
-        <v>82.68384860355668</v>
+        <v>82.68384860355675</v>
       </c>
     </row>
     <row r="35">
@@ -922,13 +922,13 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>319.4592903643988</v>
+        <v>319.4592903644008</v>
       </c>
       <c r="C35" t="n">
-        <v>121.6865259420006</v>
+        <v>121.6865259420007</v>
       </c>
       <c r="D35" t="n">
-        <v>82.65978074007276</v>
+        <v>82.65978074007283</v>
       </c>
     </row>
     <row r="36">
@@ -936,13 +936,13 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>319.1191838345112</v>
+        <v>319.1191838345133</v>
       </c>
       <c r="C36" t="n">
-        <v>121.6406589070825</v>
+        <v>121.6406589070826</v>
       </c>
       <c r="D36" t="n">
-        <v>82.63571287658884</v>
+        <v>82.63571287658891</v>
       </c>
     </row>
     <row r="37">
@@ -950,13 +950,13 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>318.7790773046237</v>
+        <v>318.7790773046257</v>
       </c>
       <c r="C37" t="n">
         <v>121.5947918721644</v>
       </c>
       <c r="D37" t="n">
-        <v>82.61164501310492</v>
+        <v>82.61164501310499</v>
       </c>
     </row>
     <row r="38">
@@ -964,13 +964,13 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>318.4389707747362</v>
+        <v>318.4389707747381</v>
       </c>
       <c r="C38" t="n">
-        <v>121.5489248372462</v>
+        <v>121.5489248372463</v>
       </c>
       <c r="D38" t="n">
-        <v>82.587577149621</v>
+        <v>82.58757714962107</v>
       </c>
     </row>
     <row r="39">
@@ -978,13 +978,13 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>318.0988642448486</v>
+        <v>318.0988642448506</v>
       </c>
       <c r="C39" t="n">
-        <v>121.5030578023281</v>
+        <v>121.5030578023282</v>
       </c>
       <c r="D39" t="n">
-        <v>82.56350928613708</v>
+        <v>82.56350928613713</v>
       </c>
     </row>
     <row r="40">
@@ -992,13 +992,13 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>317.758757714961</v>
+        <v>317.7587577149631</v>
       </c>
       <c r="C40" t="n">
         <v>121.45719076741</v>
       </c>
       <c r="D40" t="n">
-        <v>82.53944142265316</v>
+        <v>82.53944142265323</v>
       </c>
     </row>
     <row r="41">
@@ -1006,13 +1006,13 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>317.4186511850735</v>
+        <v>317.4186511850754</v>
       </c>
       <c r="C41" t="n">
-        <v>121.4113237324918</v>
+        <v>121.4113237324919</v>
       </c>
       <c r="D41" t="n">
-        <v>82.51537355916923</v>
+        <v>82.51537355916929</v>
       </c>
     </row>
     <row r="42">
@@ -1020,13 +1020,13 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>317.078544655186</v>
+        <v>317.0785446551879</v>
       </c>
       <c r="C42" t="n">
-        <v>121.3654566975737</v>
+        <v>121.3654566975738</v>
       </c>
       <c r="D42" t="n">
-        <v>82.4913056956853</v>
+        <v>82.49130569568538</v>
       </c>
     </row>
     <row r="43">
@@ -1034,13 +1034,13 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>316.7384381252984</v>
+        <v>316.7384381253004</v>
       </c>
       <c r="C43" t="n">
         <v>121.3195896626556</v>
       </c>
       <c r="D43" t="n">
-        <v>82.46723783220139</v>
+        <v>82.46723783220145</v>
       </c>
     </row>
     <row r="44">
@@ -1048,13 +1048,13 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>316.3983315954109</v>
+        <v>316.3983315954129</v>
       </c>
       <c r="C44" t="n">
         <v>121.2737226277375</v>
       </c>
       <c r="D44" t="n">
-        <v>82.44316996871746</v>
+        <v>82.44316996871754</v>
       </c>
     </row>
     <row r="45">
@@ -1062,13 +1062,13 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>316.0582250655233</v>
+        <v>316.0582250655252</v>
       </c>
       <c r="C45" t="n">
-        <v>121.2278555928193</v>
+        <v>121.2278555928194</v>
       </c>
       <c r="D45" t="n">
-        <v>82.41910210523355</v>
+        <v>82.41910210523361</v>
       </c>
     </row>
     <row r="46">
@@ -1076,13 +1076,13 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>315.7181185356358</v>
+        <v>315.7181185356377</v>
       </c>
       <c r="C46" t="n">
         <v>121.1819885579012</v>
       </c>
       <c r="D46" t="n">
-        <v>82.39503424174961</v>
+        <v>82.39503424174968</v>
       </c>
     </row>
     <row r="47">
@@ -1090,13 +1090,13 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>315.3780120057482</v>
+        <v>315.3780120057502</v>
       </c>
       <c r="C47" t="n">
         <v>121.1361215229831</v>
       </c>
       <c r="D47" t="n">
-        <v>82.37096637826571</v>
+        <v>82.37096637826576</v>
       </c>
     </row>
     <row r="48">
@@ -1104,13 +1104,13 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>315.0379054758607</v>
+        <v>315.0379054758625</v>
       </c>
       <c r="C48" t="n">
-        <v>121.0902544880649</v>
+        <v>121.090254488065</v>
       </c>
       <c r="D48" t="n">
-        <v>82.34689851478177</v>
+        <v>82.34689851478184</v>
       </c>
     </row>
     <row r="49">
@@ -1118,13 +1118,13 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>314.6977989459731</v>
+        <v>314.697798945975</v>
       </c>
       <c r="C49" t="n">
-        <v>121.0443874531468</v>
+        <v>121.0443874531469</v>
       </c>
       <c r="D49" t="n">
-        <v>82.32283065129786</v>
+        <v>82.32283065129792</v>
       </c>
     </row>
     <row r="50">
@@ -1132,13 +1132,13 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>314.3576924160856</v>
+        <v>314.3576924160875</v>
       </c>
       <c r="C50" t="n">
         <v>120.9985204182287</v>
       </c>
       <c r="D50" t="n">
-        <v>82.29876278781393</v>
+        <v>82.298762787814</v>
       </c>
     </row>
     <row r="51">
@@ -1146,13 +1146,13 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>314.017585886198</v>
+        <v>314.0175858861999</v>
       </c>
       <c r="C51" t="n">
-        <v>120.9526533833105</v>
+        <v>120.9526533833106</v>
       </c>
       <c r="D51" t="n">
-        <v>82.27469492433001</v>
+        <v>82.27469492433008</v>
       </c>
     </row>
     <row r="52">
@@ -1160,13 +1160,13 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>313.6774793563105</v>
+        <v>313.6774793563123</v>
       </c>
       <c r="C52" t="n">
-        <v>120.9067863483924</v>
+        <v>120.9067863483925</v>
       </c>
       <c r="D52" t="n">
-        <v>82.25062706084609</v>
+        <v>82.25062706084616</v>
       </c>
     </row>
     <row r="53">
@@ -1174,13 +1174,13 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>313.3373728264229</v>
+        <v>313.3373728264248</v>
       </c>
       <c r="C53" t="n">
         <v>120.8609193134743</v>
       </c>
       <c r="D53" t="n">
-        <v>82.22655919736216</v>
+        <v>82.22655919736223</v>
       </c>
     </row>
     <row r="54">
@@ -1188,13 +1188,13 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>312.9972662965354</v>
+        <v>312.9972662965373</v>
       </c>
       <c r="C54" t="n">
         <v>120.8150522785562</v>
       </c>
       <c r="D54" t="n">
-        <v>82.20249133387824</v>
+        <v>82.2024913338783</v>
       </c>
     </row>
     <row r="55">
@@ -1202,13 +1202,13 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>312.6571597666479</v>
+        <v>312.6571597666497</v>
       </c>
       <c r="C55" t="n">
-        <v>120.769185243638</v>
+        <v>120.7691852436381</v>
       </c>
       <c r="D55" t="n">
-        <v>82.17842347039432</v>
+        <v>82.17842347039439</v>
       </c>
     </row>
     <row r="56">
@@ -1216,13 +1216,13 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>312.3170532367603</v>
+        <v>312.3170532367621</v>
       </c>
       <c r="C56" t="n">
         <v>120.7233182087199</v>
       </c>
       <c r="D56" t="n">
-        <v>82.1543556069104</v>
+        <v>82.15435560691046</v>
       </c>
     </row>
     <row r="57">
@@ -1230,13 +1230,13 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>311.9769467068727</v>
+        <v>311.9769467068746</v>
       </c>
       <c r="C57" t="n">
         <v>120.6774511738018</v>
       </c>
       <c r="D57" t="n">
-        <v>82.13028774342648</v>
+        <v>82.13028774342655</v>
       </c>
     </row>
     <row r="58">
@@ -1244,13 +1244,13 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>311.6368401769852</v>
+        <v>311.636840176987</v>
       </c>
       <c r="C58" t="n">
-        <v>120.6315841388836</v>
+        <v>120.6315841388837</v>
       </c>
       <c r="D58" t="n">
-        <v>82.10621987994256</v>
+        <v>82.10621987994261</v>
       </c>
     </row>
     <row r="59">
@@ -1258,13 +1258,13 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>311.2967336470977</v>
+        <v>311.2967336470995</v>
       </c>
       <c r="C59" t="n">
         <v>120.5857171039655</v>
       </c>
       <c r="D59" t="n">
-        <v>82.08215201645864</v>
+        <v>82.08215201645871</v>
       </c>
     </row>
     <row r="60">
@@ -1272,13 +1272,13 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>310.9566271172101</v>
+        <v>310.956627117212</v>
       </c>
       <c r="C60" t="n">
         <v>120.5398500690474</v>
       </c>
       <c r="D60" t="n">
-        <v>82.05808415297471</v>
+        <v>82.05808415297477</v>
       </c>
     </row>
     <row r="61">
@@ -1286,13 +1286,13 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>310.6165205873225</v>
+        <v>310.6165205873244</v>
       </c>
       <c r="C61" t="n">
-        <v>120.4939830341292</v>
+        <v>120.4939830341293</v>
       </c>
       <c r="D61" t="n">
-        <v>82.03401628949078</v>
+        <v>82.03401628949085</v>
       </c>
     </row>
     <row r="62">
@@ -1300,13 +1300,13 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>310.276414057435</v>
+        <v>310.2764140574368</v>
       </c>
       <c r="C62" t="n">
-        <v>120.4481159992111</v>
+        <v>120.4481159992112</v>
       </c>
       <c r="D62" t="n">
-        <v>82.00994842600687</v>
+        <v>82.00994842600693</v>
       </c>
     </row>
     <row r="63">
@@ -1314,13 +1314,13 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>309.9363075275475</v>
+        <v>309.9363075275493</v>
       </c>
       <c r="C63" t="n">
         <v>120.402248964293</v>
       </c>
       <c r="D63" t="n">
-        <v>81.98588056252294</v>
+        <v>81.98588056252301</v>
       </c>
     </row>
     <row r="64">
@@ -1328,13 +1328,13 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>309.5962009976599</v>
+        <v>309.5962009976618</v>
       </c>
       <c r="C64" t="n">
-        <v>120.3563819293748</v>
+        <v>120.3563819293749</v>
       </c>
       <c r="D64" t="n">
-        <v>81.96181269903903</v>
+        <v>81.96181269903909</v>
       </c>
     </row>
     <row r="65">
@@ -1342,13 +1342,13 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>309.2560944677723</v>
+        <v>309.2560944677741</v>
       </c>
       <c r="C65" t="n">
-        <v>120.3105148944567</v>
+        <v>120.3105148944568</v>
       </c>
       <c r="D65" t="n">
-        <v>81.93774483555509</v>
+        <v>81.93774483555516</v>
       </c>
     </row>
     <row r="66">
@@ -1356,13 +1356,13 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>308.9159879378848</v>
+        <v>308.9159879378866</v>
       </c>
       <c r="C66" t="n">
         <v>120.2646478595386</v>
       </c>
       <c r="D66" t="n">
-        <v>81.91367697207119</v>
+        <v>81.91367697207124</v>
       </c>
     </row>
     <row r="67">
@@ -1370,13 +1370,13 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>308.5758814079973</v>
+        <v>308.5758814079991</v>
       </c>
       <c r="C67" t="n">
         <v>120.2187808246205</v>
       </c>
       <c r="D67" t="n">
-        <v>81.88960910858725</v>
+        <v>81.88960910858732</v>
       </c>
     </row>
     <row r="68">
@@ -1384,13 +1384,13 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>308.2357748781097</v>
+        <v>308.2357748781114</v>
       </c>
       <c r="C68" t="n">
-        <v>120.1729137897023</v>
+        <v>120.1729137897024</v>
       </c>
       <c r="D68" t="n">
-        <v>81.86554124510334</v>
+        <v>81.8655412451034</v>
       </c>
     </row>
     <row r="69">
@@ -1398,13 +1398,13 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>307.8956683482221</v>
+        <v>307.8956683482239</v>
       </c>
       <c r="C69" t="n">
         <v>120.1270467547842</v>
       </c>
       <c r="D69" t="n">
-        <v>81.84147338161941</v>
+        <v>81.84147338161947</v>
       </c>
     </row>
     <row r="70">
@@ -1412,13 +1412,13 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>307.5555618183346</v>
+        <v>307.5555618183364</v>
       </c>
       <c r="C70" t="n">
         <v>120.0811797198661</v>
       </c>
       <c r="D70" t="n">
-        <v>81.81740551813549</v>
+        <v>81.81740551813556</v>
       </c>
     </row>
     <row r="71">
@@ -1426,13 +1426,13 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>307.2154552884471</v>
+        <v>307.2154552884489</v>
       </c>
       <c r="C71" t="n">
-        <v>120.0353126849479</v>
+        <v>120.035312684948</v>
       </c>
       <c r="D71" t="n">
-        <v>81.79333765465157</v>
+        <v>81.79333765465162</v>
       </c>
     </row>
     <row r="72">
@@ -1440,13 +1440,13 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>306.8753487585595</v>
+        <v>306.8753487585612</v>
       </c>
       <c r="C72" t="n">
-        <v>119.9894456500298</v>
+        <v>119.9894456500299</v>
       </c>
       <c r="D72" t="n">
-        <v>81.76926979116764</v>
+        <v>81.76926979116772</v>
       </c>
     </row>
     <row r="73">
@@ -1454,13 +1454,13 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>306.5352422286719</v>
+        <v>306.5352422286737</v>
       </c>
       <c r="C73" t="n">
         <v>119.9435786151117</v>
       </c>
       <c r="D73" t="n">
-        <v>81.74520192768372</v>
+        <v>81.74520192768378</v>
       </c>
     </row>
     <row r="74">
@@ -1468,13 +1468,13 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>306.1951356987844</v>
+        <v>306.1951356987862</v>
       </c>
       <c r="C74" t="n">
-        <v>119.8977115801935</v>
+        <v>119.8977115801936</v>
       </c>
       <c r="D74" t="n">
-        <v>81.7211340641998</v>
+        <v>81.72113406419987</v>
       </c>
     </row>
     <row r="75">
@@ -1482,13 +1482,13 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>305.8550291688969</v>
+        <v>305.8550291688986</v>
       </c>
       <c r="C75" t="n">
-        <v>119.8518445452754</v>
+        <v>119.8518445452755</v>
       </c>
       <c r="D75" t="n">
-        <v>81.69706620071588</v>
+        <v>81.69706620071594</v>
       </c>
     </row>
     <row r="76">
@@ -1496,13 +1496,13 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>305.5149226390093</v>
+        <v>305.514922639011</v>
       </c>
       <c r="C76" t="n">
         <v>119.8059775103573</v>
       </c>
       <c r="D76" t="n">
-        <v>81.67299833723196</v>
+        <v>81.67299833723202</v>
       </c>
     </row>
     <row r="77">
@@ -1510,13 +1510,13 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>305.1748161091217</v>
+        <v>305.1748161091235</v>
       </c>
       <c r="C77" t="n">
-        <v>119.7601104754391</v>
+        <v>119.7601104754392</v>
       </c>
       <c r="D77" t="n">
-        <v>81.64893047374804</v>
+        <v>81.64893047374809</v>
       </c>
     </row>
     <row r="78">
@@ -1524,13 +1524,13 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>304.8347095792342</v>
+        <v>304.834709579236</v>
       </c>
       <c r="C78" t="n">
-        <v>119.714243440521</v>
+        <v>119.7142434405211</v>
       </c>
       <c r="D78" t="n">
-        <v>81.6248626102641</v>
+        <v>81.62486261026417</v>
       </c>
     </row>
     <row r="79">
@@ -1538,13 +1538,13 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>304.4946030493467</v>
+        <v>304.4946030493484</v>
       </c>
       <c r="C79" t="n">
         <v>119.6683764056029</v>
       </c>
       <c r="D79" t="n">
-        <v>81.6007947467802</v>
+        <v>81.60079474678025</v>
       </c>
     </row>
     <row r="80">
@@ -1552,13 +1552,13 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>304.1544965194591</v>
+        <v>304.1544965194608</v>
       </c>
       <c r="C80" t="n">
         <v>119.6225093706848</v>
       </c>
       <c r="D80" t="n">
-        <v>81.57672688329626</v>
+        <v>81.57672688329633</v>
       </c>
     </row>
     <row r="81">
@@ -1566,13 +1566,13 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>303.8143899895715</v>
+        <v>303.8143899895733</v>
       </c>
       <c r="C81" t="n">
-        <v>119.5766423357666</v>
+        <v>119.5766423357667</v>
       </c>
       <c r="D81" t="n">
-        <v>81.55265901981235</v>
+        <v>81.55265901981241</v>
       </c>
     </row>
     <row r="82">
@@ -1580,13 +1580,13 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>303.474283459684</v>
+        <v>303.4742834596857</v>
       </c>
       <c r="C82" t="n">
         <v>119.5307753008485</v>
       </c>
       <c r="D82" t="n">
-        <v>81.52859115632842</v>
+        <v>81.52859115632849</v>
       </c>
     </row>
     <row r="83">
@@ -1594,13 +1594,13 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>303.1341769297965</v>
+        <v>303.1341769297982</v>
       </c>
       <c r="C83" t="n">
         <v>119.4849082659304</v>
       </c>
       <c r="D83" t="n">
-        <v>81.50452329284451</v>
+        <v>81.50452329284457</v>
       </c>
     </row>
     <row r="84">
@@ -1608,13 +1608,13 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>302.7940703999089</v>
+        <v>302.7940703999107</v>
       </c>
       <c r="C84" t="n">
-        <v>119.4390412310122</v>
+        <v>119.4390412310123</v>
       </c>
       <c r="D84" t="n">
-        <v>81.48045542936057</v>
+        <v>81.48045542936063</v>
       </c>
     </row>
     <row r="85">
@@ -1622,13 +1622,13 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>302.4539638700213</v>
+        <v>302.453963870023</v>
       </c>
       <c r="C85" t="n">
-        <v>119.3931741960941</v>
+        <v>119.3931741960942</v>
       </c>
       <c r="D85" t="n">
-        <v>81.45638756587667</v>
+        <v>81.45638756587672</v>
       </c>
     </row>
     <row r="86">
@@ -1636,13 +1636,13 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>302.1138573401338</v>
+        <v>302.1138573401355</v>
       </c>
       <c r="C86" t="n">
         <v>119.347307161176</v>
       </c>
       <c r="D86" t="n">
-        <v>81.43231970239273</v>
+        <v>81.43231970239279</v>
       </c>
     </row>
     <row r="87">
@@ -1650,13 +1650,13 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>301.7737508102463</v>
+        <v>301.773750810248</v>
       </c>
       <c r="C87" t="n">
-        <v>119.3014401262578</v>
+        <v>119.3014401262579</v>
       </c>
       <c r="D87" t="n">
-        <v>81.40825183890881</v>
+        <v>81.40825183890888</v>
       </c>
     </row>
     <row r="88">
@@ -1664,13 +1664,13 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>301.4336442803587</v>
+        <v>301.4336442803605</v>
       </c>
       <c r="C88" t="n">
-        <v>119.2555730913397</v>
+        <v>119.2555730913398</v>
       </c>
       <c r="D88" t="n">
-        <v>81.38418397542489</v>
+        <v>81.38418397542495</v>
       </c>
     </row>
     <row r="89">
@@ -1678,13 +1678,13 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>301.0935377504711</v>
+        <v>301.0935377504728</v>
       </c>
       <c r="C89" t="n">
         <v>119.2097060564216</v>
       </c>
       <c r="D89" t="n">
-        <v>81.36011611194097</v>
+        <v>81.36011611194104</v>
       </c>
     </row>
     <row r="90">
@@ -1692,13 +1692,13 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>300.7534312205836</v>
+        <v>300.7534312205853</v>
       </c>
       <c r="C90" t="n">
-        <v>119.1638390215034</v>
+        <v>119.1638390215035</v>
       </c>
       <c r="D90" t="n">
-        <v>81.33604824845705</v>
+        <v>81.3360482484571</v>
       </c>
     </row>
     <row r="91">
@@ -1706,13 +1706,13 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>300.4133246906961</v>
+        <v>300.4133246906978</v>
       </c>
       <c r="C91" t="n">
-        <v>119.1179719865853</v>
+        <v>119.1179719865854</v>
       </c>
       <c r="D91" t="n">
-        <v>81.31198038497313</v>
+        <v>81.31198038497318</v>
       </c>
     </row>
     <row r="92">
@@ -1720,13 +1720,13 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>300.0732181608086</v>
+        <v>300.0732181608101</v>
       </c>
       <c r="C92" t="n">
         <v>119.0721049516672</v>
       </c>
       <c r="D92" t="n">
-        <v>81.2879125214892</v>
+        <v>81.28791252148926</v>
       </c>
     </row>
     <row r="93">
@@ -1734,13 +1734,13 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>299.733111630921</v>
+        <v>299.7331116309226</v>
       </c>
       <c r="C93" t="n">
         <v>119.0262379167491</v>
       </c>
       <c r="D93" t="n">
-        <v>81.26384465800528</v>
+        <v>81.26384465800534</v>
       </c>
     </row>
     <row r="94">
@@ -1748,13 +1748,13 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>299.3930051010334</v>
+        <v>299.3930051010351</v>
       </c>
       <c r="C94" t="n">
-        <v>118.9803708818309</v>
+        <v>118.980370881831</v>
       </c>
       <c r="D94" t="n">
-        <v>81.23977679452136</v>
+        <v>81.23977679452142</v>
       </c>
     </row>
     <row r="95">
@@ -1762,13 +1762,13 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>299.0528985711459</v>
+        <v>299.0528985711476</v>
       </c>
       <c r="C95" t="n">
         <v>118.9345038469128</v>
       </c>
       <c r="D95" t="n">
-        <v>81.21570893103744</v>
+        <v>81.2157089310375</v>
       </c>
     </row>
     <row r="96">
@@ -1776,13 +1776,13 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>298.7127920412584</v>
+        <v>298.7127920412599</v>
       </c>
       <c r="C96" t="n">
         <v>118.8886368119947</v>
       </c>
       <c r="D96" t="n">
-        <v>81.19164106755352</v>
+        <v>81.19164106755358</v>
       </c>
     </row>
     <row r="97">
@@ -1790,13 +1790,13 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>298.3726855113708</v>
+        <v>298.3726855113724</v>
       </c>
       <c r="C97" t="n">
-        <v>118.8427697770765</v>
+        <v>118.8427697770766</v>
       </c>
       <c r="D97" t="n">
-        <v>81.16757320406958</v>
+        <v>81.16757320406965</v>
       </c>
     </row>
     <row r="98">
@@ -1804,13 +1804,13 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>298.0325789814832</v>
+        <v>298.0325789814849</v>
       </c>
       <c r="C98" t="n">
-        <v>118.7969027421584</v>
+        <v>118.7969027421585</v>
       </c>
       <c r="D98" t="n">
-        <v>81.14350534058568</v>
+        <v>81.14350534058573</v>
       </c>
     </row>
     <row r="99">
@@ -1818,13 +1818,13 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>297.6924724515957</v>
+        <v>297.6924724515973</v>
       </c>
       <c r="C99" t="n">
         <v>118.7510357072403</v>
       </c>
       <c r="D99" t="n">
-        <v>81.11943747710174</v>
+        <v>81.1194374771018</v>
       </c>
     </row>
     <row r="100">
@@ -1832,13 +1832,13 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>297.3523659217082</v>
+        <v>297.3523659217097</v>
       </c>
       <c r="C100" t="n">
-        <v>118.7051686723221</v>
+        <v>118.7051686723222</v>
       </c>
       <c r="D100" t="n">
-        <v>81.09536961361783</v>
+        <v>81.09536961361789</v>
       </c>
     </row>
     <row r="101">
@@ -1846,13 +1846,13 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>297.0122593918206</v>
+        <v>297.0122593918222</v>
       </c>
       <c r="C101" t="n">
-        <v>118.659301637404</v>
+        <v>118.6593016374041</v>
       </c>
       <c r="D101" t="n">
-        <v>81.0713017501339</v>
+        <v>81.07130175013396</v>
       </c>
     </row>
     <row r="102">
@@ -1860,13 +1860,13 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>296.672152861933</v>
+        <v>296.6721528619346</v>
       </c>
       <c r="C102" t="n">
         <v>118.6134346024859</v>
       </c>
       <c r="D102" t="n">
-        <v>81.04723388664999</v>
+        <v>81.04723388665005</v>
       </c>
     </row>
     <row r="103">
@@ -1874,13 +1874,13 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>296.3320463320455</v>
+        <v>296.3320463320471</v>
       </c>
       <c r="C103" t="n">
-        <v>118.5675675675677</v>
+        <v>118.5675675675678</v>
       </c>
       <c r="D103" t="n">
-        <v>81.02316602316606</v>
+        <v>81.02316602316611</v>
       </c>
     </row>
     <row r="104">
@@ -1888,13 +1888,13 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>295.991939802158</v>
+        <v>295.9919398021595</v>
       </c>
       <c r="C104" t="n">
-        <v>118.5217005326496</v>
+        <v>118.5217005326497</v>
       </c>
       <c r="D104" t="n">
-        <v>80.99909815968215</v>
+        <v>80.99909815968221</v>
       </c>
     </row>
     <row r="105">
@@ -1902,13 +1902,13 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>295.6518332722704</v>
+        <v>295.651833272272</v>
       </c>
       <c r="C105" t="n">
         <v>118.4758334977315</v>
       </c>
       <c r="D105" t="n">
-        <v>80.97503029619821</v>
+        <v>80.97503029619827</v>
       </c>
     </row>
     <row r="106">
@@ -1916,13 +1916,13 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>295.3117267423828</v>
+        <v>295.3117267423844</v>
       </c>
       <c r="C106" t="n">
         <v>118.4299664628134</v>
       </c>
       <c r="D106" t="n">
-        <v>80.95096243271429</v>
+        <v>80.95096243271435</v>
       </c>
     </row>
     <row r="107">
@@ -1930,13 +1930,13 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>294.9716202124953</v>
+        <v>294.9716202124969</v>
       </c>
       <c r="C107" t="n">
-        <v>118.3840994278952</v>
+        <v>118.3840994278953</v>
       </c>
       <c r="D107" t="n">
-        <v>80.92689456923037</v>
+        <v>80.92689456923043</v>
       </c>
     </row>
     <row r="108">
@@ -1944,13 +1944,13 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>294.6315136826078</v>
+        <v>294.6315136826094</v>
       </c>
       <c r="C108" t="n">
         <v>118.3382323929771</v>
       </c>
       <c r="D108" t="n">
-        <v>80.90282670574645</v>
+        <v>80.90282670574651</v>
       </c>
     </row>
     <row r="109">
@@ -1958,13 +1958,13 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>294.2914071527202</v>
+        <v>294.2914071527217</v>
       </c>
       <c r="C109" t="n">
         <v>118.292365358059</v>
       </c>
       <c r="D109" t="n">
-        <v>80.87875884226253</v>
+        <v>80.87875884226258</v>
       </c>
     </row>
     <row r="110">
@@ -1972,13 +1972,13 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>293.9513006228326</v>
+        <v>293.9513006228342</v>
       </c>
       <c r="C110" t="n">
-        <v>118.2464983231408</v>
+        <v>118.2464983231409</v>
       </c>
       <c r="D110" t="n">
-        <v>80.85469097877861</v>
+        <v>80.85469097877866</v>
       </c>
     </row>
     <row r="111">
@@ -1986,13 +1986,13 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>293.6111940929451</v>
+        <v>293.6111940929467</v>
       </c>
       <c r="C111" t="n">
-        <v>118.2006312882227</v>
+        <v>118.2006312882228</v>
       </c>
       <c r="D111" t="n">
-        <v>80.83062311529469</v>
+        <v>80.83062311529474</v>
       </c>
     </row>
     <row r="112">
@@ -2000,13 +2000,13 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>293.2710875630576</v>
+        <v>293.2710875630592</v>
       </c>
       <c r="C112" t="n">
         <v>118.1547642533046</v>
       </c>
       <c r="D112" t="n">
-        <v>80.80655525181076</v>
+        <v>80.80655525181082</v>
       </c>
     </row>
     <row r="113">
@@ -2014,13 +2014,13 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>292.93098103317</v>
+        <v>292.9309810331715</v>
       </c>
       <c r="C113" t="n">
-        <v>118.1088972183864</v>
+        <v>118.1088972183865</v>
       </c>
       <c r="D113" t="n">
-        <v>80.78248738832684</v>
+        <v>80.7824873883269</v>
       </c>
     </row>
     <row r="114">
@@ -2028,13 +2028,13 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>292.5908745032824</v>
+        <v>292.590874503284</v>
       </c>
       <c r="C114" t="n">
-        <v>118.0630301834683</v>
+        <v>118.0630301834684</v>
       </c>
       <c r="D114" t="n">
-        <v>80.75841952484291</v>
+        <v>80.75841952484296</v>
       </c>
     </row>
     <row r="115">
@@ -2042,13 +2042,13 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>292.2507679733949</v>
+        <v>292.2507679733965</v>
       </c>
       <c r="C115" t="n">
         <v>118.0171631485502</v>
       </c>
       <c r="D115" t="n">
-        <v>80.734351661359</v>
+        <v>80.73435166135906</v>
       </c>
     </row>
     <row r="116">
@@ -2056,13 +2056,13 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>291.9106614435074</v>
+        <v>291.9106614435088</v>
       </c>
       <c r="C116" t="n">
         <v>117.9712961136321</v>
       </c>
       <c r="D116" t="n">
-        <v>80.71028379787506</v>
+        <v>80.71028379787512</v>
       </c>
     </row>
     <row r="117">
@@ -2070,13 +2070,13 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>291.5705549136198</v>
+        <v>291.5705549136213</v>
       </c>
       <c r="C117" t="n">
-        <v>117.9254290787139</v>
+        <v>117.925429078714</v>
       </c>
       <c r="D117" t="n">
-        <v>80.68621593439116</v>
+        <v>80.68621593439121</v>
       </c>
     </row>
     <row r="118">
@@ -2084,13 +2084,13 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>291.2304483837322</v>
+        <v>291.2304483837338</v>
       </c>
       <c r="C118" t="n">
         <v>117.8795620437958</v>
       </c>
       <c r="D118" t="n">
-        <v>80.66214807090722</v>
+        <v>80.66214807090728</v>
       </c>
     </row>
     <row r="119">
@@ -2098,13 +2098,13 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>290.8903418538447</v>
+        <v>290.8903418538462</v>
       </c>
       <c r="C119" t="n">
         <v>117.8336950088777</v>
       </c>
       <c r="D119" t="n">
-        <v>80.63808020742331</v>
+        <v>80.63808020742337</v>
       </c>
     </row>
     <row r="120">
@@ -2112,13 +2112,13 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>290.5502353239572</v>
+        <v>290.5502353239586</v>
       </c>
       <c r="C120" t="n">
-        <v>117.7878279739595</v>
+        <v>117.7878279739596</v>
       </c>
       <c r="D120" t="n">
-        <v>80.61401234393938</v>
+        <v>80.61401234393944</v>
       </c>
     </row>
     <row r="121">
@@ -2126,13 +2126,13 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>290.2101287940696</v>
+        <v>290.2101287940711</v>
       </c>
       <c r="C121" t="n">
-        <v>117.7419609390414</v>
+        <v>117.7419609390415</v>
       </c>
       <c r="D121" t="n">
-        <v>80.58994448045547</v>
+        <v>80.58994448045551</v>
       </c>
     </row>
     <row r="122">
@@ -2140,13 +2140,13 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>289.870022264182</v>
+        <v>289.8700222641836</v>
       </c>
       <c r="C122" t="n">
         <v>117.6960939041233</v>
       </c>
       <c r="D122" t="n">
-        <v>80.56587661697154</v>
+        <v>80.56587661697159</v>
       </c>
     </row>
     <row r="123">
@@ -2154,13 +2154,13 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>289.5299157342945</v>
+        <v>289.529915734296</v>
       </c>
       <c r="C123" t="n">
-        <v>117.6502268692051</v>
+        <v>117.6502268692052</v>
       </c>
       <c r="D123" t="n">
-        <v>80.54180875348762</v>
+        <v>80.54180875348767</v>
       </c>
     </row>
     <row r="124">
@@ -2168,13 +2168,13 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>289.189809204407</v>
+        <v>289.1898092044084</v>
       </c>
       <c r="C124" t="n">
-        <v>117.604359834287</v>
+        <v>117.6043598342871</v>
       </c>
       <c r="D124" t="n">
-        <v>80.51774089000369</v>
+        <v>80.51774089000375</v>
       </c>
     </row>
     <row r="125">
@@ -2182,13 +2182,13 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>288.8497026745194</v>
+        <v>288.8497026745209</v>
       </c>
       <c r="C125" t="n">
         <v>117.5584927993689</v>
       </c>
       <c r="D125" t="n">
-        <v>80.49367302651977</v>
+        <v>80.49367302651983</v>
       </c>
     </row>
     <row r="126">
@@ -2196,13 +2196,13 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>288.5095961446318</v>
+        <v>288.5095961446333</v>
       </c>
       <c r="C126" t="n">
         <v>117.5126257644508</v>
       </c>
       <c r="D126" t="n">
-        <v>80.46960516303585</v>
+        <v>80.46960516303591</v>
       </c>
     </row>
     <row r="127">
@@ -2210,13 +2210,13 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>288.1694896147443</v>
+        <v>288.1694896147458</v>
       </c>
       <c r="C127" t="n">
-        <v>117.4667587295326</v>
+        <v>117.4667587295327</v>
       </c>
       <c r="D127" t="n">
-        <v>80.44553729955193</v>
+        <v>80.44553729955199</v>
       </c>
     </row>
     <row r="128">
@@ -2224,13 +2224,13 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>287.8293830848568</v>
+        <v>287.8293830848583</v>
       </c>
       <c r="C128" t="n">
         <v>117.4208916946145</v>
       </c>
       <c r="D128" t="n">
-        <v>80.42146943606801</v>
+        <v>80.42146943606807</v>
       </c>
     </row>
     <row r="129">
@@ -2238,13 +2238,13 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>287.4892765549693</v>
+        <v>287.4892765549707</v>
       </c>
       <c r="C129" t="n">
         <v>117.3750246596964</v>
       </c>
       <c r="D129" t="n">
-        <v>80.39740157258409</v>
+        <v>80.39740157258413</v>
       </c>
     </row>
     <row r="130">
@@ -2252,13 +2252,13 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>287.1491700250816</v>
+        <v>287.1491700250831</v>
       </c>
       <c r="C130" t="n">
-        <v>117.3291576247782</v>
+        <v>117.3291576247783</v>
       </c>
       <c r="D130" t="n">
-        <v>80.37333370910017</v>
+        <v>80.37333370910022</v>
       </c>
     </row>
     <row r="131">
@@ -2266,13 +2266,13 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>286.8090634951941</v>
+        <v>286.8090634951956</v>
       </c>
       <c r="C131" t="n">
         <v>117.2832905898601</v>
       </c>
       <c r="D131" t="n">
-        <v>80.34926584561624</v>
+        <v>80.34926584561629</v>
       </c>
     </row>
     <row r="132">
@@ -2280,13 +2280,13 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>286.4689569653066</v>
+        <v>286.4689569653081</v>
       </c>
       <c r="C132" t="n">
         <v>117.237423554942</v>
       </c>
       <c r="D132" t="n">
-        <v>80.32519798213232</v>
+        <v>80.32519798213238</v>
       </c>
     </row>
     <row r="133">
@@ -2294,13 +2294,13 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>286.1288504354191</v>
+        <v>286.1288504354204</v>
       </c>
       <c r="C133" t="n">
-        <v>117.1915565200238</v>
+        <v>117.1915565200239</v>
       </c>
       <c r="D133" t="n">
-        <v>80.30113011864839</v>
+        <v>80.30113011864844</v>
       </c>
     </row>
     <row r="134">
@@ -2308,13 +2308,13 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>285.7887439055314</v>
+        <v>285.7887439055329</v>
       </c>
       <c r="C134" t="n">
-        <v>117.1456894851057</v>
+        <v>117.1456894851058</v>
       </c>
       <c r="D134" t="n">
-        <v>80.27706225516448</v>
+        <v>80.27706225516454</v>
       </c>
     </row>
     <row r="135">
@@ -2322,13 +2322,13 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>285.4486373756439</v>
+        <v>285.4486373756454</v>
       </c>
       <c r="C135" t="n">
         <v>117.0998224501876</v>
       </c>
       <c r="D135" t="n">
-        <v>80.25299439168055</v>
+        <v>80.2529943916806</v>
       </c>
     </row>
     <row r="136">
@@ -2336,13 +2336,13 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>285.1085308457564</v>
+        <v>285.1085308457577</v>
       </c>
       <c r="C136" t="n">
         <v>117.0539554152695</v>
       </c>
       <c r="D136" t="n">
-        <v>80.22892652819664</v>
+        <v>80.22892652819668</v>
       </c>
     </row>
     <row r="137">
@@ -2350,13 +2350,13 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>284.7684243158689</v>
+        <v>284.7684243158702</v>
       </c>
       <c r="C137" t="n">
-        <v>117.0080883803513</v>
+        <v>117.0080883803514</v>
       </c>
       <c r="D137" t="n">
-        <v>80.2048586647127</v>
+        <v>80.20485866471276</v>
       </c>
     </row>
     <row r="138">
@@ -2364,13 +2364,13 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>284.4283177859812</v>
+        <v>284.4283177859827</v>
       </c>
       <c r="C138" t="n">
         <v>116.9622213454332</v>
       </c>
       <c r="D138" t="n">
-        <v>80.1807908012288</v>
+        <v>80.18079080122884</v>
       </c>
     </row>
     <row r="139">
@@ -2378,13 +2378,13 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>284.0882112560937</v>
+        <v>284.0882112560952</v>
       </c>
       <c r="C139" t="n">
         <v>116.9163543105151</v>
       </c>
       <c r="D139" t="n">
-        <v>80.15672293774486</v>
+        <v>80.15672293774492</v>
       </c>
     </row>
     <row r="140">
@@ -2392,13 +2392,13 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>283.7481047262062</v>
+        <v>283.7481047262075</v>
       </c>
       <c r="C140" t="n">
-        <v>116.8704872755969</v>
+        <v>116.870487275597</v>
       </c>
       <c r="D140" t="n">
-        <v>80.13265507426095</v>
+        <v>80.132655074261</v>
       </c>
     </row>
     <row r="141">
@@ -2406,13 +2406,13 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>283.4079981963187</v>
+        <v>283.40799819632</v>
       </c>
       <c r="C141" t="n">
         <v>116.8246202406788</v>
       </c>
       <c r="D141" t="n">
-        <v>80.10858721077702</v>
+        <v>80.10858721077707</v>
       </c>
     </row>
     <row r="142">
@@ -2420,13 +2420,13 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>283.067891666431</v>
+        <v>283.0678916664325</v>
       </c>
       <c r="C142" t="n">
         <v>116.7787532057607</v>
       </c>
       <c r="D142" t="n">
-        <v>80.0845193472931</v>
+        <v>80.08451934729315</v>
       </c>
     </row>
     <row r="143">
@@ -2434,13 +2434,13 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>282.7277851365435</v>
+        <v>282.7277851365449</v>
       </c>
       <c r="C143" t="n">
-        <v>116.7328861708425</v>
+        <v>116.7328861708426</v>
       </c>
       <c r="D143" t="n">
-        <v>80.06045148380917</v>
+        <v>80.06045148380923</v>
       </c>
     </row>
     <row r="144">
@@ -2448,13 +2448,13 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>282.387678606656</v>
+        <v>282.3876786066573</v>
       </c>
       <c r="C144" t="n">
-        <v>116.6870191359244</v>
+        <v>116.6870191359245</v>
       </c>
       <c r="D144" t="n">
-        <v>80.03638362032525</v>
+        <v>80.0363836203253</v>
       </c>
     </row>
     <row r="145">
@@ -2462,13 +2462,13 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>282.0475720767685</v>
+        <v>282.0475720767698</v>
       </c>
       <c r="C145" t="n">
         <v>116.6411521010063</v>
       </c>
       <c r="D145" t="n">
-        <v>80.01231575684133</v>
+        <v>80.01231575684139</v>
       </c>
     </row>
     <row r="146">
@@ -2476,13 +2476,13 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>281.7074655468809</v>
+        <v>281.7074655468823</v>
       </c>
       <c r="C146" t="n">
         <v>116.5952850660882</v>
       </c>
       <c r="D146" t="n">
-        <v>79.98824789335741</v>
+        <v>79.98824789335745</v>
       </c>
     </row>
     <row r="147">
@@ -2490,13 +2490,13 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>281.3673590169933</v>
+        <v>281.3673590169947</v>
       </c>
       <c r="C147" t="n">
-        <v>116.54941803117</v>
+        <v>116.5494180311701</v>
       </c>
       <c r="D147" t="n">
-        <v>79.96418002987349</v>
+        <v>79.96418002987355</v>
       </c>
     </row>
     <row r="148">
@@ -2504,13 +2504,13 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>281.0272524871058</v>
+        <v>281.0272524871071</v>
       </c>
       <c r="C148" t="n">
         <v>116.5035509962519</v>
       </c>
       <c r="D148" t="n">
-        <v>79.94011216638957</v>
+        <v>79.94011216638961</v>
       </c>
     </row>
     <row r="149">
@@ -2518,13 +2518,13 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>280.6871459572183</v>
+        <v>280.6871459572196</v>
       </c>
       <c r="C149" t="n">
         <v>116.4576839613338</v>
       </c>
       <c r="D149" t="n">
-        <v>79.91604430290565</v>
+        <v>79.9160443029057</v>
       </c>
     </row>
     <row r="150">
@@ -2532,13 +2532,13 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>280.3470394273307</v>
+        <v>280.347039427332</v>
       </c>
       <c r="C150" t="n">
-        <v>116.4118169264156</v>
+        <v>116.4118169264157</v>
       </c>
       <c r="D150" t="n">
-        <v>79.89197643942171</v>
+        <v>79.89197643942177</v>
       </c>
     </row>
     <row r="151">
@@ -2546,13 +2546,13 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>280.0069328974431</v>
+        <v>280.0069328974445</v>
       </c>
       <c r="C151" t="n">
         <v>116.3659498914975</v>
       </c>
       <c r="D151" t="n">
-        <v>79.8679085759378</v>
+        <v>79.86790857593785</v>
       </c>
     </row>
     <row r="152">
@@ -2560,13 +2560,13 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>279.6668263675556</v>
+        <v>279.666826367557</v>
       </c>
       <c r="C152" t="n">
         <v>116.3200828565794</v>
       </c>
       <c r="D152" t="n">
-        <v>79.84384071245387</v>
+        <v>79.84384071245393</v>
       </c>
     </row>
     <row r="153">
@@ -2574,13 +2574,13 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>279.3267198376681</v>
+        <v>279.3267198376693</v>
       </c>
       <c r="C153" t="n">
-        <v>116.2742158216612</v>
+        <v>116.2742158216613</v>
       </c>
       <c r="D153" t="n">
-        <v>79.81977284896996</v>
+        <v>79.81977284897</v>
       </c>
     </row>
     <row r="154">
@@ -2588,13 +2588,13 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>278.9866133077805</v>
+        <v>278.9866133077818</v>
       </c>
       <c r="C154" t="n">
-        <v>116.2283487867431</v>
+        <v>116.2283487867432</v>
       </c>
       <c r="D154" t="n">
-        <v>79.79570498548603</v>
+        <v>79.79570498548608</v>
       </c>
     </row>
     <row r="155">
@@ -2602,13 +2602,13 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>278.6465067778929</v>
+        <v>278.6465067778943</v>
       </c>
       <c r="C155" t="n">
         <v>116.182481751825</v>
       </c>
       <c r="D155" t="n">
-        <v>79.77163712200212</v>
+        <v>79.77163712200216</v>
       </c>
     </row>
     <row r="156">
@@ -2616,13 +2616,13 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>278.3064002480054</v>
+        <v>278.3064002480068</v>
       </c>
       <c r="C156" t="n">
-        <v>116.1366147169068</v>
+        <v>116.1366147169069</v>
       </c>
       <c r="D156" t="n">
-        <v>79.74756925851818</v>
+        <v>79.74756925851824</v>
       </c>
     </row>
     <row r="157">
@@ -2630,13 +2630,13 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>277.9662937181179</v>
+        <v>277.9662937181191</v>
       </c>
       <c r="C157" t="n">
-        <v>116.0907476819887</v>
+        <v>116.0907476819888</v>
       </c>
       <c r="D157" t="n">
-        <v>79.72350139503428</v>
+        <v>79.7235013950343</v>
       </c>
     </row>
     <row r="158">
@@ -2644,13 +2644,13 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>277.6261871882303</v>
+        <v>277.6261871882316</v>
       </c>
       <c r="C158" t="n">
         <v>116.0448806470706</v>
       </c>
       <c r="D158" t="n">
-        <v>79.69943353155034</v>
+        <v>79.6994335315504</v>
       </c>
     </row>
     <row r="159">
@@ -2658,13 +2658,13 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>277.2860806583427</v>
+        <v>277.2860806583441</v>
       </c>
       <c r="C159" t="n">
         <v>115.9990136121525</v>
       </c>
       <c r="D159" t="n">
-        <v>79.67536566806642</v>
+        <v>79.67536566806646</v>
       </c>
     </row>
     <row r="160">
@@ -2672,13 +2672,13 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>276.9459741284552</v>
+        <v>276.9459741284564</v>
       </c>
       <c r="C160" t="n">
-        <v>115.9531465772343</v>
+        <v>115.9531465772344</v>
       </c>
       <c r="D160" t="n">
-        <v>79.6512978045825</v>
+        <v>79.65129780458255</v>
       </c>
     </row>
     <row r="161">
@@ -2686,13 +2686,13 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>276.6058675985677</v>
+        <v>276.6058675985689</v>
       </c>
       <c r="C161" t="n">
         <v>115.9072795423162</v>
       </c>
       <c r="D161" t="n">
-        <v>79.62722994109858</v>
+        <v>79.62722994109862</v>
       </c>
     </row>
     <row r="162">
@@ -2700,13 +2700,13 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>276.2657610686801</v>
+        <v>276.2657610686814</v>
       </c>
       <c r="C162" t="n">
         <v>115.8614125073981</v>
       </c>
       <c r="D162" t="n">
-        <v>79.60316207761466</v>
+        <v>79.60316207761471</v>
       </c>
     </row>
     <row r="163">
@@ -2714,13 +2714,13 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>275.9256545387925</v>
+        <v>275.9256545387939</v>
       </c>
       <c r="C163" t="n">
-        <v>115.8155454724799</v>
+        <v>115.81554547248</v>
       </c>
       <c r="D163" t="n">
-        <v>79.57909421413073</v>
+        <v>79.57909421413078</v>
       </c>
     </row>
     <row r="164">
@@ -2728,13 +2728,13 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>275.585548008905</v>
+        <v>275.5855480089062</v>
       </c>
       <c r="C164" t="n">
         <v>115.7696784375618</v>
       </c>
       <c r="D164" t="n">
-        <v>79.55502635064681</v>
+        <v>79.55502635064687</v>
       </c>
     </row>
     <row r="165">
@@ -2742,13 +2742,13 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>275.2454414790175</v>
+        <v>275.2454414790187</v>
       </c>
       <c r="C165" t="n">
         <v>115.7238114026437</v>
       </c>
       <c r="D165" t="n">
-        <v>79.53095848716289</v>
+        <v>79.53095848716293</v>
       </c>
     </row>
     <row r="166">
@@ -2756,13 +2756,13 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>274.90533494913</v>
+        <v>274.9053349491312</v>
       </c>
       <c r="C166" t="n">
-        <v>115.6779443677255</v>
+        <v>115.6779443677256</v>
       </c>
       <c r="D166" t="n">
-        <v>79.50689062367897</v>
+        <v>79.50689062367901</v>
       </c>
     </row>
     <row r="167">
@@ -2770,13 +2770,13 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>274.5652284192423</v>
+        <v>274.5652284192436</v>
       </c>
       <c r="C167" t="n">
-        <v>115.6320773328074</v>
+        <v>115.6320773328075</v>
       </c>
       <c r="D167" t="n">
-        <v>79.48282276019505</v>
+        <v>79.48282276019509</v>
       </c>
     </row>
     <row r="168">
@@ -2784,13 +2784,13 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>274.2251218893548</v>
+        <v>274.225121889356</v>
       </c>
       <c r="C168" t="n">
         <v>115.5862102978893</v>
       </c>
       <c r="D168" t="n">
-        <v>79.45875489671113</v>
+        <v>79.45875489671117</v>
       </c>
     </row>
     <row r="169">
@@ -2798,13 +2798,13 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>273.8850153594673</v>
+        <v>273.8850153594685</v>
       </c>
       <c r="C169" t="n">
-        <v>115.5403432629711</v>
+        <v>115.5403432629712</v>
       </c>
       <c r="D169" t="n">
-        <v>79.43468703322719</v>
+        <v>79.43468703322725</v>
       </c>
     </row>
     <row r="170">
@@ -2812,13 +2812,13 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>273.5449088295798</v>
+        <v>273.5449088295809</v>
       </c>
       <c r="C170" t="n">
-        <v>115.494476228053</v>
+        <v>115.4944762280531</v>
       </c>
       <c r="D170" t="n">
-        <v>79.41061916974328</v>
+        <v>79.41061916974333</v>
       </c>
     </row>
     <row r="171">
@@ -2826,13 +2826,13 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>273.2048022996921</v>
+        <v>273.2048022996934</v>
       </c>
       <c r="C171" t="n">
         <v>115.4486091931349</v>
       </c>
       <c r="D171" t="n">
-        <v>79.38655130625935</v>
+        <v>79.38655130625941</v>
       </c>
     </row>
     <row r="172">
@@ -2840,13 +2840,13 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>272.8646957698046</v>
+        <v>272.8646957698058</v>
       </c>
       <c r="C172" t="n">
         <v>115.4027421582168</v>
       </c>
       <c r="D172" t="n">
-        <v>79.36248344277544</v>
+        <v>79.36248344277547</v>
       </c>
     </row>
     <row r="173">
@@ -2854,13 +2854,13 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>272.5245892399171</v>
+        <v>272.5245892399183</v>
       </c>
       <c r="C173" t="n">
-        <v>115.3568751232986</v>
+        <v>115.3568751232987</v>
       </c>
       <c r="D173" t="n">
-        <v>79.33841557929151</v>
+        <v>79.33841557929156</v>
       </c>
     </row>
     <row r="174">
@@ -2868,13 +2868,13 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>272.1844827100296</v>
+        <v>272.1844827100307</v>
       </c>
       <c r="C174" t="n">
         <v>115.3110080883805</v>
       </c>
       <c r="D174" t="n">
-        <v>79.3143477158076</v>
+        <v>79.31434771580763</v>
       </c>
     </row>
     <row r="175">
@@ -2882,13 +2882,13 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>271.8443761801419</v>
+        <v>271.8443761801432</v>
       </c>
       <c r="C175" t="n">
         <v>115.2651410534624</v>
       </c>
       <c r="D175" t="n">
-        <v>79.29027985232366</v>
+        <v>79.29027985232372</v>
       </c>
     </row>
     <row r="176">
@@ -2896,13 +2896,13 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>271.5042696502544</v>
+        <v>271.5042696502557</v>
       </c>
       <c r="C176" t="n">
-        <v>115.2192740185442</v>
+        <v>115.2192740185443</v>
       </c>
       <c r="D176" t="n">
-        <v>79.26621198883976</v>
+        <v>79.26621198883979</v>
       </c>
     </row>
     <row r="177">
@@ -2910,13 +2910,13 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>271.1641631203669</v>
+        <v>271.164163120368</v>
       </c>
       <c r="C177" t="n">
-        <v>115.1734069836261</v>
+        <v>115.1734069836262</v>
       </c>
       <c r="D177" t="n">
-        <v>79.24214412535582</v>
+        <v>79.24214412535588</v>
       </c>
     </row>
     <row r="178">
@@ -2924,13 +2924,13 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>270.8240565904794</v>
+        <v>270.8240565904805</v>
       </c>
       <c r="C178" t="n">
         <v>115.127539948708</v>
       </c>
       <c r="D178" t="n">
-        <v>79.2180762618719</v>
+        <v>79.21807626187194</v>
       </c>
     </row>
     <row r="179">
@@ -2938,13 +2938,13 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>270.4839500605917</v>
+        <v>270.483950060593</v>
       </c>
       <c r="C179" t="n">
-        <v>115.0816729137898</v>
+        <v>115.0816729137899</v>
       </c>
       <c r="D179" t="n">
-        <v>79.19400839838798</v>
+        <v>79.19400839838804</v>
       </c>
     </row>
     <row r="180">
@@ -2952,13 +2952,13 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>270.1438435307042</v>
+        <v>270.1438435307053</v>
       </c>
       <c r="C180" t="n">
-        <v>115.0358058788717</v>
+        <v>115.0358058788718</v>
       </c>
       <c r="D180" t="n">
-        <v>79.16994053490406</v>
+        <v>79.1699405349041</v>
       </c>
     </row>
     <row r="181">
@@ -2966,13 +2966,13 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>269.8037370008167</v>
+        <v>269.8037370008178</v>
       </c>
       <c r="C181" t="n">
         <v>114.9899388439536</v>
       </c>
       <c r="D181" t="n">
-        <v>79.14587267142014</v>
+        <v>79.14587267142018</v>
       </c>
     </row>
     <row r="182">
@@ -2980,13 +2980,13 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>269.4636304709292</v>
+        <v>269.4636304709303</v>
       </c>
       <c r="C182" t="n">
-        <v>114.9440718090354</v>
+        <v>114.9440718090355</v>
       </c>
       <c r="D182" t="n">
-        <v>79.12180480793621</v>
+        <v>79.12180480793626</v>
       </c>
     </row>
     <row r="183">
@@ -2994,13 +2994,13 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>269.1235239410415</v>
+        <v>269.1235239410428</v>
       </c>
       <c r="C183" t="n">
-        <v>114.8982047741173</v>
+        <v>114.8982047741174</v>
       </c>
       <c r="D183" t="n">
-        <v>79.09773694445229</v>
+        <v>79.09773694445234</v>
       </c>
     </row>
     <row r="184">
@@ -3008,13 +3008,13 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>268.783417411154</v>
+        <v>268.7834174111551</v>
       </c>
       <c r="C184" t="n">
         <v>114.8523377391992</v>
       </c>
       <c r="D184" t="n">
-        <v>79.07366908096837</v>
+        <v>79.07366908096841</v>
       </c>
     </row>
     <row r="185">
@@ -3022,13 +3022,13 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>268.4433108812665</v>
+        <v>268.4433108812676</v>
       </c>
       <c r="C185" t="n">
         <v>114.8064707042811</v>
       </c>
       <c r="D185" t="n">
-        <v>79.04960121748445</v>
+        <v>79.04960121748449</v>
       </c>
     </row>
     <row r="186">
@@ -3036,13 +3036,13 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>268.103204351379</v>
+        <v>268.1032043513801</v>
       </c>
       <c r="C186" t="n">
-        <v>114.7606036693629</v>
+        <v>114.760603669363</v>
       </c>
       <c r="D186" t="n">
-        <v>79.02553335400052</v>
+        <v>79.02553335400057</v>
       </c>
     </row>
     <row r="187">
@@ -3050,13 +3050,13 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>267.7630978214913</v>
+        <v>267.7630978214925</v>
       </c>
       <c r="C187" t="n">
         <v>114.7147366344448</v>
       </c>
       <c r="D187" t="n">
-        <v>79.00146549051661</v>
+        <v>79.00146549051664</v>
       </c>
     </row>
     <row r="188">
@@ -3064,13 +3064,13 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>267.4229912916038</v>
+        <v>267.4229912916049</v>
       </c>
       <c r="C188" t="n">
         <v>114.6688695995267</v>
       </c>
       <c r="D188" t="n">
-        <v>78.97739762703267</v>
+        <v>78.97739762703273</v>
       </c>
     </row>
     <row r="189">
@@ -3078,13 +3078,13 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>267.0828847617163</v>
+        <v>267.0828847617174</v>
       </c>
       <c r="C189" t="n">
-        <v>114.6230025646085</v>
+        <v>114.6230025646086</v>
       </c>
       <c r="D189" t="n">
-        <v>78.95332976354877</v>
+        <v>78.95332976354879</v>
       </c>
     </row>
     <row r="190">
@@ -3092,13 +3092,13 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>266.7427782318288</v>
+        <v>266.7427782318299</v>
       </c>
       <c r="C190" t="n">
-        <v>114.5771355296904</v>
+        <v>114.5771355296905</v>
       </c>
       <c r="D190" t="n">
-        <v>78.92926190006483</v>
+        <v>78.92926190006489</v>
       </c>
     </row>
     <row r="191">
@@ -3106,13 +3106,13 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>266.4026717019411</v>
+        <v>266.4026717019423</v>
       </c>
       <c r="C191" t="n">
         <v>114.5312684947723</v>
       </c>
       <c r="D191" t="n">
-        <v>78.90519403658092</v>
+        <v>78.90519403658095</v>
       </c>
     </row>
     <row r="192">
@@ -3120,13 +3120,13 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>266.0625651720536</v>
+        <v>266.0625651720547</v>
       </c>
       <c r="C192" t="n">
-        <v>114.4854014598541</v>
+        <v>114.4854014598542</v>
       </c>
       <c r="D192" t="n">
-        <v>78.88112617309699</v>
+        <v>78.88112617309704</v>
       </c>
     </row>
     <row r="193">
@@ -3134,13 +3134,13 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>265.7224586421661</v>
+        <v>265.7224586421672</v>
       </c>
       <c r="C193" t="n">
-        <v>114.439534424936</v>
+        <v>114.4395344249361</v>
       </c>
       <c r="D193" t="n">
-        <v>78.85705830961308</v>
+        <v>78.85705830961311</v>
       </c>
     </row>
     <row r="194">
@@ -3148,13 +3148,13 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>265.3823521122786</v>
+        <v>265.3823521122796</v>
       </c>
       <c r="C194" t="n">
         <v>114.3936673900179</v>
       </c>
       <c r="D194" t="n">
-        <v>78.83299044612914</v>
+        <v>78.83299044612919</v>
       </c>
     </row>
     <row r="195">
@@ -3162,13 +3162,13 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>265.042245582391</v>
+        <v>265.0422455823921</v>
       </c>
       <c r="C195" t="n">
-        <v>114.3478003550997</v>
+        <v>114.3478003550998</v>
       </c>
       <c r="D195" t="n">
-        <v>78.80892258264522</v>
+        <v>78.80892258264527</v>
       </c>
     </row>
     <row r="196">
@@ -3176,13 +3176,13 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>264.7021390525034</v>
+        <v>264.7021390525045</v>
       </c>
       <c r="C196" t="n">
-        <v>114.3019333201816</v>
+        <v>114.3019333201817</v>
       </c>
       <c r="D196" t="n">
-        <v>78.7848547191613</v>
+        <v>78.78485471916134</v>
       </c>
     </row>
     <row r="197">
@@ -3190,13 +3190,13 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>264.3620325226159</v>
+        <v>264.3620325226169</v>
       </c>
       <c r="C197" t="n">
         <v>114.2560662852635</v>
       </c>
       <c r="D197" t="n">
-        <v>78.76078685567738</v>
+        <v>78.76078685567742</v>
       </c>
     </row>
     <row r="198">
@@ -3204,13 +3204,13 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>264.0219259927284</v>
+        <v>264.0219259927294</v>
       </c>
       <c r="C198" t="n">
         <v>114.2101992503454</v>
       </c>
       <c r="D198" t="n">
-        <v>78.73671899219346</v>
+        <v>78.7367189921935</v>
       </c>
     </row>
     <row r="199">
@@ -3218,13 +3218,13 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>263.6818194628408</v>
+        <v>263.6818194628419</v>
       </c>
       <c r="C199" t="n">
-        <v>114.1643322154272</v>
+        <v>114.1643322154273</v>
       </c>
       <c r="D199" t="n">
-        <v>78.71265112870954</v>
+        <v>78.71265112870958</v>
       </c>
     </row>
     <row r="200">
@@ -3232,13 +3232,13 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>263.3417129329532</v>
+        <v>263.3417129329544</v>
       </c>
       <c r="C200" t="n">
         <v>114.1184651805091</v>
       </c>
       <c r="D200" t="n">
-        <v>78.68858326522562</v>
+        <v>78.68858326522566</v>
       </c>
     </row>
     <row r="201">
@@ -3246,13 +3246,13 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>263.0016064030657</v>
+        <v>263.0016064030667</v>
       </c>
       <c r="C201" t="n">
         <v>114.072598145591</v>
       </c>
       <c r="D201" t="n">
-        <v>78.6645154017417</v>
+        <v>78.66451540174174</v>
       </c>
     </row>
     <row r="202">
@@ -3260,13 +3260,13 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>262.6614998731782</v>
+        <v>262.6614998731792</v>
       </c>
       <c r="C202" t="n">
-        <v>114.0267311106728</v>
+        <v>114.0267311106729</v>
       </c>
       <c r="D202" t="n">
-        <v>78.64044753825777</v>
+        <v>78.6404475382578</v>
       </c>
     </row>
     <row r="203">
@@ -3274,13 +3274,13 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>262.3213933432907</v>
+        <v>262.3213933432917</v>
       </c>
       <c r="C203" t="n">
-        <v>113.9808640757547</v>
+        <v>113.9808640757548</v>
       </c>
       <c r="D203" t="n">
-        <v>78.61637967477384</v>
+        <v>78.6163796747739</v>
       </c>
     </row>
     <row r="204">
@@ -3288,13 +3288,13 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>261.981286813403</v>
+        <v>261.981286813404</v>
       </c>
       <c r="C204" t="n">
         <v>113.9349970408366</v>
       </c>
       <c r="D204" t="n">
-        <v>78.59231181128993</v>
+        <v>78.59231181128996</v>
       </c>
     </row>
     <row r="205">
@@ -3302,13 +3302,13 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>261.6411802835155</v>
+        <v>261.6411802835165</v>
       </c>
       <c r="C205" t="n">
-        <v>113.8891300059184</v>
+        <v>113.8891300059185</v>
       </c>
       <c r="D205" t="n">
-        <v>78.568243947806</v>
+        <v>78.56824394780605</v>
       </c>
     </row>
     <row r="206">
@@ -3316,13 +3316,13 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>261.301073753628</v>
+        <v>261.301073753629</v>
       </c>
       <c r="C206" t="n">
-        <v>113.8432629710003</v>
+        <v>113.8432629710004</v>
       </c>
       <c r="D206" t="n">
-        <v>78.54417608432209</v>
+        <v>78.54417608432212</v>
       </c>
     </row>
     <row r="207">
@@ -3330,13 +3330,13 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>260.9609672237405</v>
+        <v>260.9609672237415</v>
       </c>
       <c r="C207" t="n">
         <v>113.7973959360822</v>
       </c>
       <c r="D207" t="n">
-        <v>78.52010822083815</v>
+        <v>78.52010822083821</v>
       </c>
     </row>
     <row r="208">
@@ -3344,13 +3344,13 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>260.6208606938528</v>
+        <v>260.6208606938538</v>
       </c>
       <c r="C208" t="n">
         <v>113.7515289011641</v>
       </c>
       <c r="D208" t="n">
-        <v>78.49604035735425</v>
+        <v>78.49604035735427</v>
       </c>
     </row>
     <row r="209">
@@ -3358,13 +3358,13 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>260.2807541639653</v>
+        <v>260.2807541639663</v>
       </c>
       <c r="C209" t="n">
-        <v>113.7056618662459</v>
+        <v>113.705661866246</v>
       </c>
       <c r="D209" t="n">
-        <v>78.47197249387031</v>
+        <v>78.47197249387035</v>
       </c>
     </row>
     <row r="210">
@@ -3372,13 +3372,13 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>259.9406476340778</v>
+        <v>259.9406476340788</v>
       </c>
       <c r="C210" t="n">
         <v>113.6597948313278</v>
       </c>
       <c r="D210" t="n">
-        <v>78.4479046303864</v>
+        <v>78.44790463038643</v>
       </c>
     </row>
     <row r="211">
@@ -3386,13 +3386,13 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>259.6005411041903</v>
+        <v>259.6005411041912</v>
       </c>
       <c r="C211" t="n">
         <v>113.6139277964097</v>
       </c>
       <c r="D211" t="n">
-        <v>78.42383676690247</v>
+        <v>78.42383676690251</v>
       </c>
     </row>
     <row r="212">
@@ -3400,13 +3400,13 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>259.2604345743026</v>
+        <v>259.2604345743036</v>
       </c>
       <c r="C212" t="n">
-        <v>113.5680607614915</v>
+        <v>113.5680607614916</v>
       </c>
       <c r="D212" t="n">
-        <v>78.39976890341855</v>
+        <v>78.39976890341859</v>
       </c>
     </row>
     <row r="213">
@@ -3414,13 +3414,13 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>258.9203280444151</v>
+        <v>258.9203280444161</v>
       </c>
       <c r="C213" t="n">
         <v>113.5221937265734</v>
       </c>
       <c r="D213" t="n">
-        <v>78.37570103993463</v>
+        <v>78.37570103993467</v>
       </c>
     </row>
     <row r="214">
@@ -3428,13 +3428,13 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>258.5802215145276</v>
+        <v>258.5802215145285</v>
       </c>
       <c r="C214" t="n">
         <v>113.4763266916553</v>
       </c>
       <c r="D214" t="n">
-        <v>78.3516331764507</v>
+        <v>78.35163317645075</v>
       </c>
     </row>
     <row r="215">
@@ -3442,13 +3442,13 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>258.2401149846401</v>
+        <v>258.240114984641</v>
       </c>
       <c r="C215" t="n">
-        <v>113.4304596567371</v>
+        <v>113.4304596567372</v>
       </c>
       <c r="D215" t="n">
-        <v>78.32756531296678</v>
+        <v>78.32756531296683</v>
       </c>
     </row>
     <row r="216">
@@ -3456,13 +3456,13 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>257.9000084547524</v>
+        <v>257.9000084547534</v>
       </c>
       <c r="C216" t="n">
-        <v>113.384592621819</v>
+        <v>113.3845926218191</v>
       </c>
       <c r="D216" t="n">
-        <v>78.30349744948286</v>
+        <v>78.3034974494829</v>
       </c>
     </row>
     <row r="217">
@@ -3470,13 +3470,13 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>257.5599019248649</v>
+        <v>257.5599019248659</v>
       </c>
       <c r="C217" t="n">
         <v>113.3387255869009</v>
       </c>
       <c r="D217" t="n">
-        <v>78.27942958599894</v>
+        <v>78.27942958599897</v>
       </c>
     </row>
     <row r="218">
@@ -3484,13 +3484,13 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>257.2197953949774</v>
+        <v>257.2197953949783</v>
       </c>
       <c r="C218" t="n">
         <v>113.2928585519828</v>
       </c>
       <c r="D218" t="n">
-        <v>78.25536172251502</v>
+        <v>78.25536172251506</v>
       </c>
     </row>
     <row r="219">
@@ -3498,13 +3498,13 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>256.8796888650899</v>
+        <v>256.8796888650908</v>
       </c>
       <c r="C219" t="n">
-        <v>113.2469915170646</v>
+        <v>113.2469915170647</v>
       </c>
       <c r="D219" t="n">
-        <v>78.2312938590311</v>
+        <v>78.23129385903113</v>
       </c>
     </row>
     <row r="220">
@@ -3512,13 +3512,13 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>256.5395823352022</v>
+        <v>256.5395823352032</v>
       </c>
       <c r="C220" t="n">
         <v>113.2011244821465</v>
       </c>
       <c r="D220" t="n">
-        <v>78.20722599554718</v>
+        <v>78.20722599554722</v>
       </c>
     </row>
     <row r="221">
@@ -3526,13 +3526,13 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>256.1994758053147</v>
+        <v>256.1994758053156</v>
       </c>
       <c r="C221" t="n">
         <v>113.1552574472284</v>
       </c>
       <c r="D221" t="n">
-        <v>78.18315813206326</v>
+        <v>78.18315813206328</v>
       </c>
     </row>
     <row r="222">
@@ -3540,13 +3540,13 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>255.8593692754272</v>
+        <v>255.8593692754281</v>
       </c>
       <c r="C222" t="n">
-        <v>113.1093904123102</v>
+        <v>113.1093904123103</v>
       </c>
       <c r="D222" t="n">
-        <v>78.15909026857932</v>
+        <v>78.15909026857938</v>
       </c>
     </row>
     <row r="223">
@@ -3554,13 +3554,13 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>255.5192627455397</v>
+        <v>255.5192627455406</v>
       </c>
       <c r="C223" t="n">
         <v>113.0635233773921</v>
       </c>
       <c r="D223" t="n">
-        <v>78.13502240509541</v>
+        <v>78.13502240509544</v>
       </c>
     </row>
     <row r="224">
@@ -3568,13 +3568,13 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>255.179156215652</v>
+        <v>255.1791562156531</v>
       </c>
       <c r="C224" t="n">
         <v>113.017656342474</v>
       </c>
       <c r="D224" t="n">
-        <v>78.11095454161148</v>
+        <v>78.11095454161152</v>
       </c>
     </row>
     <row r="225">
@@ -3582,13 +3582,13 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>254.8390496857645</v>
+        <v>254.8390496857654</v>
       </c>
       <c r="C225" t="n">
-        <v>112.9717893075558</v>
+        <v>112.9717893075559</v>
       </c>
       <c r="D225" t="n">
-        <v>78.08688667812757</v>
+        <v>78.0868866781276</v>
       </c>
     </row>
     <row r="226">
@@ -3596,13 +3596,13 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>254.498943155877</v>
+        <v>254.4989431558779</v>
       </c>
       <c r="C226" t="n">
         <v>112.9259222726377</v>
       </c>
       <c r="D226" t="n">
-        <v>78.06281881464363</v>
+        <v>78.06281881464368</v>
       </c>
     </row>
     <row r="227">
@@ -3610,13 +3610,13 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>254.1588366259895</v>
+        <v>254.1588366259904</v>
       </c>
       <c r="C227" t="n">
         <v>112.8800552377196</v>
       </c>
       <c r="D227" t="n">
-        <v>78.03875095115973</v>
+        <v>78.03875095115976</v>
       </c>
     </row>
     <row r="228">
@@ -3624,13 +3624,13 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>253.8187300961018</v>
+        <v>253.8187300961027</v>
       </c>
       <c r="C228" t="n">
         <v>112.8341882028015</v>
       </c>
       <c r="D228" t="n">
-        <v>78.01468308767579</v>
+        <v>78.01468308767583</v>
       </c>
     </row>
     <row r="229">
@@ -3638,13 +3638,13 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>253.4786235662143</v>
+        <v>253.4786235662152</v>
       </c>
       <c r="C229" t="n">
-        <v>112.7883211678833</v>
+        <v>112.7883211678834</v>
       </c>
       <c r="D229" t="n">
-        <v>77.99061522419188</v>
+        <v>77.99061522419191</v>
       </c>
     </row>
     <row r="230">
@@ -3652,13 +3652,13 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>253.1385170363268</v>
+        <v>253.1385170363277</v>
       </c>
       <c r="C230" t="n">
         <v>112.7424541329652</v>
       </c>
       <c r="D230" t="n">
-        <v>77.96654736070795</v>
+        <v>77.96654736070799</v>
       </c>
     </row>
     <row r="231">
@@ -3666,13 +3666,13 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>252.7984105064393</v>
+        <v>252.7984105064401</v>
       </c>
       <c r="C231" t="n">
         <v>112.6965870980471</v>
       </c>
       <c r="D231" t="n">
-        <v>77.94247949722403</v>
+        <v>77.94247949722407</v>
       </c>
     </row>
     <row r="232">
@@ -3680,13 +3680,13 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>252.4583039765516</v>
+        <v>252.4583039765525</v>
       </c>
       <c r="C232" t="n">
-        <v>112.6507200631289</v>
+        <v>112.650720063129</v>
       </c>
       <c r="D232" t="n">
-        <v>77.91841163374011</v>
+        <v>77.91841163374013</v>
       </c>
     </row>
     <row r="233">
@@ -3694,13 +3694,13 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>252.1181974466641</v>
+        <v>252.118197446665</v>
       </c>
       <c r="C233" t="n">
         <v>112.6048530282108</v>
       </c>
       <c r="D233" t="n">
-        <v>77.89434377025619</v>
+        <v>77.89434377025623</v>
       </c>
     </row>
     <row r="234">
@@ -3708,13 +3708,13 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>251.7780909167766</v>
+        <v>251.7780909167775</v>
       </c>
       <c r="C234" t="n">
         <v>112.5589859932927</v>
       </c>
       <c r="D234" t="n">
-        <v>77.87027590677226</v>
+        <v>77.87027590677229</v>
       </c>
     </row>
     <row r="235">
@@ -3722,13 +3722,13 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>251.4379843868891</v>
+        <v>251.4379843868899</v>
       </c>
       <c r="C235" t="n">
-        <v>112.5131189583745</v>
+        <v>112.5131189583746</v>
       </c>
       <c r="D235" t="n">
-        <v>77.84620804328834</v>
+        <v>77.84620804328839</v>
       </c>
     </row>
     <row r="236">
@@ -3736,13 +3736,13 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>251.0978778570014</v>
+        <v>251.0978778570023</v>
       </c>
       <c r="C236" t="n">
         <v>112.4672519234564</v>
       </c>
       <c r="D236" t="n">
-        <v>77.82214017980442</v>
+        <v>77.82214017980445</v>
       </c>
     </row>
     <row r="237">
@@ -3750,13 +3750,13 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>250.7577713271139</v>
+        <v>250.7577713271148</v>
       </c>
       <c r="C237" t="n">
         <v>112.4213848885383</v>
       </c>
       <c r="D237" t="n">
-        <v>77.7980723163205</v>
+        <v>77.79807231632054</v>
       </c>
     </row>
     <row r="238">
@@ -3764,13 +3764,13 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>250.4176647972264</v>
+        <v>250.4176647972272</v>
       </c>
       <c r="C238" t="n">
         <v>112.3755178536202</v>
       </c>
       <c r="D238" t="n">
-        <v>77.77400445283658</v>
+        <v>77.77400445283661</v>
       </c>
     </row>
     <row r="239">
@@ -3778,13 +3778,13 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>250.0775582673389</v>
+        <v>250.0775582673397</v>
       </c>
       <c r="C239" t="n">
         <v>112.329650818702</v>
       </c>
       <c r="D239" t="n">
-        <v>77.74993658935264</v>
+        <v>77.74993658935269</v>
       </c>
     </row>
     <row r="240">
@@ -3792,13 +3792,13 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>249.7374517374512</v>
+        <v>249.7374517374521</v>
       </c>
       <c r="C240" t="n">
         <v>112.2837837837839</v>
       </c>
       <c r="D240" t="n">
-        <v>77.72586872586874</v>
+        <v>77.72586872586876</v>
       </c>
     </row>
     <row r="241">
@@ -3806,13 +3806,13 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>249.3973452075637</v>
+        <v>249.3973452075646</v>
       </c>
       <c r="C241" t="n">
         <v>112.2379167488658</v>
       </c>
       <c r="D241" t="n">
-        <v>77.7018008623848</v>
+        <v>77.70180086238484</v>
       </c>
     </row>
     <row r="242">
@@ -3820,13 +3820,13 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>249.0572386776762</v>
+        <v>249.057238677677</v>
       </c>
       <c r="C242" t="n">
-        <v>112.1920497139476</v>
+        <v>112.1920497139477</v>
       </c>
       <c r="D242" t="n">
-        <v>77.67773299890089</v>
+        <v>77.67773299890092</v>
       </c>
     </row>
     <row r="243">
@@ -3834,13 +3834,13 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>248.7171321477887</v>
+        <v>248.7171321477895</v>
       </c>
       <c r="C243" t="n">
         <v>112.1461826790295</v>
       </c>
       <c r="D243" t="n">
-        <v>77.65366513541696</v>
+        <v>77.653665135417</v>
       </c>
     </row>
     <row r="244">
@@ -3848,13 +3848,13 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>248.377025617901</v>
+        <v>248.3770256179019</v>
       </c>
       <c r="C244" t="n">
         <v>112.1003156441114</v>
       </c>
       <c r="D244" t="n">
-        <v>77.62959727193305</v>
+        <v>77.62959727193308</v>
       </c>
     </row>
     <row r="245">
@@ -3862,13 +3862,13 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>248.0369190880135</v>
+        <v>248.0369190880143</v>
       </c>
       <c r="C245" t="n">
-        <v>112.0544486091932</v>
+        <v>112.0544486091933</v>
       </c>
       <c r="D245" t="n">
-        <v>77.60552940844912</v>
+        <v>77.60552940844916</v>
       </c>
     </row>
     <row r="246">
@@ -3876,13 +3876,13 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>247.696812558126</v>
+        <v>247.6968125581268</v>
       </c>
       <c r="C246" t="n">
         <v>112.0085815742751</v>
       </c>
       <c r="D246" t="n">
-        <v>77.58146154496521</v>
+        <v>77.58146154496524</v>
       </c>
     </row>
     <row r="247">
@@ -3890,13 +3890,13 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>247.3567060282385</v>
+        <v>247.3567060282393</v>
       </c>
       <c r="C247" t="n">
         <v>111.962714539357</v>
       </c>
       <c r="D247" t="n">
-        <v>77.55739368148127</v>
+        <v>77.5573936814813</v>
       </c>
     </row>
     <row r="248">
@@ -3904,13 +3904,13 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>247.016599498351</v>
+        <v>247.0165994983516</v>
       </c>
       <c r="C248" t="n">
-        <v>111.9168475044388</v>
+        <v>111.9168475044389</v>
       </c>
       <c r="D248" t="n">
-        <v>77.53332581799735</v>
+        <v>77.53332581799739</v>
       </c>
     </row>
     <row r="249">
@@ -3918,13 +3918,13 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>246.6764929684633</v>
+        <v>246.6764929684641</v>
       </c>
       <c r="C249" t="n">
         <v>111.8709804695207</v>
       </c>
       <c r="D249" t="n">
-        <v>77.50925795451343</v>
+        <v>77.50925795451346</v>
       </c>
     </row>
     <row r="250">
@@ -3932,13 +3932,13 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>246.3363864385758</v>
+        <v>246.3363864385766</v>
       </c>
       <c r="C250" t="n">
         <v>111.8251134346026</v>
       </c>
       <c r="D250" t="n">
-        <v>77.48519009102951</v>
+        <v>77.48519009102955</v>
       </c>
     </row>
     <row r="251">
@@ -3946,13 +3946,13 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>245.9962799086883</v>
+        <v>245.9962799086891</v>
       </c>
       <c r="C251" t="n">
         <v>111.7792463996845</v>
       </c>
       <c r="D251" t="n">
-        <v>77.46112222754559</v>
+        <v>77.46112222754562</v>
       </c>
     </row>
     <row r="252">
@@ -3960,13 +3960,13 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>245.6561733788008</v>
+        <v>245.6561733788014</v>
       </c>
       <c r="C252" t="n">
         <v>111.7333793647663</v>
       </c>
       <c r="D252" t="n">
-        <v>77.43705436406167</v>
+        <v>77.43705436406171</v>
       </c>
     </row>
     <row r="253">
@@ -3974,13 +3974,13 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>245.3160668489131</v>
+        <v>245.3160668489139</v>
       </c>
       <c r="C253" t="n">
         <v>111.6875123298482</v>
       </c>
       <c r="D253" t="n">
-        <v>77.41298650057774</v>
+        <v>77.41298650057777</v>
       </c>
     </row>
     <row r="254">
@@ -3988,13 +3988,13 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>244.9759603190256</v>
+        <v>244.9759603190264</v>
       </c>
       <c r="C254" t="n">
         <v>111.6416452949301</v>
       </c>
       <c r="D254" t="n">
-        <v>77.38891863709382</v>
+        <v>77.38891863709385</v>
       </c>
     </row>
     <row r="255">
@@ -4002,13 +4002,13 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>244.6358537891381</v>
+        <v>244.6358537891388</v>
       </c>
       <c r="C255" t="n">
-        <v>111.5957782600119</v>
+        <v>111.595778260012</v>
       </c>
       <c r="D255" t="n">
-        <v>77.3648507736099</v>
+        <v>77.36485077360993</v>
       </c>
     </row>
     <row r="256">
@@ -4016,13 +4016,13 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>244.2957472592506</v>
+        <v>244.2957472592512</v>
       </c>
       <c r="C256" t="n">
         <v>111.5499112250938</v>
       </c>
       <c r="D256" t="n">
-        <v>77.34078291012598</v>
+        <v>77.34078291012601</v>
       </c>
     </row>
     <row r="257">
@@ -4030,13 +4030,13 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>243.9556407293629</v>
+        <v>243.9556407293637</v>
       </c>
       <c r="C257" t="n">
         <v>111.5040441901757</v>
       </c>
       <c r="D257" t="n">
-        <v>77.31671504664206</v>
+        <v>77.31671504664209</v>
       </c>
     </row>
     <row r="258">
@@ -4044,13 +4044,13 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>243.6155341994754</v>
+        <v>243.6155341994762</v>
       </c>
       <c r="C258" t="n">
-        <v>111.4581771552575</v>
+        <v>111.4581771552576</v>
       </c>
       <c r="D258" t="n">
-        <v>77.29264718315812</v>
+        <v>77.29264718315817</v>
       </c>
     </row>
     <row r="259">
@@ -4058,13 +4058,13 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>243.2754276695879</v>
+        <v>243.2754276695886</v>
       </c>
       <c r="C259" t="n">
         <v>111.4123101203394</v>
       </c>
       <c r="D259" t="n">
-        <v>77.26857931967422</v>
+        <v>77.26857931967425</v>
       </c>
     </row>
     <row r="260">
@@ -4072,13 +4072,13 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>242.9353211397004</v>
+        <v>242.935321139701</v>
       </c>
       <c r="C260" t="n">
         <v>111.3664430854213</v>
       </c>
       <c r="D260" t="n">
-        <v>77.24451145619028</v>
+        <v>77.24451145619032</v>
       </c>
     </row>
     <row r="261">
@@ -4086,13 +4086,13 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>242.5952146098127</v>
+        <v>242.5952146098135</v>
       </c>
       <c r="C261" t="n">
-        <v>111.3205760505031</v>
+        <v>111.3205760505032</v>
       </c>
       <c r="D261" t="n">
-        <v>77.22044359270637</v>
+        <v>77.2204435927064</v>
       </c>
     </row>
     <row r="262">
@@ -4100,13 +4100,13 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>242.2551080799252</v>
+        <v>242.2551080799259</v>
       </c>
       <c r="C262" t="n">
         <v>111.274709015585</v>
       </c>
       <c r="D262" t="n">
-        <v>77.19637572922244</v>
+        <v>77.19637572922247</v>
       </c>
     </row>
     <row r="263">
@@ -4114,13 +4114,13 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>241.9150015500377</v>
+        <v>241.9150015500384</v>
       </c>
       <c r="C263" t="n">
         <v>111.2288419806669</v>
       </c>
       <c r="D263" t="n">
-        <v>77.17230786573853</v>
+        <v>77.17230786573856</v>
       </c>
     </row>
     <row r="264">
@@ -4128,13 +4128,13 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>241.5748950201502</v>
+        <v>241.5748950201508</v>
       </c>
       <c r="C264" t="n">
         <v>111.1829749457488</v>
       </c>
       <c r="D264" t="n">
-        <v>77.1482400022546</v>
+        <v>77.14824000225462</v>
       </c>
     </row>
     <row r="265">
@@ -4142,13 +4142,13 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>241.2347884902625</v>
+        <v>241.2347884902632</v>
       </c>
       <c r="C265" t="n">
-        <v>111.1371079108306</v>
+        <v>111.1371079108307</v>
       </c>
       <c r="D265" t="n">
-        <v>77.12417213877069</v>
+        <v>77.12417213877072</v>
       </c>
     </row>
     <row r="266">
@@ -4156,13 +4156,13 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>240.894681960375</v>
+        <v>240.8946819603757</v>
       </c>
       <c r="C266" t="n">
         <v>111.0912408759125</v>
       </c>
       <c r="D266" t="n">
-        <v>77.10010427528675</v>
+        <v>77.10010427528678</v>
       </c>
     </row>
     <row r="267">
@@ -4170,13 +4170,13 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>240.5545754304875</v>
+        <v>240.5545754304882</v>
       </c>
       <c r="C267" t="n">
         <v>111.0453738409944</v>
       </c>
       <c r="D267" t="n">
-        <v>77.07603641180283</v>
+        <v>77.07603641180287</v>
       </c>
     </row>
     <row r="268">
@@ -4184,13 +4184,13 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>240.2144689006</v>
+        <v>240.2144689006007</v>
       </c>
       <c r="C268" t="n">
-        <v>110.9995068060762</v>
+        <v>110.9995068060763</v>
       </c>
       <c r="D268" t="n">
-        <v>77.05196854831891</v>
+        <v>77.05196854831894</v>
       </c>
     </row>
     <row r="269">
@@ -4198,13 +4198,13 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>239.8743623707123</v>
+        <v>239.874362370713</v>
       </c>
       <c r="C269" t="n">
         <v>110.9536397711581</v>
       </c>
       <c r="D269" t="n">
-        <v>77.02790068483499</v>
+        <v>77.02790068483502</v>
       </c>
     </row>
     <row r="270">
@@ -4212,13 +4212,13 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>239.5342558408248</v>
+        <v>239.5342558408255</v>
       </c>
       <c r="C270" t="n">
         <v>110.90777273624</v>
       </c>
       <c r="D270" t="n">
-        <v>77.00383282135107</v>
+        <v>77.0038328213511</v>
       </c>
     </row>
     <row r="271">
@@ -4226,13 +4226,13 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>239.1941493109373</v>
+        <v>239.194149310938</v>
       </c>
       <c r="C271" t="n">
-        <v>110.8619057013218</v>
+        <v>110.8619057013219</v>
       </c>
       <c r="D271" t="n">
-        <v>76.97976495786715</v>
+        <v>76.97976495786718</v>
       </c>
     </row>
     <row r="272">
@@ -4240,13 +4240,13 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>238.8540427810498</v>
+        <v>238.8540427810503</v>
       </c>
       <c r="C272" t="n">
         <v>110.8160386664037</v>
       </c>
       <c r="D272" t="n">
-        <v>76.95569709438323</v>
+        <v>76.95569709438325</v>
       </c>
     </row>
     <row r="273">
@@ -4254,13 +4254,13 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>238.5139362511621</v>
+        <v>238.5139362511628</v>
       </c>
       <c r="C273" t="n">
         <v>110.7701716314856</v>
       </c>
       <c r="D273" t="n">
-        <v>76.9316292308993</v>
+        <v>76.93162923089933</v>
       </c>
     </row>
     <row r="274">
@@ -4268,13 +4268,13 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>238.1738297212746</v>
+        <v>238.1738297212753</v>
       </c>
       <c r="C274" t="n">
-        <v>110.7243045965674</v>
+        <v>110.7243045965675</v>
       </c>
       <c r="D274" t="n">
-        <v>76.90756136741538</v>
+        <v>76.90756136741541</v>
       </c>
     </row>
     <row r="275">
@@ -4282,13 +4282,13 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>237.8337231913871</v>
+        <v>237.8337231913878</v>
       </c>
       <c r="C275" t="n">
         <v>110.6784375616493</v>
       </c>
       <c r="D275" t="n">
-        <v>76.88349350393145</v>
+        <v>76.88349350393149</v>
       </c>
     </row>
     <row r="276">
@@ -4296,13 +4296,13 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>237.4936166614996</v>
+        <v>237.4936166615001</v>
       </c>
       <c r="C276" t="n">
         <v>110.6325705267312</v>
       </c>
       <c r="D276" t="n">
-        <v>76.85942564044754</v>
+        <v>76.85942564044757</v>
       </c>
     </row>
     <row r="277">
@@ -4310,13 +4310,13 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>237.1535101316119</v>
+        <v>237.1535101316126</v>
       </c>
       <c r="C277" t="n">
         <v>110.5867034918131</v>
       </c>
       <c r="D277" t="n">
-        <v>76.8353577769636</v>
+        <v>76.83535777696363</v>
       </c>
     </row>
     <row r="278">
@@ -4324,13 +4324,13 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>236.8134036017244</v>
+        <v>236.8134036017251</v>
       </c>
       <c r="C278" t="n">
-        <v>110.5408364568949</v>
+        <v>110.540836456895</v>
       </c>
       <c r="D278" t="n">
-        <v>76.8112899134797</v>
+        <v>76.81128991347973</v>
       </c>
     </row>
     <row r="279">
@@ -4338,13 +4338,13 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>236.4732970718369</v>
+        <v>236.4732970718375</v>
       </c>
       <c r="C279" t="n">
         <v>110.4949694219768</v>
       </c>
       <c r="D279" t="n">
-        <v>76.78722204999576</v>
+        <v>76.78722204999579</v>
       </c>
     </row>
     <row r="280">
@@ -4352,13 +4352,13 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>236.1331905419494</v>
+        <v>236.1331905419499</v>
       </c>
       <c r="C280" t="n">
         <v>110.4491023870587</v>
       </c>
       <c r="D280" t="n">
-        <v>76.76315418651185</v>
+        <v>76.76315418651188</v>
       </c>
     </row>
     <row r="281">
@@ -4366,13 +4366,13 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>235.7930840120617</v>
+        <v>235.7930840120624</v>
       </c>
       <c r="C281" t="n">
-        <v>110.4032353521405</v>
+        <v>110.4032353521406</v>
       </c>
       <c r="D281" t="n">
-        <v>76.73908632302792</v>
+        <v>76.73908632302795</v>
       </c>
     </row>
     <row r="282">
@@ -4380,13 +4380,13 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>235.4529774821742</v>
+        <v>235.4529774821748</v>
       </c>
       <c r="C282" t="n">
         <v>110.3573683172224</v>
       </c>
       <c r="D282" t="n">
-        <v>76.71501845954401</v>
+        <v>76.71501845954404</v>
       </c>
     </row>
     <row r="283">
@@ -4394,13 +4394,13 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>235.1128709522867</v>
+        <v>235.1128709522873</v>
       </c>
       <c r="C283" t="n">
         <v>110.3115012823043</v>
       </c>
       <c r="D283" t="n">
-        <v>76.69095059606008</v>
+        <v>76.69095059606011</v>
       </c>
     </row>
     <row r="284">
@@ -4408,13 +4408,13 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>234.7727644223992</v>
+        <v>234.7727644223997</v>
       </c>
       <c r="C284" t="n">
-        <v>110.2656342473861</v>
+        <v>110.2656342473862</v>
       </c>
       <c r="D284" t="n">
-        <v>76.66688273257616</v>
+        <v>76.66688273257618</v>
       </c>
     </row>
     <row r="285">
@@ -4422,13 +4422,13 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>234.4326578925115</v>
+        <v>234.4326578925122</v>
       </c>
       <c r="C285" t="n">
         <v>110.219767212468</v>
       </c>
       <c r="D285" t="n">
-        <v>76.64281486909223</v>
+        <v>76.64281486909226</v>
       </c>
     </row>
     <row r="286">
@@ -4436,13 +4436,13 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>234.092551362624</v>
+        <v>234.0925513626246</v>
       </c>
       <c r="C286" t="n">
         <v>110.1739001775499</v>
       </c>
       <c r="D286" t="n">
-        <v>76.61874700560831</v>
+        <v>76.61874700560834</v>
       </c>
     </row>
     <row r="287">
@@ -4450,13 +4450,13 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>233.7524448327365</v>
+        <v>233.7524448327371</v>
       </c>
       <c r="C287" t="n">
         <v>110.1280331426318</v>
       </c>
       <c r="D287" t="n">
-        <v>76.59467914212439</v>
+        <v>76.59467914212442</v>
       </c>
     </row>
     <row r="288">
@@ -4464,13 +4464,13 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>233.412338302849</v>
+        <v>233.4123383028495</v>
       </c>
       <c r="C288" t="n">
-        <v>110.0821661077136</v>
+        <v>110.0821661077137</v>
       </c>
       <c r="D288" t="n">
-        <v>76.57061127864047</v>
+        <v>76.5706112786405</v>
       </c>
     </row>
     <row r="289">
@@ -4478,13 +4478,13 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>233.0722317729613</v>
+        <v>233.0722317729619</v>
       </c>
       <c r="C289" t="n">
         <v>110.0362990727955</v>
       </c>
       <c r="D289" t="n">
-        <v>76.54654341515655</v>
+        <v>76.54654341515658</v>
       </c>
     </row>
     <row r="290">
@@ -4492,13 +4492,13 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>232.7321252430738</v>
+        <v>232.7321252430744</v>
       </c>
       <c r="C290" t="n">
         <v>109.9904320378774</v>
       </c>
       <c r="D290" t="n">
-        <v>76.52247555167263</v>
+        <v>76.52247555167266</v>
       </c>
     </row>
     <row r="291">
@@ -4506,13 +4506,13 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>232.3920187131863</v>
+        <v>232.3920187131869</v>
       </c>
       <c r="C291" t="n">
-        <v>109.9445650029592</v>
+        <v>109.9445650029593</v>
       </c>
       <c r="D291" t="n">
-        <v>76.49840768818871</v>
+        <v>76.49840768818873</v>
       </c>
     </row>
     <row r="292">
@@ -4520,13 +4520,13 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>232.0519121832988</v>
+        <v>232.0519121832994</v>
       </c>
       <c r="C292" t="n">
         <v>109.8986979680411</v>
       </c>
       <c r="D292" t="n">
-        <v>76.47433982470478</v>
+        <v>76.4743398247048</v>
       </c>
     </row>
     <row r="293">
@@ -4534,13 +4534,13 @@
         <v>1890</v>
       </c>
       <c r="B293" t="n">
-        <v>232.0519121832988</v>
+        <v>232.0519121832994</v>
       </c>
       <c r="C293" t="n">
         <v>109.8986979680411</v>
       </c>
       <c r="D293" t="n">
-        <v>76.47433982470478</v>
+        <v>76.4743398247048</v>
       </c>
     </row>
     <row r="294">
@@ -4548,13 +4548,13 @@
         <v>1891</v>
       </c>
       <c r="B294" t="n">
-        <v>231.7118056534111</v>
+        <v>231.7118056534117</v>
       </c>
       <c r="C294" t="n">
         <v>109.852830933123</v>
       </c>
       <c r="D294" t="n">
-        <v>76.45027196122086</v>
+        <v>76.45027196122089</v>
       </c>
     </row>
     <row r="295">
@@ -4562,13 +4562,13 @@
         <v>1892</v>
       </c>
       <c r="B295" t="n">
-        <v>231.3716991235236</v>
+        <v>231.3716991235242</v>
       </c>
       <c r="C295" t="n">
-        <v>109.8069638982048</v>
+        <v>109.8069638982049</v>
       </c>
       <c r="D295" t="n">
-        <v>76.42620409773693</v>
+        <v>76.42620409773696</v>
       </c>
     </row>
     <row r="296">
@@ -4576,13 +4576,13 @@
         <v>1893</v>
       </c>
       <c r="B296" t="n">
-        <v>231.0315925936361</v>
+        <v>231.0315925936367</v>
       </c>
       <c r="C296" t="n">
         <v>109.7610968632867</v>
       </c>
       <c r="D296" t="n">
-        <v>76.40213623425302</v>
+        <v>76.40213623425305</v>
       </c>
     </row>
     <row r="297">
@@ -4590,13 +4590,13 @@
         <v>1894</v>
       </c>
       <c r="B297" t="n">
-        <v>230.6914860637486</v>
+        <v>230.691486063749</v>
       </c>
       <c r="C297" t="n">
         <v>109.7152298283686</v>
       </c>
       <c r="D297" t="n">
-        <v>76.37806837076909</v>
+        <v>76.37806837076911</v>
       </c>
     </row>
     <row r="298">
@@ -4604,13 +4604,13 @@
         <v>1895</v>
       </c>
       <c r="B298" t="n">
-        <v>230.3513795338611</v>
+        <v>230.3513795338615</v>
       </c>
       <c r="C298" t="n">
-        <v>109.6693627934504</v>
+        <v>109.6693627934505</v>
       </c>
       <c r="D298" t="n">
-        <v>76.35400050728518</v>
+        <v>76.35400050728521</v>
       </c>
     </row>
     <row r="299">
@@ -4618,13 +4618,13 @@
         <v>1896</v>
       </c>
       <c r="B299" t="n">
-        <v>230.0112730039734</v>
+        <v>230.011273003974</v>
       </c>
       <c r="C299" t="n">
         <v>109.6234957585323</v>
       </c>
       <c r="D299" t="n">
-        <v>76.32993264380124</v>
+        <v>76.32993264380127</v>
       </c>
     </row>
     <row r="300">
@@ -4632,13 +4632,13 @@
         <v>1897</v>
       </c>
       <c r="B300" t="n">
-        <v>229.6711664740859</v>
+        <v>229.6711664740864</v>
       </c>
       <c r="C300" t="n">
         <v>109.5776287236142</v>
       </c>
       <c r="D300" t="n">
-        <v>76.30586478031734</v>
+        <v>76.30586478031735</v>
       </c>
     </row>
     <row r="301">
@@ -4646,13 +4646,13 @@
         <v>1898</v>
       </c>
       <c r="B301" t="n">
-        <v>229.3310599441984</v>
+        <v>229.3310599441988</v>
       </c>
       <c r="C301" t="n">
         <v>109.5317616886961</v>
       </c>
       <c r="D301" t="n">
-        <v>76.2817969168334</v>
+        <v>76.28179691683343</v>
       </c>
     </row>
     <row r="302">
@@ -4660,13 +4660,13 @@
         <v>1899</v>
       </c>
       <c r="B302" t="n">
-        <v>228.9909534143109</v>
+        <v>228.9909534143113</v>
       </c>
       <c r="C302" t="n">
-        <v>109.4858946537779</v>
+        <v>109.485894653778</v>
       </c>
       <c r="D302" t="n">
-        <v>76.25772905334949</v>
+        <v>76.25772905334951</v>
       </c>
     </row>
     <row r="303">
@@ -4674,13 +4674,13 @@
         <v>1900</v>
       </c>
       <c r="B303" t="n">
-        <v>228.6508468844232</v>
+        <v>228.6508468844238</v>
       </c>
       <c r="C303" t="n">
         <v>109.4400276188598</v>
       </c>
       <c r="D303" t="n">
-        <v>76.23366118986556</v>
+        <v>76.23366118986559</v>
       </c>
     </row>
     <row r="304">
@@ -4688,13 +4688,13 @@
         <v>1901</v>
       </c>
       <c r="B304" t="n">
-        <v>228.3107403545357</v>
+        <v>228.3107403545362</v>
       </c>
       <c r="C304" t="n">
         <v>109.3941605839417</v>
       </c>
       <c r="D304" t="n">
-        <v>76.20959332638164</v>
+        <v>76.20959332638166</v>
       </c>
     </row>
     <row r="305">
@@ -4702,13 +4702,13 @@
         <v>1902</v>
       </c>
       <c r="B305" t="n">
-        <v>227.9706338246482</v>
+        <v>227.9706338246486</v>
       </c>
       <c r="C305" t="n">
-        <v>109.3482935490235</v>
+        <v>109.3482935490236</v>
       </c>
       <c r="D305" t="n">
-        <v>76.18552546289771</v>
+        <v>76.18552546289774</v>
       </c>
     </row>
     <row r="306">
@@ -4716,13 +4716,13 @@
         <v>1903</v>
       </c>
       <c r="B306" t="n">
-        <v>227.6305272947607</v>
+        <v>227.6305272947611</v>
       </c>
       <c r="C306" t="n">
         <v>109.3024265141054</v>
       </c>
       <c r="D306" t="n">
-        <v>76.16145759941379</v>
+        <v>76.16145759941382</v>
       </c>
     </row>
     <row r="307">
@@ -4730,13 +4730,13 @@
         <v>1904</v>
       </c>
       <c r="B307" t="n">
-        <v>227.290420764873</v>
+        <v>227.2904207648735</v>
       </c>
       <c r="C307" t="n">
         <v>109.2565594791873</v>
       </c>
       <c r="D307" t="n">
-        <v>76.13738973592987</v>
+        <v>76.1373897359299</v>
       </c>
     </row>
     <row r="308">
@@ -4744,13 +4744,13 @@
         <v>1905</v>
       </c>
       <c r="B308" t="n">
-        <v>226.9503142349855</v>
+        <v>226.950314234986</v>
       </c>
       <c r="C308" t="n">
-        <v>109.2106924442691</v>
+        <v>109.2106924442692</v>
       </c>
       <c r="D308" t="n">
-        <v>76.11332187244595</v>
+        <v>76.11332187244597</v>
       </c>
     </row>
     <row r="309">
@@ -4758,13 +4758,13 @@
         <v>1906</v>
       </c>
       <c r="B309" t="n">
-        <v>226.610207705098</v>
+        <v>226.6102077050984</v>
       </c>
       <c r="C309" t="n">
         <v>109.164825409351</v>
       </c>
       <c r="D309" t="n">
-        <v>76.08925400896203</v>
+        <v>76.08925400896206</v>
       </c>
     </row>
     <row r="310">
@@ -4772,13 +4772,13 @@
         <v>1907</v>
       </c>
       <c r="B310" t="n">
-        <v>226.2701011752105</v>
+        <v>226.2701011752109</v>
       </c>
       <c r="C310" t="n">
         <v>109.1189583744329</v>
       </c>
       <c r="D310" t="n">
-        <v>76.06518614547811</v>
+        <v>76.06518614547812</v>
       </c>
     </row>
     <row r="311">
@@ -4786,13 +4786,13 @@
         <v>1908</v>
       </c>
       <c r="B311" t="n">
-        <v>225.9299946453228</v>
+        <v>225.9299946453233</v>
       </c>
       <c r="C311" t="n">
-        <v>109.0730913395147</v>
+        <v>109.0730913395148</v>
       </c>
       <c r="D311" t="n">
-        <v>76.04111828199419</v>
+        <v>76.04111828199422</v>
       </c>
     </row>
     <row r="312">
@@ -4800,13 +4800,13 @@
         <v>1909</v>
       </c>
       <c r="B312" t="n">
-        <v>225.5898881154353</v>
+        <v>225.5898881154358</v>
       </c>
       <c r="C312" t="n">
-        <v>109.0272243045966</v>
+        <v>109.0272243045967</v>
       </c>
       <c r="D312" t="n">
-        <v>76.01705041851025</v>
+        <v>76.01705041851028</v>
       </c>
     </row>
     <row r="313">
@@ -4814,13 +4814,13 @@
         <v>1910</v>
       </c>
       <c r="B313" t="n">
-        <v>225.2497815855478</v>
+        <v>225.2497815855482</v>
       </c>
       <c r="C313" t="n">
         <v>108.9813572696785</v>
       </c>
       <c r="D313" t="n">
-        <v>75.99298255502634</v>
+        <v>75.99298255502637</v>
       </c>
     </row>
     <row r="314">
@@ -4828,13 +4828,13 @@
         <v>1911</v>
       </c>
       <c r="B314" t="n">
-        <v>224.9096750556603</v>
+        <v>224.9096750556606</v>
       </c>
       <c r="C314" t="n">
         <v>108.9354902347604</v>
       </c>
       <c r="D314" t="n">
-        <v>75.96891469154241</v>
+        <v>75.96891469154244</v>
       </c>
     </row>
     <row r="315">
@@ -4842,13 +4842,13 @@
         <v>1912</v>
       </c>
       <c r="B315" t="n">
-        <v>224.5695685257726</v>
+        <v>224.5695685257731</v>
       </c>
       <c r="C315" t="n">
-        <v>108.8896231998422</v>
+        <v>108.8896231998423</v>
       </c>
       <c r="D315" t="n">
-        <v>75.9448468280585</v>
+        <v>75.94484682805852</v>
       </c>
     </row>
     <row r="316">
@@ -4856,13 +4856,13 @@
         <v>1913</v>
       </c>
       <c r="B316" t="n">
-        <v>224.2294619958851</v>
+        <v>224.2294619958856</v>
       </c>
       <c r="C316" t="n">
         <v>108.8437561649241</v>
       </c>
       <c r="D316" t="n">
-        <v>75.92077896457457</v>
+        <v>75.92077896457459</v>
       </c>
     </row>
     <row r="317">
@@ -4870,13 +4870,13 @@
         <v>1914</v>
       </c>
       <c r="B317" t="n">
-        <v>223.8893554659976</v>
+        <v>223.8893554659979</v>
       </c>
       <c r="C317" t="n">
         <v>108.797889130006</v>
       </c>
       <c r="D317" t="n">
-        <v>75.89671110109066</v>
+        <v>75.89671110109067</v>
       </c>
     </row>
     <row r="318">
@@ -4884,13 +4884,13 @@
         <v>1915</v>
       </c>
       <c r="B318" t="n">
-        <v>223.5492489361101</v>
+        <v>223.5492489361104</v>
       </c>
       <c r="C318" t="n">
-        <v>108.7520220950878</v>
+        <v>108.7520220950879</v>
       </c>
       <c r="D318" t="n">
-        <v>75.87264323760672</v>
+        <v>75.87264323760675</v>
       </c>
     </row>
     <row r="319">
@@ -4898,13 +4898,13 @@
         <v>1916</v>
       </c>
       <c r="B319" t="n">
-        <v>223.2091424062224</v>
+        <v>223.2091424062229</v>
       </c>
       <c r="C319" t="n">
         <v>108.7061550601697</v>
       </c>
       <c r="D319" t="n">
-        <v>75.84857537412282</v>
+        <v>75.84857537412283</v>
       </c>
     </row>
     <row r="320">
@@ -4912,13 +4912,13 @@
         <v>1917</v>
       </c>
       <c r="B320" t="n">
-        <v>222.8690358763349</v>
+        <v>222.8690358763354</v>
       </c>
       <c r="C320" t="n">
         <v>108.6602880252516</v>
       </c>
       <c r="D320" t="n">
-        <v>75.82450751063888</v>
+        <v>75.82450751063891</v>
       </c>
     </row>
     <row r="321">
@@ -4926,13 +4926,13 @@
         <v>1918</v>
       </c>
       <c r="B321" t="n">
-        <v>222.5289293464474</v>
+        <v>222.5289293464477</v>
       </c>
       <c r="C321" t="n">
-        <v>108.6144209903334</v>
+        <v>108.6144209903335</v>
       </c>
       <c r="D321" t="n">
-        <v>75.80043964715496</v>
+        <v>75.80043964715499</v>
       </c>
     </row>
     <row r="322">
@@ -4940,13 +4940,13 @@
         <v>1919</v>
       </c>
       <c r="B322" t="n">
-        <v>222.1888228165599</v>
+        <v>222.1888228165602</v>
       </c>
       <c r="C322" t="n">
         <v>108.5685539554153</v>
       </c>
       <c r="D322" t="n">
-        <v>75.77637178367104</v>
+        <v>75.77637178367107</v>
       </c>
     </row>
     <row r="323">
@@ -4954,13 +4954,13 @@
         <v>1920</v>
       </c>
       <c r="B323" t="n">
-        <v>221.8487162866722</v>
+        <v>221.8487162866727</v>
       </c>
       <c r="C323" t="n">
         <v>108.5226869204972</v>
       </c>
       <c r="D323" t="n">
-        <v>75.75230392018712</v>
+        <v>75.75230392018713</v>
       </c>
     </row>
     <row r="324">
@@ -4968,13 +4968,13 @@
         <v>1921</v>
       </c>
       <c r="B324" t="n">
-        <v>221.5086097567847</v>
+        <v>221.5086097567851</v>
       </c>
       <c r="C324" t="n">
         <v>108.4768198855791</v>
       </c>
       <c r="D324" t="n">
-        <v>75.7282360567032</v>
+        <v>75.72823605670322</v>
       </c>
     </row>
     <row r="325">
@@ -4982,13 +4982,13 @@
         <v>1922</v>
       </c>
       <c r="B325" t="n">
-        <v>221.1685032268972</v>
+        <v>221.1685032268975</v>
       </c>
       <c r="C325" t="n">
-        <v>108.4309528506609</v>
+        <v>108.430952850661</v>
       </c>
       <c r="D325" t="n">
-        <v>75.70416819321927</v>
+        <v>75.70416819321929</v>
       </c>
     </row>
     <row r="326">
@@ -4996,13 +4996,13 @@
         <v>1923</v>
       </c>
       <c r="B326" t="n">
-        <v>220.8283966970097</v>
+        <v>220.82839669701</v>
       </c>
       <c r="C326" t="n">
         <v>108.3850858157428</v>
       </c>
       <c r="D326" t="n">
-        <v>75.68010032973535</v>
+        <v>75.68010032973538</v>
       </c>
     </row>
     <row r="327">
@@ -5010,13 +5010,13 @@
         <v>1924</v>
       </c>
       <c r="B327" t="n">
-        <v>220.488290167122</v>
+        <v>220.4882901671225</v>
       </c>
       <c r="C327" t="n">
         <v>108.3392187808247</v>
       </c>
       <c r="D327" t="n">
-        <v>75.65603246625143</v>
+        <v>75.65603246625145</v>
       </c>
     </row>
     <row r="328">
@@ -5024,13 +5024,13 @@
         <v>1925</v>
       </c>
       <c r="B328" t="n">
-        <v>220.1481836372345</v>
+        <v>220.1481836372349</v>
       </c>
       <c r="C328" t="n">
-        <v>108.2933517459065</v>
+        <v>108.2933517459066</v>
       </c>
       <c r="D328" t="n">
-        <v>75.63196460276751</v>
+        <v>75.63196460276754</v>
       </c>
     </row>
     <row r="329">
@@ -5038,13 +5038,13 @@
         <v>1926</v>
       </c>
       <c r="B329" t="n">
-        <v>219.808077107347</v>
+        <v>219.8080771073473</v>
       </c>
       <c r="C329" t="n">
         <v>108.2474847109884</v>
       </c>
       <c r="D329" t="n">
-        <v>75.60789673928359</v>
+        <v>75.6078967392836</v>
       </c>
     </row>
     <row r="330">
@@ -5052,13 +5052,13 @@
         <v>1927</v>
       </c>
       <c r="B330" t="n">
-        <v>219.4679705774595</v>
+        <v>219.4679705774598</v>
       </c>
       <c r="C330" t="n">
         <v>108.2016176760703</v>
       </c>
       <c r="D330" t="n">
-        <v>75.58382887579967</v>
+        <v>75.58382887579968</v>
       </c>
     </row>
     <row r="331">
@@ -5066,13 +5066,13 @@
         <v>1928</v>
       </c>
       <c r="B331" t="n">
-        <v>219.1278640475718</v>
+        <v>219.1278640475722</v>
       </c>
       <c r="C331" t="n">
-        <v>108.1557506411521</v>
+        <v>108.1557506411522</v>
       </c>
       <c r="D331" t="n">
-        <v>75.55976101231573</v>
+        <v>75.55976101231576</v>
       </c>
     </row>
     <row r="332">
@@ -5080,13 +5080,13 @@
         <v>1929</v>
       </c>
       <c r="B332" t="n">
-        <v>218.7877575176843</v>
+        <v>218.7877575176847</v>
       </c>
       <c r="C332" t="n">
         <v>108.109883606234</v>
       </c>
       <c r="D332" t="n">
-        <v>75.53569314883183</v>
+        <v>75.53569314883184</v>
       </c>
     </row>
     <row r="333">
@@ -5094,13 +5094,13 @@
         <v>1930</v>
       </c>
       <c r="B333" t="n">
-        <v>218.4476509877968</v>
+        <v>218.4476509877971</v>
       </c>
       <c r="C333" t="n">
         <v>108.0640165713159</v>
       </c>
       <c r="D333" t="n">
-        <v>75.51162528534789</v>
+        <v>75.51162528534792</v>
       </c>
     </row>
     <row r="334">
@@ -5108,13 +5108,13 @@
         <v>1931</v>
       </c>
       <c r="B334" t="n">
-        <v>218.1075444579093</v>
+        <v>218.1075444579095</v>
       </c>
       <c r="C334" t="n">
         <v>108.0181495363978</v>
       </c>
       <c r="D334" t="n">
-        <v>75.48755742186398</v>
+        <v>75.487557421864</v>
       </c>
     </row>
     <row r="335">
@@ -5122,13 +5122,13 @@
         <v>1932</v>
       </c>
       <c r="B335" t="n">
-        <v>217.7674379280216</v>
+        <v>217.767437928022</v>
       </c>
       <c r="C335" t="n">
-        <v>107.9722825014796</v>
+        <v>107.9722825014797</v>
       </c>
       <c r="D335" t="n">
-        <v>75.46348955838005</v>
+        <v>75.46348955838008</v>
       </c>
     </row>
     <row r="336">
@@ -5136,7 +5136,7 @@
         <v>1933</v>
       </c>
       <c r="B336" t="n">
-        <v>217.4273313981341</v>
+        <v>217.4273313981345</v>
       </c>
       <c r="C336" t="n">
         <v>107.9264154665615</v>
@@ -5150,13 +5150,13 @@
         <v>1934</v>
       </c>
       <c r="B337" t="n">
-        <v>217.0872248682466</v>
+        <v>217.0872248682469</v>
       </c>
       <c r="C337" t="n">
         <v>107.8805484316434</v>
       </c>
       <c r="D337" t="n">
-        <v>75.4153538314122</v>
+        <v>75.41535383141223</v>
       </c>
     </row>
     <row r="338">
@@ -5164,10 +5164,10 @@
         <v>1935</v>
       </c>
       <c r="B338" t="n">
-        <v>216.7471183383591</v>
+        <v>216.7471183383593</v>
       </c>
       <c r="C338" t="n">
-        <v>107.8346813967252</v>
+        <v>107.8346813967253</v>
       </c>
       <c r="D338" t="n">
         <v>75.3912859679283</v>
@@ -5178,13 +5178,13 @@
         <v>1936</v>
       </c>
       <c r="B339" t="n">
-        <v>216.4070118084715</v>
+        <v>216.4070118084718</v>
       </c>
       <c r="C339" t="n">
         <v>107.7888143618071</v>
       </c>
       <c r="D339" t="n">
-        <v>75.36721810444436</v>
+        <v>75.36721810444439</v>
       </c>
     </row>
     <row r="340">
@@ -5192,13 +5192,13 @@
         <v>1937</v>
       </c>
       <c r="B340" t="n">
-        <v>216.0669052785839</v>
+        <v>216.0669052785843</v>
       </c>
       <c r="C340" t="n">
         <v>107.742947326889</v>
       </c>
       <c r="D340" t="n">
-        <v>75.34315024096044</v>
+        <v>75.34315024096045</v>
       </c>
     </row>
     <row r="341">
@@ -5206,13 +5206,13 @@
         <v>1938</v>
       </c>
       <c r="B341" t="n">
-        <v>215.7267987486964</v>
+        <v>215.7267987486966</v>
       </c>
       <c r="C341" t="n">
-        <v>107.6970802919708</v>
+        <v>107.6970802919709</v>
       </c>
       <c r="D341" t="n">
-        <v>75.31908237747652</v>
+        <v>75.31908237747655</v>
       </c>
     </row>
     <row r="342">
@@ -5220,13 +5220,13 @@
         <v>1939</v>
       </c>
       <c r="B342" t="n">
-        <v>215.3866922188089</v>
+        <v>215.3866922188091</v>
       </c>
       <c r="C342" t="n">
         <v>107.6512132570527</v>
       </c>
       <c r="D342" t="n">
-        <v>75.2950145139926</v>
+        <v>75.29501451399261</v>
       </c>
     </row>
     <row r="343">
@@ -5234,13 +5234,13 @@
         <v>1940</v>
       </c>
       <c r="B343" t="n">
-        <v>215.0465856889213</v>
+        <v>215.0465856889216</v>
       </c>
       <c r="C343" t="n">
         <v>107.6053462221346</v>
       </c>
       <c r="D343" t="n">
-        <v>75.27094665050868</v>
+        <v>75.27094665050871</v>
       </c>
     </row>
     <row r="344">
@@ -5248,13 +5248,13 @@
         <v>1941</v>
       </c>
       <c r="B344" t="n">
-        <v>214.7064791590337</v>
+        <v>214.7064791590341</v>
       </c>
       <c r="C344" t="n">
         <v>107.5594791872165</v>
       </c>
       <c r="D344" t="n">
-        <v>75.24687878702476</v>
+        <v>75.24687878702477</v>
       </c>
     </row>
     <row r="345">
@@ -5262,13 +5262,13 @@
         <v>1942</v>
       </c>
       <c r="B345" t="n">
-        <v>214.3663726291462</v>
+        <v>214.3663726291464</v>
       </c>
       <c r="C345" t="n">
-        <v>107.5136121522983</v>
+        <v>107.5136121522984</v>
       </c>
       <c r="D345" t="n">
-        <v>75.22281092354083</v>
+        <v>75.22281092354085</v>
       </c>
     </row>
     <row r="346">
@@ -5276,13 +5276,13 @@
         <v>1943</v>
       </c>
       <c r="B346" t="n">
-        <v>214.0262660992587</v>
+        <v>214.0262660992589</v>
       </c>
       <c r="C346" t="n">
         <v>107.4677451173802</v>
       </c>
       <c r="D346" t="n">
-        <v>75.19874306005691</v>
+        <v>75.19874306005693</v>
       </c>
     </row>
     <row r="347">
@@ -5290,13 +5290,13 @@
         <v>1944</v>
       </c>
       <c r="B347" t="n">
-        <v>213.6861595693711</v>
+        <v>213.6861595693714</v>
       </c>
       <c r="C347" t="n">
         <v>107.4218780824621</v>
       </c>
       <c r="D347" t="n">
-        <v>75.17467519657299</v>
+        <v>75.17467519657301</v>
       </c>
     </row>
     <row r="348">
@@ -5304,13 +5304,13 @@
         <v>1945</v>
       </c>
       <c r="B348" t="n">
-        <v>213.3460530394835</v>
+        <v>213.3460530394838</v>
       </c>
       <c r="C348" t="n">
-        <v>107.3760110475439</v>
+        <v>107.376011047544</v>
       </c>
       <c r="D348" t="n">
-        <v>75.15060733308906</v>
+        <v>75.15060733308908</v>
       </c>
     </row>
     <row r="349">
@@ -5318,13 +5318,13 @@
         <v>1946</v>
       </c>
       <c r="B349" t="n">
-        <v>213.005946509596</v>
+        <v>213.0059465095962</v>
       </c>
       <c r="C349" t="n">
         <v>107.3301440126258</v>
       </c>
       <c r="D349" t="n">
-        <v>75.12653946960515</v>
+        <v>75.12653946960516</v>
       </c>
     </row>
     <row r="350">
@@ -5332,13 +5332,13 @@
         <v>1947</v>
       </c>
       <c r="B350" t="n">
-        <v>212.6658399797085</v>
+        <v>212.6658399797087</v>
       </c>
       <c r="C350" t="n">
         <v>107.2842769777077</v>
       </c>
       <c r="D350" t="n">
-        <v>75.10247160612121</v>
+        <v>75.10247160612124</v>
       </c>
     </row>
     <row r="351">
@@ -5346,10 +5346,10 @@
         <v>1948</v>
       </c>
       <c r="B351" t="n">
-        <v>212.325733449821</v>
+        <v>212.3257334498211</v>
       </c>
       <c r="C351" t="n">
-        <v>107.2384099427895</v>
+        <v>107.2384099427896</v>
       </c>
       <c r="D351" t="n">
         <v>75.07840374263731</v>
@@ -5360,13 +5360,13 @@
         <v>1949</v>
       </c>
       <c r="B352" t="n">
-        <v>211.9856269199333</v>
+        <v>211.9856269199336</v>
       </c>
       <c r="C352" t="n">
         <v>107.1925429078714</v>
       </c>
       <c r="D352" t="n">
-        <v>75.05433587915337</v>
+        <v>75.0543358791534</v>
       </c>
     </row>
     <row r="353">
@@ -5374,7 +5374,7 @@
         <v>1950</v>
       </c>
       <c r="B353" t="n">
-        <v>211.6455203900458</v>
+        <v>211.645520390046</v>
       </c>
       <c r="C353" t="n">
         <v>107.1466758729533</v>
@@ -5388,13 +5388,13 @@
         <v>1951</v>
       </c>
       <c r="B354" t="n">
-        <v>211.3054138601583</v>
+        <v>211.3054138601585</v>
       </c>
       <c r="C354" t="n">
-        <v>107.1008088380351</v>
+        <v>107.1008088380352</v>
       </c>
       <c r="D354" t="n">
-        <v>75.00620015218553</v>
+        <v>75.00620015218556</v>
       </c>
     </row>
     <row r="355">
@@ -5402,7 +5402,7 @@
         <v>1952</v>
       </c>
       <c r="B355" t="n">
-        <v>210.9653073302708</v>
+        <v>210.9653073302709</v>
       </c>
       <c r="C355" t="n">
         <v>107.054941803117</v>
@@ -5416,13 +5416,13 @@
         <v>1953</v>
       </c>
       <c r="B356" t="n">
-        <v>210.6252008003831</v>
+        <v>210.6252008003834</v>
       </c>
       <c r="C356" t="n">
         <v>107.0090747681989</v>
       </c>
       <c r="D356" t="n">
-        <v>74.95806442521769</v>
+        <v>74.95806442521771</v>
       </c>
     </row>
     <row r="357">
@@ -5430,13 +5430,13 @@
         <v>1954</v>
       </c>
       <c r="B357" t="n">
-        <v>210.2850942704956</v>
+        <v>210.2850942704958</v>
       </c>
       <c r="C357" t="n">
         <v>106.9632077332808</v>
       </c>
       <c r="D357" t="n">
-        <v>74.93399656173376</v>
+        <v>74.93399656173378</v>
       </c>
     </row>
     <row r="358">
@@ -5444,13 +5444,13 @@
         <v>1955</v>
       </c>
       <c r="B358" t="n">
-        <v>209.9449877406081</v>
+        <v>209.9449877406082</v>
       </c>
       <c r="C358" t="n">
-        <v>106.9173406983626</v>
+        <v>106.9173406983627</v>
       </c>
       <c r="D358" t="n">
-        <v>74.90992869824984</v>
+        <v>74.90992869824987</v>
       </c>
     </row>
     <row r="359">
@@ -5458,13 +5458,13 @@
         <v>1956</v>
       </c>
       <c r="B359" t="n">
-        <v>209.6048812107206</v>
+        <v>209.6048812107207</v>
       </c>
       <c r="C359" t="n">
         <v>106.8714736634445</v>
       </c>
       <c r="D359" t="n">
-        <v>74.88586083476592</v>
+        <v>74.88586083476594</v>
       </c>
     </row>
     <row r="360">
@@ -5472,13 +5472,13 @@
         <v>1957</v>
       </c>
       <c r="B360" t="n">
-        <v>209.2647746808329</v>
+        <v>209.2647746808332</v>
       </c>
       <c r="C360" t="n">
         <v>106.8256066285264</v>
       </c>
       <c r="D360" t="n">
-        <v>74.861792971282</v>
+        <v>74.86179297128201</v>
       </c>
     </row>
     <row r="361">
@@ -5486,13 +5486,13 @@
         <v>1958</v>
       </c>
       <c r="B361" t="n">
-        <v>208.9246681509454</v>
+        <v>208.9246681509455</v>
       </c>
       <c r="C361" t="n">
-        <v>106.7797395936082</v>
+        <v>106.7797395936083</v>
       </c>
       <c r="D361" t="n">
-        <v>74.83772510779808</v>
+        <v>74.83772510779809</v>
       </c>
     </row>
     <row r="362">
@@ -5500,13 +5500,13 @@
         <v>1959</v>
       </c>
       <c r="B362" t="n">
-        <v>208.5845616210579</v>
+        <v>208.584561621058</v>
       </c>
       <c r="C362" t="n">
         <v>106.7338725586901</v>
       </c>
       <c r="D362" t="n">
-        <v>74.81365724431416</v>
+        <v>74.81365724431417</v>
       </c>
     </row>
     <row r="363">
@@ -5514,13 +5514,13 @@
         <v>1960</v>
       </c>
       <c r="B363" t="n">
-        <v>208.2444550911704</v>
+        <v>208.2444550911705</v>
       </c>
       <c r="C363" t="n">
         <v>106.688005523772</v>
       </c>
       <c r="D363" t="n">
-        <v>74.78958938083024</v>
+        <v>74.78958938083025</v>
       </c>
     </row>
     <row r="364">
@@ -5528,13 +5528,13 @@
         <v>1961</v>
       </c>
       <c r="B364" t="n">
-        <v>207.9043485612827</v>
+        <v>207.904348561283</v>
       </c>
       <c r="C364" t="n">
-        <v>106.6421384888538</v>
+        <v>106.6421384888539</v>
       </c>
       <c r="D364" t="n">
-        <v>74.76552151734631</v>
+        <v>74.76552151734633</v>
       </c>
     </row>
     <row r="365">
@@ -5542,13 +5542,13 @@
         <v>1962</v>
       </c>
       <c r="B365" t="n">
-        <v>207.5642420313952</v>
+        <v>207.5642420313953</v>
       </c>
       <c r="C365" t="n">
         <v>106.5962714539357</v>
       </c>
       <c r="D365" t="n">
-        <v>74.74145365386239</v>
+        <v>74.74145365386241</v>
       </c>
     </row>
     <row r="366">
@@ -5556,7 +5556,7 @@
         <v>1963</v>
       </c>
       <c r="B366" t="n">
-        <v>207.2241355015077</v>
+        <v>207.2241355015078</v>
       </c>
       <c r="C366" t="n">
         <v>106.5504044190176</v>
@@ -5570,13 +5570,13 @@
         <v>1964</v>
       </c>
       <c r="B367" t="n">
-        <v>206.8840289716202</v>
+        <v>206.8840289716203</v>
       </c>
       <c r="C367" t="n">
         <v>106.5045373840995</v>
       </c>
       <c r="D367" t="n">
-        <v>74.69331792689454</v>
+        <v>74.69331792689457</v>
       </c>
     </row>
     <row r="368">
@@ -5584,7 +5584,7 @@
         <v>1965</v>
       </c>
       <c r="B368" t="n">
-        <v>206.5439224417325</v>
+        <v>206.5439224417327</v>
       </c>
       <c r="C368" t="n">
         <v>106.4586703491813</v>
@@ -5598,13 +5598,13 @@
         <v>1966</v>
       </c>
       <c r="B369" t="n">
-        <v>206.203815911845</v>
+        <v>206.2038159118451</v>
       </c>
       <c r="C369" t="n">
         <v>106.4128033142632</v>
       </c>
       <c r="D369" t="n">
-        <v>74.64518219992669</v>
+        <v>74.64518219992672</v>
       </c>
     </row>
     <row r="370">
@@ -5612,7 +5612,7 @@
         <v>1967</v>
       </c>
       <c r="B370" t="n">
-        <v>205.8637093819575</v>
+        <v>205.8637093819576</v>
       </c>
       <c r="C370" t="n">
         <v>106.3669362793451</v>
@@ -5626,13 +5626,13 @@
         <v>1968</v>
       </c>
       <c r="B371" t="n">
-        <v>205.52360285207</v>
+        <v>205.5236028520701</v>
       </c>
       <c r="C371" t="n">
-        <v>106.3210692444269</v>
+        <v>106.321069244427</v>
       </c>
       <c r="D371" t="n">
-        <v>74.59704647295885</v>
+        <v>74.59704647295888</v>
       </c>
     </row>
     <row r="372">
@@ -5640,7 +5640,7 @@
         <v>1969</v>
       </c>
       <c r="B372" t="n">
-        <v>205.1834963221824</v>
+        <v>205.1834963221825</v>
       </c>
       <c r="C372" t="n">
         <v>106.2752022095088</v>
@@ -5654,13 +5654,13 @@
         <v>1970</v>
       </c>
       <c r="B373" t="n">
-        <v>204.8433897922948</v>
+        <v>204.8433897922949</v>
       </c>
       <c r="C373" t="n">
         <v>106.2293351745907</v>
       </c>
       <c r="D373" t="n">
-        <v>74.54891074599101</v>
+        <v>74.54891074599104</v>
       </c>
     </row>
     <row r="374">
@@ -5668,10 +5668,10 @@
         <v>1971</v>
       </c>
       <c r="B374" t="n">
-        <v>204.5032832624073</v>
+        <v>204.5032832624074</v>
       </c>
       <c r="C374" t="n">
-        <v>106.1834681396725</v>
+        <v>106.1834681396726</v>
       </c>
       <c r="D374" t="n">
         <v>74.5248428825071</v>
@@ -5688,7 +5688,7 @@
         <v>106.1376011047544</v>
       </c>
       <c r="D375" t="n">
-        <v>74.50077501902317</v>
+        <v>74.50077501902318</v>
       </c>
     </row>
     <row r="376">
@@ -5696,13 +5696,13 @@
         <v>1973</v>
       </c>
       <c r="B376" t="n">
-        <v>203.8230702026322</v>
+        <v>203.8230702026323</v>
       </c>
       <c r="C376" t="n">
         <v>106.0917340698363</v>
       </c>
       <c r="D376" t="n">
-        <v>74.47670715553924</v>
+        <v>74.47670715553926</v>
       </c>
     </row>
     <row r="377">
@@ -5710,13 +5710,13 @@
         <v>1974</v>
       </c>
       <c r="B377" t="n">
-        <v>203.4829636727446</v>
+        <v>203.4829636727447</v>
       </c>
       <c r="C377" t="n">
-        <v>106.0458670349181</v>
+        <v>106.0458670349182</v>
       </c>
       <c r="D377" t="n">
-        <v>74.45263929205532</v>
+        <v>74.45263929205534</v>
       </c>
     </row>
     <row r="378">
@@ -5730,7 +5730,7 @@
         <v>106</v>
       </c>
       <c r="D378" t="n">
-        <v>74.4285714285714</v>
+        <v>74.42857142857142</v>
       </c>
     </row>
     <row r="379">
@@ -5744,7 +5744,7 @@
         <v>105.9541329650819</v>
       </c>
       <c r="D379" t="n">
-        <v>74.40450356508748</v>
+        <v>74.4045035650875</v>
       </c>
     </row>
     <row r="380">
@@ -5752,13 +5752,13 @@
         <v>1977</v>
       </c>
       <c r="B380" t="n">
-        <v>202.462644083082</v>
+        <v>202.4626440830821</v>
       </c>
       <c r="C380" t="n">
         <v>105.9082659301638</v>
       </c>
       <c r="D380" t="n">
-        <v>74.38043570160356</v>
+        <v>74.38043570160357</v>
       </c>
     </row>
     <row r="381">
@@ -5766,7 +5766,7 @@
         <v>1978</v>
       </c>
       <c r="B381" t="n">
-        <v>202.1225375531944</v>
+        <v>202.1225375531945</v>
       </c>
       <c r="C381" t="n">
         <v>105.8623988952456</v>
@@ -5786,7 +5786,7 @@
         <v>105.8165318603275</v>
       </c>
       <c r="D382" t="n">
-        <v>74.33229997463572</v>
+        <v>74.33229997463573</v>
       </c>
     </row>
     <row r="383">
@@ -5808,13 +5808,13 @@
         <v>1981</v>
       </c>
       <c r="B384" t="n">
-        <v>201.1022179635318</v>
+        <v>201.1022179635319</v>
       </c>
       <c r="C384" t="n">
-        <v>105.7247977904912</v>
+        <v>105.7247977904913</v>
       </c>
       <c r="D384" t="n">
-        <v>74.28416424766786</v>
+        <v>74.28416424766789</v>
       </c>
     </row>
     <row r="385">
@@ -5842,7 +5842,7 @@
         <v>105.633063720655</v>
       </c>
       <c r="D386" t="n">
-        <v>74.23602852070002</v>
+        <v>74.23602852070005</v>
       </c>
     </row>
     <row r="387">
@@ -5853,7 +5853,7 @@
         <v>200.0818983738692</v>
       </c>
       <c r="C387" t="n">
-        <v>105.5871966857368</v>
+        <v>105.5871966857369</v>
       </c>
       <c r="D387" t="n">
         <v>74.21196065721611</v>
@@ -5864,13 +5864,13 @@
         <v>1985</v>
       </c>
       <c r="B388" t="n">
-        <v>199.7417918439816</v>
+        <v>199.7417918439817</v>
       </c>
       <c r="C388" t="n">
         <v>105.5413296508187</v>
       </c>
       <c r="D388" t="n">
-        <v>74.18789279373217</v>
+        <v>74.18789279373219</v>
       </c>
     </row>
     <row r="389">
@@ -5895,10 +5895,10 @@
         <v>199.0615787842065</v>
       </c>
       <c r="C390" t="n">
-        <v>105.4495955809824</v>
+        <v>105.4495955809825</v>
       </c>
       <c r="D390" t="n">
-        <v>74.13975706676433</v>
+        <v>74.13975706676435</v>
       </c>
     </row>
     <row r="391">
@@ -5926,7 +5926,7 @@
         <v>105.3578615111462</v>
       </c>
       <c r="D392" t="n">
-        <v>74.09162133979649</v>
+        <v>74.0916213397965</v>
       </c>
     </row>
     <row r="393">
@@ -5940,7 +5940,7 @@
         <v>105.3119944762281</v>
       </c>
       <c r="D393" t="n">
-        <v>74.06755347631257</v>
+        <v>74.06755347631258</v>
       </c>
     </row>
     <row r="394">
@@ -5954,7 +5954,7 @@
         <v>105.2661274413099</v>
       </c>
       <c r="D394" t="n">
-        <v>74.04348561282865</v>
+        <v>74.04348561282866</v>
       </c>
     </row>
     <row r="395">
@@ -5962,13 +5962,13 @@
         <v>1992</v>
       </c>
       <c r="B395" t="n">
-        <v>197.3610461347688</v>
+        <v>197.3610461347687</v>
       </c>
       <c r="C395" t="n">
         <v>105.2202604063918</v>
       </c>
       <c r="D395" t="n">
-        <v>74.01941774934473</v>
+        <v>74.01941774934474</v>
       </c>
     </row>
     <row r="396">
@@ -5993,10 +5993,10 @@
         <v>196.6808330749936</v>
       </c>
       <c r="C397" t="n">
-        <v>105.1285263365555</v>
+        <v>105.1285263365556</v>
       </c>
       <c r="D397" t="n">
-        <v>73.97128202237688</v>
+        <v>73.9712820223769</v>
       </c>
     </row>
     <row r="398">
@@ -6018,13 +6018,13 @@
         <v>1996</v>
       </c>
       <c r="B399" t="n">
-        <v>196.0006200152186</v>
+        <v>196.0006200152185</v>
       </c>
       <c r="C399" t="n">
         <v>105.0367922667193</v>
       </c>
       <c r="D399" t="n">
-        <v>73.92314629540904</v>
+        <v>73.92314629540905</v>
       </c>
     </row>
     <row r="400">
@@ -6032,10 +6032,10 @@
         <v>1997</v>
       </c>
       <c r="B400" t="n">
-        <v>195.6605134853311</v>
+        <v>195.660513485331</v>
       </c>
       <c r="C400" t="n">
-        <v>104.9909252318011</v>
+        <v>104.9909252318012</v>
       </c>
       <c r="D400" t="n">
         <v>73.89907843192512</v>
@@ -6052,7 +6052,7 @@
         <v>104.945058196883</v>
       </c>
       <c r="D401" t="n">
-        <v>73.8750105684412</v>
+        <v>73.87501056844121</v>
       </c>
     </row>
     <row r="402">
@@ -6060,7 +6060,7 @@
         <v>1999</v>
       </c>
       <c r="B402" t="n">
-        <v>194.9803004255559</v>
+        <v>194.9803004255558</v>
       </c>
       <c r="C402" t="n">
         <v>104.8991911619649</v>
@@ -6074,13 +6074,13 @@
         <v>2000</v>
       </c>
       <c r="B403" t="n">
-        <v>194.6401938956684</v>
+        <v>194.6401938956683</v>
       </c>
       <c r="C403" t="n">
-        <v>104.8533241270467</v>
+        <v>104.8533241270468</v>
       </c>
       <c r="D403" t="n">
-        <v>73.82687484147334</v>
+        <v>73.82687484147336</v>
       </c>
     </row>
     <row r="404">
@@ -6088,7 +6088,7 @@
         <v>2001</v>
       </c>
       <c r="B404" t="n">
-        <v>194.3000873657809</v>
+        <v>194.3000873657808</v>
       </c>
       <c r="C404" t="n">
         <v>104.8074570921286</v>
@@ -6108,7 +6108,7 @@
         <v>104.7615900572105</v>
       </c>
       <c r="D405" t="n">
-        <v>73.7787391145055</v>
+        <v>73.77873911450551</v>
       </c>
     </row>
     <row r="406">
@@ -6116,7 +6116,7 @@
         <v>2003</v>
       </c>
       <c r="B406" t="n">
-        <v>193.6198743060057</v>
+        <v>193.6198743060056</v>
       </c>
       <c r="C406" t="n">
         <v>104.7157230222924</v>
@@ -6130,13 +6130,13 @@
         <v>2004</v>
       </c>
       <c r="B407" t="n">
-        <v>193.2797677761182</v>
+        <v>193.2797677761181</v>
       </c>
       <c r="C407" t="n">
         <v>104.6698559873742</v>
       </c>
       <c r="D407" t="n">
-        <v>73.73060338753766</v>
+        <v>73.73060338753767</v>
       </c>
     </row>
     <row r="408">
@@ -6144,7 +6144,7 @@
         <v>2005</v>
       </c>
       <c r="B408" t="n">
-        <v>192.9396612462307</v>
+        <v>192.9396612462306</v>
       </c>
       <c r="C408" t="n">
         <v>104.6239889524561</v>
@@ -6158,13 +6158,13 @@
         <v>2006</v>
       </c>
       <c r="B409" t="n">
-        <v>192.5995547163431</v>
+        <v>192.5995547163429</v>
       </c>
       <c r="C409" t="n">
         <v>104.578121917538</v>
       </c>
       <c r="D409" t="n">
-        <v>73.68246766056981</v>
+        <v>73.68246766056983</v>
       </c>
     </row>
     <row r="410">
@@ -6172,10 +6172,10 @@
         <v>2007</v>
       </c>
       <c r="B410" t="n">
-        <v>192.2594481864555</v>
+        <v>192.2594481864554</v>
       </c>
       <c r="C410" t="n">
-        <v>104.5322548826198</v>
+        <v>104.5322548826199</v>
       </c>
       <c r="D410" t="n">
         <v>73.65839979708591</v>
@@ -6186,7 +6186,7 @@
         <v>2008</v>
       </c>
       <c r="B411" t="n">
-        <v>191.919341656568</v>
+        <v>191.9193416565679</v>
       </c>
       <c r="C411" t="n">
         <v>104.4863878477017</v>
@@ -6200,13 +6200,13 @@
         <v>2009</v>
       </c>
       <c r="B412" t="n">
-        <v>191.5792351266805</v>
+        <v>191.5792351266803</v>
       </c>
       <c r="C412" t="n">
         <v>104.4405208127836</v>
       </c>
       <c r="D412" t="n">
-        <v>73.61026407011805</v>
+        <v>73.61026407011806</v>
       </c>
     </row>
     <row r="413">
@@ -6214,10 +6214,10 @@
         <v>2010</v>
       </c>
       <c r="B413" t="n">
-        <v>191.2391285967929</v>
+        <v>191.2391285967927</v>
       </c>
       <c r="C413" t="n">
-        <v>104.3946537778654</v>
+        <v>104.3946537778655</v>
       </c>
       <c r="D413" t="n">
         <v>73.58619620663413</v>
@@ -6228,13 +6228,13 @@
         <v>2011</v>
       </c>
       <c r="B414" t="n">
-        <v>190.8990220669053</v>
+        <v>190.8990220669052</v>
       </c>
       <c r="C414" t="n">
         <v>104.3487867429473</v>
       </c>
       <c r="D414" t="n">
-        <v>73.56212834315021</v>
+        <v>73.56212834315022</v>
       </c>
     </row>
     <row r="415">
@@ -6242,7 +6242,7 @@
         <v>2012</v>
       </c>
       <c r="B415" t="n">
-        <v>190.5589155370178</v>
+        <v>190.5589155370177</v>
       </c>
       <c r="C415" t="n">
         <v>104.3029197080292</v>
@@ -6256,7 +6256,7 @@
         <v>2012</v>
       </c>
       <c r="B416" t="n">
-        <v>190.5589155370178</v>
+        <v>190.5589155370177</v>
       </c>
       <c r="C416" t="n">
         <v>104.3029197080292</v>
@@ -6270,13 +6270,13 @@
         <v>2013</v>
       </c>
       <c r="B417" t="n">
-        <v>190.2188090071303</v>
+        <v>190.2188090071301</v>
       </c>
       <c r="C417" t="n">
         <v>104.2570526731111</v>
       </c>
       <c r="D417" t="n">
-        <v>73.51399261618236</v>
+        <v>73.51399261618238</v>
       </c>
     </row>
     <row r="418">
@@ -6284,7 +6284,7 @@
         <v>2014</v>
       </c>
       <c r="B418" t="n">
-        <v>189.8787024772427</v>
+        <v>189.8787024772425</v>
       </c>
       <c r="C418" t="n">
         <v>104.2111856381929</v>
@@ -6298,7 +6298,7 @@
         <v>2015</v>
       </c>
       <c r="B419" t="n">
-        <v>189.5385959473551</v>
+        <v>189.538595947355</v>
       </c>
       <c r="C419" t="n">
         <v>104.1653186032748</v>
@@ -6312,7 +6312,7 @@
         <v>2016</v>
       </c>
       <c r="B420" t="n">
-        <v>189.1984894174676</v>
+        <v>189.1984894174674</v>
       </c>
       <c r="C420" t="n">
         <v>104.1194515683567</v>
@@ -6326,13 +6326,13 @@
         <v>2017</v>
       </c>
       <c r="B421" t="n">
-        <v>188.8583828875801</v>
+        <v>188.8583828875799</v>
       </c>
       <c r="C421" t="n">
         <v>104.0735845334385</v>
       </c>
       <c r="D421" t="n">
-        <v>73.41772116224666</v>
+        <v>73.41772116224668</v>
       </c>
     </row>
     <row r="422">
@@ -6340,7 +6340,7 @@
         <v>2018</v>
       </c>
       <c r="B422" t="n">
-        <v>188.5182763576925</v>
+        <v>188.5182763576923</v>
       </c>
       <c r="C422" t="n">
         <v>104.0277174985204</v>
@@ -6354,13 +6354,13 @@
         <v>2019</v>
       </c>
       <c r="B423" t="n">
-        <v>188.1781698278049</v>
+        <v>188.1781698278048</v>
       </c>
       <c r="C423" t="n">
         <v>103.9818504636023</v>
       </c>
       <c r="D423" t="n">
-        <v>73.36958543527882</v>
+        <v>73.36958543527884</v>
       </c>
     </row>
     <row r="424">
@@ -6368,10 +6368,10 @@
         <v>2020</v>
       </c>
       <c r="B424" t="n">
-        <v>187.8380632979174</v>
+        <v>187.8380632979172</v>
       </c>
       <c r="C424" t="n">
-        <v>103.9359834286841</v>
+        <v>103.9359834286842</v>
       </c>
       <c r="D424" t="n">
         <v>73.34551757179491</v>
@@ -6382,13 +6382,13 @@
         <v>2021</v>
       </c>
       <c r="B425" t="n">
-        <v>187.4979567680299</v>
+        <v>187.4979567680297</v>
       </c>
       <c r="C425" t="n">
         <v>103.890116393766</v>
       </c>
       <c r="D425" t="n">
-        <v>73.32144970831098</v>
+        <v>73.32144970831099</v>
       </c>
     </row>
     <row r="426">
@@ -6396,7 +6396,7 @@
         <v>2022</v>
       </c>
       <c r="B426" t="n">
-        <v>187.1578502381423</v>
+        <v>187.1578502381421</v>
       </c>
       <c r="C426" t="n">
         <v>103.8442493588479</v>
@@ -6410,7 +6410,7 @@
         <v>2023</v>
       </c>
       <c r="B427" t="n">
-        <v>186.8177437082547</v>
+        <v>186.8177437082545</v>
       </c>
       <c r="C427" t="n">
         <v>103.7983823239298</v>
@@ -6424,7 +6424,7 @@
         <v>2024</v>
       </c>
       <c r="B428" t="n">
-        <v>186.4776371783672</v>
+        <v>186.477637178367</v>
       </c>
       <c r="C428" t="n">
         <v>103.7525152890116</v>
@@ -6438,7 +6438,7 @@
         <v>2025</v>
       </c>
       <c r="B429" t="n">
-        <v>186.1375306484797</v>
+        <v>186.1375306484795</v>
       </c>
       <c r="C429" t="n">
         <v>103.7066482540935</v>
@@ -6452,13 +6452,13 @@
         <v>2026</v>
       </c>
       <c r="B430" t="n">
-        <v>185.7974241185921</v>
+        <v>185.7974241185918</v>
       </c>
       <c r="C430" t="n">
         <v>103.6607812191754</v>
       </c>
       <c r="D430" t="n">
-        <v>73.20111039089137</v>
+        <v>73.20111039089139</v>
       </c>
     </row>
     <row r="431">
@@ -6466,7 +6466,7 @@
         <v>2027</v>
       </c>
       <c r="B431" t="n">
-        <v>185.4573175887045</v>
+        <v>185.4573175887043</v>
       </c>
       <c r="C431" t="n">
         <v>103.6149141842572</v>
@@ -6480,13 +6480,13 @@
         <v>2028</v>
       </c>
       <c r="B432" t="n">
-        <v>185.117211058817</v>
+        <v>185.1172110588168</v>
       </c>
       <c r="C432" t="n">
         <v>103.5690471493391</v>
       </c>
       <c r="D432" t="n">
-        <v>73.15297466392353</v>
+        <v>73.15297466392354</v>
       </c>
     </row>
     <row r="433">
@@ -6494,7 +6494,7 @@
         <v>2029</v>
       </c>
       <c r="B433" t="n">
-        <v>184.7771045289295</v>
+        <v>184.7771045289293</v>
       </c>
       <c r="C433" t="n">
         <v>103.523180114421</v>
@@ -6508,7 +6508,7 @@
         <v>2030</v>
       </c>
       <c r="B434" t="n">
-        <v>184.4369979990419</v>
+        <v>184.4369979990416</v>
       </c>
       <c r="C434" t="n">
         <v>103.4773130795028</v>
@@ -6522,7 +6522,7 @@
         <v>2031</v>
       </c>
       <c r="B435" t="n">
-        <v>184.0968914691543</v>
+        <v>184.0968914691541</v>
       </c>
       <c r="C435" t="n">
         <v>103.4314460445847</v>
@@ -6536,7 +6536,7 @@
         <v>2032</v>
       </c>
       <c r="B436" t="n">
-        <v>183.7567849392668</v>
+        <v>183.7567849392666</v>
       </c>
       <c r="C436" t="n">
         <v>103.3855790096666</v>
@@ -6550,7 +6550,7 @@
         <v>2033</v>
       </c>
       <c r="B437" t="n">
-        <v>183.4166784093793</v>
+        <v>183.416678409379</v>
       </c>
       <c r="C437" t="n">
         <v>103.3397119747485</v>
@@ -6564,7 +6564,7 @@
         <v>2034</v>
       </c>
       <c r="B438" t="n">
-        <v>183.0765718794917</v>
+        <v>183.0765718794914</v>
       </c>
       <c r="C438" t="n">
         <v>103.2938449398303</v>
@@ -6578,7 +6578,7 @@
         <v>2035</v>
       </c>
       <c r="B439" t="n">
-        <v>182.7364653496041</v>
+        <v>182.7364653496039</v>
       </c>
       <c r="C439" t="n">
         <v>103.2479779049122</v>
@@ -6592,13 +6592,13 @@
         <v>2036</v>
       </c>
       <c r="B440" t="n">
-        <v>182.3963588197166</v>
+        <v>182.3963588197164</v>
       </c>
       <c r="C440" t="n">
         <v>103.2021108699941</v>
       </c>
       <c r="D440" t="n">
-        <v>72.96043175605215</v>
+        <v>72.96043175605216</v>
       </c>
     </row>
     <row r="441">
@@ -6606,7 +6606,7 @@
         <v>2037</v>
       </c>
       <c r="B441" t="n">
-        <v>182.0562522898291</v>
+        <v>182.0562522898288</v>
       </c>
       <c r="C441" t="n">
         <v>103.1562438350759</v>
@@ -6620,7 +6620,7 @@
         <v>2038</v>
       </c>
       <c r="B442" t="n">
-        <v>181.7161457599415</v>
+        <v>181.7161457599412</v>
       </c>
       <c r="C442" t="n">
         <v>103.1103768001578</v>
@@ -6634,7 +6634,7 @@
         <v>2039</v>
       </c>
       <c r="B443" t="n">
-        <v>181.3760392300539</v>
+        <v>181.3760392300537</v>
       </c>
       <c r="C443" t="n">
         <v>103.0645097652397</v>
@@ -6648,7 +6648,7 @@
         <v>2040</v>
       </c>
       <c r="B444" t="n">
-        <v>181.0359327001664</v>
+        <v>181.0359327001661</v>
       </c>
       <c r="C444" t="n">
         <v>103.0186427303215</v>
@@ -6662,7 +6662,7 @@
         <v>2041</v>
       </c>
       <c r="B445" t="n">
-        <v>180.6958261702789</v>
+        <v>180.6958261702786</v>
       </c>
       <c r="C445" t="n">
         <v>102.9727756954034</v>
@@ -6676,7 +6676,7 @@
         <v>2042</v>
       </c>
       <c r="B446" t="n">
-        <v>180.3557196403913</v>
+        <v>180.355719640391</v>
       </c>
       <c r="C446" t="n">
         <v>102.9269086604853</v>
@@ -6690,10 +6690,10 @@
         <v>2043</v>
       </c>
       <c r="B447" t="n">
-        <v>180.0156131105038</v>
+        <v>180.0156131105034</v>
       </c>
       <c r="C447" t="n">
-        <v>102.8810416255671</v>
+        <v>102.8810416255672</v>
       </c>
       <c r="D447" t="n">
         <v>72.79195671166471</v>
@@ -6704,7 +6704,7 @@
         <v>2044</v>
       </c>
       <c r="B448" t="n">
-        <v>179.6755065806162</v>
+        <v>179.6755065806159</v>
       </c>
       <c r="C448" t="n">
         <v>102.835174590649</v>
@@ -6718,7 +6718,7 @@
         <v>2045</v>
       </c>
       <c r="B449" t="n">
-        <v>179.3354000507287</v>
+        <v>179.3354000507284</v>
       </c>
       <c r="C449" t="n">
         <v>102.7893075557309</v>
@@ -6732,7 +6732,7 @@
         <v>2046</v>
       </c>
       <c r="B450" t="n">
-        <v>178.9952935208411</v>
+        <v>178.9952935208408</v>
       </c>
       <c r="C450" t="n">
         <v>102.7434405208128</v>
@@ -6746,7 +6746,7 @@
         <v>2047</v>
       </c>
       <c r="B451" t="n">
-        <v>178.6551869909536</v>
+        <v>178.6551869909532</v>
       </c>
       <c r="C451" t="n">
         <v>102.6975734858946</v>
@@ -6760,7 +6760,7 @@
         <v>2048</v>
       </c>
       <c r="B452" t="n">
-        <v>178.315080461066</v>
+        <v>178.3150804610657</v>
       </c>
       <c r="C452" t="n">
         <v>102.6517064509765</v>
@@ -6774,7 +6774,7 @@
         <v>2049</v>
       </c>
       <c r="B453" t="n">
-        <v>177.9749739311785</v>
+        <v>177.9749739311782</v>
       </c>
       <c r="C453" t="n">
         <v>102.6058394160584</v>
@@ -6788,7 +6788,7 @@
         <v>2050</v>
       </c>
       <c r="B454" t="n">
-        <v>177.634867401291</v>
+        <v>177.6348674012905</v>
       </c>
       <c r="C454" t="n">
         <v>102.5599723811402</v>
